--- a/COIN.xlsx
+++ b/COIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3A9674-8413-47F5-BE07-68A237022429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9D1F72-989F-407D-96F5-901EC4E0E7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
@@ -228,9 +228,6 @@
     <t>Net income growth</t>
   </si>
   <si>
-    <t>Financing CF</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>calc.</t>
+  </si>
+  <si>
+    <t>FinCF</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1403,7 +1403,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1411,7 +1411,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1432,23 +1432,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>2025</v>
@@ -1470,12 +1470,12 @@
         <v>2029</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -1489,30 +1489,30 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="42"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="42"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="42"/>
     </row>
@@ -1545,8 +1545,8 @@
   </sheetPr>
   <dimension ref="A1:W762"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1600,20 +1600,20 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S8" s="9"/>
       <c r="U8" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W8" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
@@ -1622,52 +1622,52 @@
         <v>$m</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L9" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M9" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N9" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O9" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q9" s="50" t="s">
-        <v>98</v>
-      </c>
       <c r="R9" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U9" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:23" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E11" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="17">
         <v>7839.4440000000004</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E12" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="16">
         <v>-1267.924</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E13" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="16">
         <v>-1291.5609999999999</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E14" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="16">
         <v>-663.68899999999996</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E15" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="16">
         <v>-909.39200000000005</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E16" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="17" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E17" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="16">
         <v>-153.16</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="18" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E18" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="19" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E19" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="18">
         <v>-477.14800000000002</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="20" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E20" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="16">
         <f>SUM(F12:F19)</f>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="21" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E21" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="18">
         <v>-20.463000000000001</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="22" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="17">
         <f>SUM(F11,F20:F21)</f>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="23" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E23" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="16">
         <v>-29.16</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="24" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E24" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" s="18">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="31" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E31" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="25">
         <f>-F26/F25</f>
@@ -2790,7 +2790,7 @@
     <row r="33" spans="3:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="3:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -2960,7 +2960,7 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="U39" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="3:21" x14ac:dyDescent="0.2">
@@ -2969,52 +2969,52 @@
         <v>$m</v>
       </c>
       <c r="F40" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="H40" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="I40" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I40" s="21" t="s">
-        <v>63</v>
-      </c>
       <c r="K40" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L40" s="49" t="s">
         <v>28</v>
       </c>
       <c r="M40" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N40" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O40" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P40" s="50" t="s">
         <v>29</v>
       </c>
       <c r="Q40" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R40" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S40" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U40" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="3:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E42" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F42" s="16">
         <v>988.19299999999998</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="43" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E43" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F43" s="16">
         <f>625.758</f>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E44" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F44" s="18">
         <f>98.385+59.23+952.307+176.689</f>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E45" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F45" s="17">
         <f>SUM(F42:F44)</f>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E47" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F47" s="16">
         <v>100.096</v>
@@ -3274,13 +3274,13 @@
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E48" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G48" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H48" s="16">
         <v>74.102999999999994</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E50" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F50" s="18">
         <f>18373.863-SUM(F46:F49)</f>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E55" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="46">
         <v>3938</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E56" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F56" s="46">
         <f>SUM(F46:F47)</f>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E57" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F57" s="17">
         <f>+F55-F56</f>
@@ -3874,7 +3874,7 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="U62" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="3:21" x14ac:dyDescent="0.2">
@@ -3883,46 +3883,46 @@
         <v>$m</v>
       </c>
       <c r="F63" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="H63" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="21" t="s">
+      <c r="I63" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I63" s="21" t="s">
-        <v>63</v>
-      </c>
       <c r="K63" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L63" s="49" t="s">
         <v>28</v>
       </c>
       <c r="M63" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N63" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O63" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P63" s="50" t="s">
         <v>29</v>
       </c>
       <c r="Q63" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R63" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S63" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U63" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="3:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3942,22 +3942,35 @@
       <c r="I65" s="16">
         <v>2556.8440000000001</v>
       </c>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
+      <c r="K65" s="16">
+        <v>463.07799999999997</v>
+      </c>
+      <c r="L65" s="16">
+        <v>614.202</v>
+      </c>
       <c r="M65" s="16">
         <f>928.137-SUM(K65:L65)</f>
-        <v>928.13699999999994</v>
-      </c>
-      <c r="N65" s="16"/>
+        <v>-149.14300000000003</v>
+      </c>
+      <c r="N65" s="16">
+        <f>I65-SUM(K65:M65)</f>
+        <v>1628.7070000000001</v>
+      </c>
       <c r="O65" s="16">
         <v>411.48500000000001</v>
       </c>
-      <c r="P65" s="16"/>
+      <c r="P65" s="16">
+        <f>895.682-O65</f>
+        <v>484.197</v>
+      </c>
       <c r="Q65" s="16">
         <f>1592.226-SUM(O65:P65)</f>
-        <v>1180.741</v>
-      </c>
-      <c r="R65" s="16"/>
+        <v>696.5440000000001</v>
+      </c>
+      <c r="R65" s="16">
+        <f>I65-SUM(O65:Q65)</f>
+        <v>964.61799999999994</v>
+      </c>
       <c r="S65" s="16">
         <v>-182.727</v>
       </c>
@@ -3982,22 +3995,35 @@
       <c r="I66" s="18">
         <v>-282.38499999999999</v>
       </c>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
+      <c r="K66" s="18">
+        <v>-26.08</v>
+      </c>
+      <c r="L66" s="18">
+        <v>-12.754</v>
+      </c>
       <c r="M66" s="18">
         <f>-85.117-SUM(K66:L66)</f>
-        <v>-85.117000000000004</v>
-      </c>
-      <c r="N66" s="18"/>
+        <v>-46.283000000000008</v>
+      </c>
+      <c r="N66" s="18">
+        <f>I66-SUM(K66:M66)</f>
+        <v>-197.26799999999997</v>
+      </c>
       <c r="O66" s="18">
         <v>-125.681</v>
       </c>
-      <c r="P66" s="18"/>
+      <c r="P66" s="18">
+        <f>-144.292-O66</f>
+        <v>-18.611000000000004</v>
+      </c>
       <c r="Q66" s="18">
         <f>-232.969-SUM(O66:P66)</f>
-        <v>-107.288</v>
-      </c>
-      <c r="R66" s="18"/>
+        <v>-88.676999999999992</v>
+      </c>
+      <c r="R66" s="18">
+        <f>I66-SUM(O66:Q66)</f>
+        <v>-49.415999999999997</v>
+      </c>
       <c r="S66" s="18">
         <v>-231.65299999999999</v>
       </c>
@@ -4028,19 +4054,19 @@
       </c>
       <c r="K67" s="17">
         <f t="shared" ref="K67:N67" si="67">+K65+K66</f>
-        <v>0</v>
+        <v>436.99799999999999</v>
       </c>
       <c r="L67" s="17">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>601.44799999999998</v>
       </c>
       <c r="M67" s="17">
         <f t="shared" si="67"/>
-        <v>843.02</v>
+        <v>-195.42600000000004</v>
       </c>
       <c r="N67" s="17">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1431.4390000000001</v>
       </c>
       <c r="O67" s="17">
         <f>+O65+O66</f>
@@ -4048,15 +4074,15 @@
       </c>
       <c r="P67" s="17">
         <f>+P65+P66</f>
-        <v>0</v>
+        <v>465.58600000000001</v>
       </c>
       <c r="Q67" s="17">
         <f t="shared" ref="Q67:S67" si="68">+Q65+Q66</f>
-        <v>1073.453</v>
+        <v>607.86700000000008</v>
       </c>
       <c r="R67" s="17">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>915.202</v>
       </c>
       <c r="S67" s="17">
         <f t="shared" si="68"/>
@@ -4069,7 +4095,7 @@
     </row>
     <row r="68" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E68" s="13" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F68" s="16">
         <v>9976.0840000000007</v>
@@ -4083,22 +4109,35 @@
       <c r="I68" s="16">
         <v>2828.9209999999998</v>
       </c>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
+      <c r="K68" s="16">
+        <v>460.12900000000002</v>
+      </c>
+      <c r="L68" s="16">
+        <v>-1142.2629999999999</v>
+      </c>
       <c r="M68" s="16">
         <f>-1734.128-SUM(K68:L68)</f>
-        <v>-1734.1279999999999</v>
-      </c>
-      <c r="N68" s="16"/>
+        <v>-1051.9940000000001</v>
+      </c>
+      <c r="N68" s="16">
+        <f>I68-SUM(K68:M68)</f>
+        <v>4563.049</v>
+      </c>
       <c r="O68" s="16">
         <v>1927.721</v>
       </c>
-      <c r="P68" s="16"/>
+      <c r="P68" s="16">
+        <f>993.988-O68</f>
+        <v>-933.73299999999995</v>
+      </c>
       <c r="Q68" s="16">
         <f>682.663-SUM(O68:P68)</f>
-        <v>-1245.058</v>
-      </c>
-      <c r="R68" s="16"/>
+        <v>-311.32500000000005</v>
+      </c>
+      <c r="R68" s="16">
+        <f>I68-SUM(O68:Q68)</f>
+        <v>2146.2579999999998</v>
+      </c>
       <c r="S68" s="16">
         <v>-893.80200000000002</v>
       </c>
@@ -4107,7 +4146,7 @@
         <v>-0.34301784391940782</v>
       </c>
       <c r="W68" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="5:23" x14ac:dyDescent="0.2">
@@ -14509,9 +14548,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F20:I20 K69:P209 S69:S209 K20:M68" formulaRange="1"/>
+    <ignoredError sqref="F20:I20 K69:P209 S69:S209 K20:M64 K67:M67 M65 M66 M68" formulaRange="1"/>
     <ignoredError sqref="Q210:R220" formula="1"/>
-    <ignoredError sqref="Q69:R209 S20:S68 N20:P68 Q20:R68" formula="1" formulaRange="1"/>
+    <ignoredError sqref="Q69:R209 S20:S68 N20:P64 Q20:R64 Q67:R67 Q65 Q66 Q68 N67:P67 O65 O66 O68" formula="1" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/COIN.xlsx
+++ b/COIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D9BA9-65C6-495F-9958-9BB39A3723A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4429F930-1CB2-48B8-B033-FA01FAF771FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="767" activeTab="6" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="5520" yWindow="3645" windowWidth="26070" windowHeight="14550" tabRatio="767" activeTab="6" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
     <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="6" xr2:uid="{86BB5FE7-7F59-48E1-932A-2B108A8A5023}"/>
   </bookViews>
   <sheets>
@@ -416,9 +416,6 @@
     <t>Other income/ (expense)</t>
   </si>
   <si>
-    <t>Movement coming from custodial customer funds</t>
-  </si>
-  <si>
     <t>Q2 FY24</t>
   </si>
   <si>
@@ -504,6 +501,9 @@
   </si>
   <si>
     <t>P/B (Dec24)</t>
+  </si>
+  <si>
+    <t>Movement coming from custodial customer funds (FS like)</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1698,7 @@
   </sheetPr>
   <dimension ref="A1:P704"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="183" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
@@ -1767,7 +1767,7 @@
     <row r="10" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E11" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="17">
         <v>50752</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E13" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13" s="16">
         <f>+Historical!S56</f>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E14" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="17">
         <f>SUM(F11:F13)</f>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F16" s="51">
         <f>+F11/Historical!I27</f>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" s="51">
         <f>+F11/Historical!I55</f>
@@ -1923,19 +1923,19 @@
         <v>USDmn</v>
       </c>
       <c r="F20" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="H20" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="I20" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="J20" s="52" t="s">
         <v>121</v>
-      </c>
-      <c r="J20" s="52" t="s">
-        <v>122</v>
       </c>
       <c r="K20" s="53" t="s">
         <v>49</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" s="16">
         <v>0</v>
@@ -1985,7 +1985,7 @@
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E24" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F24" s="54">
         <f>SUM(F22:F23)</f>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="29" spans="5:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" s="55">
         <f>F26*F27+F28</f>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" s="46">
         <f>1/(1+F31)^1</f>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E33" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" s="17">
         <f>F24*F32</f>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E34" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F34" s="17">
         <f>SUM(F33:K33)</f>
@@ -11074,10 +11074,10 @@
   <dimension ref="A1:W763"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="1">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -11131,13 +11131,13 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S8" s="9"/>
       <c r="U8" s="34" t="s">
@@ -11165,22 +11165,22 @@
         <v>43</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N9" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O9" s="48" t="s">
         <v>96</v>
       </c>
       <c r="P9" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q9" s="48" t="s">
         <v>97</v>
@@ -12149,7 +12149,7 @@
     </row>
     <row r="30" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E30" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" s="25">
         <f>+F13/-F11</f>
@@ -12569,13 +12569,13 @@
         <v>62</v>
       </c>
       <c r="K41" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L41" s="47" t="s">
         <v>28</v>
       </c>
       <c r="M41" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N41" s="47" t="s">
         <v>61</v>
@@ -12640,7 +12640,7 @@
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E44" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F44" s="16">
         <f>625.758</f>
@@ -13207,7 +13207,7 @@
     </row>
     <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F57" s="16">
         <f>SUM(F47:F48)</f>
@@ -13483,13 +13483,13 @@
         <v>62</v>
       </c>
       <c r="K64" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L64" s="47" t="s">
         <v>28</v>
       </c>
       <c r="M64" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N64" s="47" t="s">
         <v>61</v>
@@ -13683,7 +13683,7 @@
     </row>
     <row r="69" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E69" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F69" s="16">
         <v>9976.0840000000007</v>
@@ -13734,7 +13734,7 @@
         <v>-0.34301784391940782</v>
       </c>
       <c r="W69" s="30" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="5:23" x14ac:dyDescent="0.2">

--- a/COIN.xlsx
+++ b/COIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD8E0C4-6B3F-480A-8596-237E2B7A5F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5B5B2F-237C-40A3-86CA-0273585CB0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="767" activeTab="6" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="25920" windowHeight="20985" tabRatio="767" activeTab="6" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="143">
   <si>
     <t>Font</t>
   </si>
@@ -529,14 +529,17 @@
     <t>Subscription revenue</t>
   </si>
   <si>
-    <t>Other revenue</t>
+    <t>Custodial fee</t>
+  </si>
+  <si>
+    <t>Corporate interest and other rev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%;\(0.0%\)"/>
@@ -544,6 +547,7 @@
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="169" formatCode="#,###.0\x"/>
     <numFmt numFmtId="170" formatCode="0.00%;\(0.00%\)"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -627,7 +631,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,6 +689,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -924,6 +934,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1764,7 +1777,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="16">
-        <f>Historical!S67*-1</f>
+        <f>Historical!S68*-1</f>
         <v>-10276.223</v>
       </c>
       <c r="G12" s="50"/>
@@ -1785,7 +1798,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="16">
-        <f>+Historical!S66</f>
+        <f>+Historical!S67</f>
         <v>4509.7</v>
       </c>
       <c r="G13" s="50"/>
@@ -1838,7 +1851,7 @@
         <v>129</v>
       </c>
       <c r="F16" s="51">
-        <f>+F11/Historical!I37</f>
+        <f>+F11/Historical!I38</f>
         <v>19.678441730455905</v>
       </c>
       <c r="G16" s="50"/>
@@ -1857,7 +1870,7 @@
         <v>130</v>
       </c>
       <c r="F17" s="51">
-        <f>+F11/Historical!I65</f>
+        <f>+F11/Historical!I66</f>
         <v>4.938482074551696</v>
       </c>
       <c r="G17" s="50"/>
@@ -11045,10 +11058,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:W773"/>
+  <dimension ref="A1:W774"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -11171,685 +11184,911 @@
       <c r="E11" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="F11" s="16">
+        <v>6490.9920000000002</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2236.9</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1334.018</v>
+      </c>
+      <c r="I11" s="16">
+        <v>3430.3220000000001</v>
+      </c>
+      <c r="K11" s="16">
+        <v>329.15199999999999</v>
+      </c>
+      <c r="L11" s="16">
+        <v>288.971</v>
+      </c>
+      <c r="M11" s="16">
+        <v>246.98</v>
+      </c>
+      <c r="N11" s="16">
+        <f t="shared" ref="N11:N13" si="0">H11-SUM(K11:M11)</f>
+        <v>468.91499999999996</v>
+      </c>
       <c r="O11" s="16">
         <v>935.21199999999999</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
+      <c r="P11" s="16">
+        <v>664.77200000000005</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>483.26100000000002</v>
+      </c>
+      <c r="R11" s="16">
+        <f t="shared" ref="R11:R13" si="1">I11-SUM(O11:Q11)</f>
+        <v>1347.0770000000002</v>
+      </c>
       <c r="S11" s="16">
         <v>1095.5060000000001</v>
       </c>
-      <c r="U11" s="25" t="str">
+      <c r="U11" s="25">
         <f>IFERROR((I11/F11)^(1/3)-1,"n/a")</f>
-        <v>n/a</v>
+        <v>-0.19151008876583597</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E12" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="F12" s="16">
+        <v>346.274</v>
+      </c>
+      <c r="G12" s="16">
+        <v>119.34399999999999</v>
+      </c>
+      <c r="H12" s="16">
+        <v>90.164000000000001</v>
+      </c>
+      <c r="I12" s="16">
+        <v>345.59800000000001</v>
+      </c>
+      <c r="K12" s="16">
+        <v>22.311</v>
+      </c>
+      <c r="L12" s="16">
+        <v>17.061</v>
+      </c>
+      <c r="M12" s="16">
+        <v>14.07</v>
+      </c>
+      <c r="N12" s="16">
+        <f t="shared" si="0"/>
+        <v>36.722000000000001</v>
+      </c>
       <c r="O12" s="16">
         <v>85.391999999999996</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
+      <c r="P12" s="16">
+        <v>63.624000000000002</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>55.292999999999999</v>
+      </c>
+      <c r="R12" s="16">
+        <f t="shared" si="1"/>
+        <v>141.28900000000002</v>
+      </c>
       <c r="S12" s="16">
         <v>98.888000000000005</v>
       </c>
-      <c r="U12" s="25"/>
+      <c r="U12" s="25">
+        <f t="shared" ref="U12:U21" si="2">IFERROR((I12/F12)^(1/3)-1,"n/a")</f>
+        <v>-6.5116100350981476E-4</v>
+      </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E13" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>95.471999999999994</v>
+      </c>
+      <c r="I13" s="18">
+        <v>210.19300000000001</v>
+      </c>
+      <c r="K13" s="18">
+        <v>23.25</v>
+      </c>
+      <c r="L13" s="18">
+        <v>21.065999999999999</v>
+      </c>
+      <c r="M13" s="18">
+        <v>27.524999999999999</v>
+      </c>
+      <c r="N13" s="18">
+        <f t="shared" si="0"/>
+        <v>23.630999999999986</v>
+      </c>
       <c r="O13" s="18">
         <v>56.137</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
+      <c r="P13" s="18">
+        <v>52.506</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="R13" s="18">
+        <f t="shared" si="1"/>
+        <v>67.599999999999994</v>
+      </c>
       <c r="S13" s="18">
         <v>67.813999999999993</v>
       </c>
-      <c r="U13" s="25"/>
+      <c r="U13" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>n/a</v>
+      </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E14" s="13" t="s">
         <v>132</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" ref="F14" si="0">SUM(F11:F13)</f>
-        <v>0</v>
+        <f t="shared" ref="F14" si="3">SUM(F11:F13)</f>
+        <v>6837.2660000000005</v>
       </c>
       <c r="G14" s="16">
-        <f t="shared" ref="G14" si="1">SUM(G11:G13)</f>
-        <v>0</v>
+        <f t="shared" ref="G14" si="4">SUM(G11:G13)</f>
+        <v>2356.2440000000001</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" ref="H14" si="2">SUM(H11:H13)</f>
-        <v>0</v>
+        <f t="shared" ref="H14" si="5">SUM(H11:H13)</f>
+        <v>1519.654</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" ref="I14" si="3">SUM(I11:I13)</f>
-        <v>0</v>
+        <f t="shared" ref="I14" si="6">SUM(I11:I13)</f>
+        <v>3986.1130000000003</v>
       </c>
       <c r="K14" s="16">
-        <f t="shared" ref="K14:R14" si="4">SUM(K11:K13)</f>
-        <v>0</v>
+        <f t="shared" ref="K14:R14" si="7">SUM(K11:K13)</f>
+        <v>374.71299999999997</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>327.09799999999996</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>288.57499999999999</v>
       </c>
       <c r="N14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>529.26799999999992</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1076.741</v>
       </c>
       <c r="P14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>780.90200000000004</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>572.50400000000002</v>
       </c>
       <c r="R14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1555.9660000000001</v>
       </c>
       <c r="S14" s="16">
         <f>SUM(S11:S13)</f>
         <v>1262.2080000000001</v>
       </c>
-      <c r="U14" s="25"/>
+      <c r="U14" s="25">
+        <f t="shared" si="2"/>
+        <v>-0.16461044041852402</v>
+      </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E15" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="F15" s="16">
+        <v>9.8819999999999997</v>
+      </c>
+      <c r="G15" s="16">
+        <v>245.71</v>
+      </c>
+      <c r="H15" s="16">
+        <v>694.24699999999996</v>
+      </c>
+      <c r="I15" s="16">
+        <v>910.46400000000006</v>
+      </c>
+      <c r="K15" s="16">
+        <v>198.898</v>
+      </c>
+      <c r="L15" s="16">
+        <v>151.39400000000001</v>
+      </c>
+      <c r="M15" s="16">
+        <v>172.357</v>
+      </c>
+      <c r="N15" s="16">
+        <f t="shared" ref="N15:N19" si="8">H15-SUM(K15:M15)</f>
+        <v>171.59799999999996</v>
+      </c>
       <c r="O15" s="16">
         <v>197.31700000000001</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
+      <c r="P15" s="16">
+        <v>240.43600000000001</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>246.85599999999999</v>
+      </c>
+      <c r="R15" s="16">
+        <f t="shared" ref="R15:R18" si="9">I15-SUM(O15:Q15)</f>
+        <v>225.85500000000002</v>
+      </c>
       <c r="S15" s="16">
         <v>297.53500000000003</v>
       </c>
-      <c r="U15" s="25"/>
+      <c r="U15" s="25">
+        <f t="shared" si="2"/>
+        <v>3.5165412003394803</v>
+      </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E16" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="F16" s="16">
+        <v>223.05500000000001</v>
+      </c>
+      <c r="G16" s="16">
+        <v>275.50700000000001</v>
+      </c>
+      <c r="H16" s="16">
+        <v>330.88499999999999</v>
+      </c>
+      <c r="I16" s="16">
+        <v>705.75699999999995</v>
+      </c>
+      <c r="K16" s="16">
+        <v>73.748999999999995</v>
+      </c>
+      <c r="L16" s="16">
+        <v>87.613</v>
+      </c>
+      <c r="M16" s="16">
+        <v>74.460999999999999</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" si="8"/>
+        <v>95.062000000000012</v>
+      </c>
       <c r="O16" s="16">
         <v>150.929</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="P16" s="16">
+        <v>185.13900000000001</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>154.815</v>
+      </c>
+      <c r="R16" s="16">
+        <f t="shared" si="9"/>
+        <v>214.87399999999997</v>
+      </c>
       <c r="S16" s="16">
         <v>196.59200000000001</v>
       </c>
-      <c r="U16" s="25"/>
+      <c r="U16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.46807331238642602</v>
+      </c>
     </row>
     <row r="17" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E17" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="F17" s="16">
+        <v>15.952999999999999</v>
+      </c>
+      <c r="G17" s="16">
+        <v>81.245999999999995</v>
+      </c>
+      <c r="H17" s="16">
+        <v>186.685</v>
+      </c>
+      <c r="I17" s="16">
+        <v>265.79899999999998</v>
+      </c>
+      <c r="K17" s="16">
+        <v>43.313000000000002</v>
+      </c>
+      <c r="L17" s="16">
+        <v>51.932000000000002</v>
+      </c>
+      <c r="M17" s="16">
+        <v>42.517000000000003</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" si="8"/>
+        <v>48.923000000000002</v>
+      </c>
       <c r="O17" s="16">
         <v>66.662999999999997</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="P17" s="16">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>63.987000000000002</v>
+      </c>
+      <c r="R17" s="16">
+        <f t="shared" si="9"/>
+        <v>65.748999999999995</v>
+      </c>
       <c r="S17" s="16">
         <v>63.085999999999999</v>
       </c>
-      <c r="U17" s="25"/>
+      <c r="U17" s="25">
+        <f t="shared" si="2"/>
+        <v>1.554094680148129</v>
+      </c>
     </row>
     <row r="18" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E18" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="16">
+        <v>136.29300000000001</v>
+      </c>
+      <c r="G18" s="16">
+        <v>79.846999999999994</v>
+      </c>
+      <c r="H18" s="16">
+        <v>69.501000000000005</v>
+      </c>
+      <c r="I18" s="16">
+        <v>141.70599999999999</v>
+      </c>
+      <c r="K18" s="16">
+        <v>17.042999999999999</v>
+      </c>
+      <c r="L18" s="16">
+        <v>16.992000000000001</v>
+      </c>
+      <c r="M18" s="16">
+        <v>15.805</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" si="8"/>
+        <v>19.661000000000008</v>
+      </c>
+      <c r="O18" s="16">
+        <v>32.341000000000001</v>
+      </c>
+      <c r="P18" s="16">
+        <v>34.505000000000003</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>31.722999999999999</v>
+      </c>
+      <c r="R18" s="16">
+        <f t="shared" si="9"/>
+        <v>43.136999999999986</v>
+      </c>
+      <c r="S18" s="58"/>
+      <c r="U18" s="25">
+        <f t="shared" si="2"/>
+        <v>1.3067141465875398E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E19" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18">
-        <v>96.027000000000001</v>
-      </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18">
+      <c r="F19" s="18">
+        <v>132.304</v>
+      </c>
+      <c r="G19" s="18">
+        <v>110.261</v>
+      </c>
+      <c r="H19" s="18">
+        <v>125.568</v>
+      </c>
+      <c r="I19" s="18">
+        <v>283.40699999999998</v>
+      </c>
+      <c r="K19" s="18">
+        <v>28.681999999999999</v>
+      </c>
+      <c r="L19" s="18">
+        <v>27.471</v>
+      </c>
+      <c r="M19" s="18">
+        <v>29.289000000000001</v>
+      </c>
+      <c r="N19" s="18">
+        <f t="shared" si="8"/>
+        <v>40.125999999999991</v>
+      </c>
+      <c r="O19" s="18">
+        <v>63.686</v>
+      </c>
+      <c r="P19" s="18">
+        <v>69.56</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>58.712000000000003</v>
+      </c>
+      <c r="R19" s="18">
+        <f t="shared" ref="R19:R37" si="10">I19-SUM(O19:Q19)</f>
+        <v>91.448999999999955</v>
+      </c>
+      <c r="S19" s="59">
         <v>140.898</v>
       </c>
-      <c r="U18" s="25"/>
-    </row>
-    <row r="19" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E19" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="16">
-        <f t="shared" ref="F19:Q19" si="5">SUM(F15:F18)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="16">
-        <f t="shared" si="5"/>
-        <v>510.93599999999998</v>
-      </c>
-      <c r="P19" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="16">
-        <f>SUM(R15:R18)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="16">
-        <f>SUM(S15:S18)</f>
-        <v>698.1110000000001</v>
-      </c>
-      <c r="U19" s="25"/>
+      <c r="U19" s="25">
+        <f t="shared" si="2"/>
+        <v>0.28907800841725306</v>
+      </c>
     </row>
     <row r="20" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E20" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18">
+        <v>140</v>
+      </c>
+      <c r="F20" s="16">
+        <f>SUM(F15:F19)</f>
+        <v>517.48699999999997</v>
+      </c>
+      <c r="G20" s="16">
+        <f>SUM(G15:G19)</f>
+        <v>792.57099999999991</v>
+      </c>
+      <c r="H20" s="16">
+        <f>SUM(H15:H19)</f>
+        <v>1406.886</v>
+      </c>
+      <c r="I20" s="16">
+        <f>SUM(I15:I19)</f>
+        <v>2307.1329999999998</v>
+      </c>
+      <c r="K20" s="16">
+        <f>SUM(K15:K19)</f>
+        <v>361.685</v>
+      </c>
+      <c r="L20" s="16">
+        <f>SUM(L15:L19)</f>
+        <v>335.40200000000004</v>
+      </c>
+      <c r="M20" s="16">
+        <f>SUM(M15:M19)</f>
+        <v>334.42899999999997</v>
+      </c>
+      <c r="N20" s="16">
+        <f>SUM(N15:N19)</f>
+        <v>375.36999999999995</v>
+      </c>
+      <c r="O20" s="16">
+        <f>SUM(O15:O19)</f>
+        <v>510.93599999999998</v>
+      </c>
+      <c r="P20" s="16">
+        <f>SUM(P15:P19)</f>
+        <v>599.04</v>
+      </c>
+      <c r="Q20" s="16">
+        <f>SUM(Q15:Q19)</f>
+        <v>556.09300000000007</v>
+      </c>
+      <c r="R20" s="16">
+        <f>SUM(R15:R19)</f>
+        <v>641.06399999999985</v>
+      </c>
+      <c r="S20" s="16">
+        <f>SUM(S15:S19)</f>
+        <v>698.1110000000001</v>
+      </c>
+      <c r="U20" s="25">
+        <f t="shared" si="2"/>
+        <v>0.64585307160833261</v>
+      </c>
+    </row>
+    <row r="21" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E21" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="18">
+        <v>484.69099999999997</v>
+      </c>
+      <c r="G21" s="18">
+        <v>45.393000000000001</v>
+      </c>
+      <c r="H21" s="18">
+        <v>181.84299999999999</v>
+      </c>
+      <c r="I21" s="18">
+        <v>270.78199999999998</v>
+      </c>
+      <c r="K21" s="18">
+        <v>36.131</v>
+      </c>
+      <c r="L21" s="18">
+        <v>45.411000000000001</v>
+      </c>
+      <c r="M21" s="18">
+        <v>51.143999999999998</v>
+      </c>
+      <c r="N21" s="18">
+        <f t="shared" ref="N21:N37" si="11">H21-SUM(K21:M21)</f>
+        <v>49.156999999999982</v>
+      </c>
+      <c r="O21" s="18">
         <v>49.893000000000001</v>
       </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18">
+      <c r="P21" s="18">
+        <v>69.686000000000007</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>76.596000000000004</v>
+      </c>
+      <c r="R21" s="18">
+        <f t="shared" si="10"/>
+        <v>74.606999999999971</v>
+      </c>
+      <c r="S21" s="18">
         <v>73.975999999999999</v>
       </c>
-      <c r="U20" s="25"/>
-    </row>
-    <row r="21" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E21" s="14" t="s">
+      <c r="U21" s="25">
+        <f t="shared" si="2"/>
+        <v>-0.17639631956973301</v>
+      </c>
+    </row>
+    <row r="22" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E22" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F22" s="17">
+        <f>SUM(F20:F21,F14)</f>
         <v>7839.4440000000004</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G22" s="17">
+        <f>SUM(G20:G21,G14)</f>
         <v>3194.2080000000001</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H22" s="17">
+        <f>SUM(H20:H21,H14)</f>
         <v>3108.3829999999998</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I22" s="17">
+        <f>SUM(I20:I21,I14)</f>
         <v>6564.0280000000002</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K22" s="17">
+        <f>SUM(K20:K21,K14)</f>
         <v>772.529</v>
       </c>
-      <c r="L21" s="17">
-        <v>707.91099999999994</v>
-      </c>
-      <c r="M21" s="17">
-        <v>674.14800000000002</v>
-      </c>
-      <c r="N21" s="17">
-        <f>H21-SUM(K21:M21)</f>
-        <v>953.79499999999962</v>
-      </c>
-      <c r="O21" s="17">
-        <f>SUM(O19:O20,O14)</f>
+      <c r="L22" s="17">
+        <f t="shared" ref="L22:S22" si="12">SUM(L20:L21,L14)</f>
+        <v>707.91100000000006</v>
+      </c>
+      <c r="M22" s="17">
+        <f t="shared" si="12"/>
+        <v>674.14799999999991</v>
+      </c>
+      <c r="N22" s="17">
+        <f t="shared" si="12"/>
+        <v>953.79499999999985</v>
+      </c>
+      <c r="O22" s="17">
+        <f t="shared" si="12"/>
         <v>1637.57</v>
       </c>
-      <c r="P21" s="17">
-        <v>1449.6279999999999</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>1205.193</v>
-      </c>
-      <c r="R21" s="17">
-        <f>I21-SUM(O21:Q21)</f>
-        <v>2271.6370000000006</v>
-      </c>
-      <c r="S21" s="17">
-        <f>SUM(S19:S20,S14)</f>
+      <c r="P22" s="17">
+        <f t="shared" si="12"/>
+        <v>1449.6280000000002</v>
+      </c>
+      <c r="Q22" s="17">
+        <f t="shared" si="12"/>
+        <v>1205.1930000000002</v>
+      </c>
+      <c r="R22" s="17">
+        <f t="shared" si="12"/>
+        <v>2271.6369999999997</v>
+      </c>
+      <c r="S22" s="17">
+        <f t="shared" si="12"/>
         <v>2034.2950000000001</v>
       </c>
-      <c r="U21" s="35">
-        <f>IFERROR((I21/F21)^(1/3)-1,"n/a")</f>
+      <c r="U22" s="35">
+        <f>IFERROR((I22/F22)^(1/3)-1,"n/a")</f>
         <v>-5.7470277979168927E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E22" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="16">
-        <v>-1267.924</v>
-      </c>
-      <c r="G22" s="16">
-        <v>-629.88</v>
-      </c>
-      <c r="H22" s="16">
-        <v>-420.70499999999998</v>
-      </c>
-      <c r="I22" s="16">
-        <v>-897.70699999999999</v>
-      </c>
-      <c r="K22" s="16">
-        <v>-96.369</v>
-      </c>
-      <c r="L22" s="16">
-        <v>-108.2</v>
-      </c>
-      <c r="M22" s="16">
-        <v>-90.576999999999998</v>
-      </c>
-      <c r="N22" s="16">
-        <f t="shared" ref="N22:N36" si="6">H22-SUM(K22:M22)</f>
-        <v>-125.55899999999997</v>
-      </c>
-      <c r="O22" s="16">
-        <v>-217.40700000000001</v>
-      </c>
-      <c r="P22" s="16">
-        <v>-191.477</v>
-      </c>
-      <c r="Q22" s="16">
-        <v>-171.78100000000001</v>
-      </c>
-      <c r="R22" s="16">
-        <f t="shared" ref="R22:R36" si="7">I22-SUM(O22:Q22)</f>
-        <v>-317.04200000000003</v>
-      </c>
-      <c r="S22" s="16">
-        <v>-303.02600000000001</v>
-      </c>
-      <c r="U22" s="25">
-        <f>IFERROR((I22/F22)^(1/3)-1,"n/a")</f>
-        <v>-0.10872074872291071</v>
       </c>
     </row>
     <row r="23" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E23" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="16">
-        <v>-1291.5609999999999</v>
+        <v>-1267.924</v>
       </c>
       <c r="G23" s="16">
-        <v>-2326.3539999999998</v>
+        <v>-629.88</v>
       </c>
       <c r="H23" s="16">
-        <v>-1324.5409999999999</v>
+        <v>-420.70499999999998</v>
       </c>
       <c r="I23" s="16">
-        <v>-1468.252</v>
+        <v>-897.70699999999999</v>
       </c>
       <c r="K23" s="16">
-        <v>-358.03100000000001</v>
+        <v>-96.369</v>
       </c>
       <c r="L23" s="16">
-        <v>-320.66699999999997</v>
+        <v>-108.2</v>
       </c>
       <c r="M23" s="16">
-        <v>-322.75599999999997</v>
+        <v>-90.576999999999998</v>
       </c>
       <c r="N23" s="16">
-        <f t="shared" si="6"/>
-        <v>-323.08699999999999</v>
+        <f t="shared" si="11"/>
+        <v>-125.55899999999997</v>
       </c>
       <c r="O23" s="16">
-        <v>-357.863</v>
+        <v>-217.40700000000001</v>
       </c>
       <c r="P23" s="16">
-        <v>-364.25799999999998</v>
+        <v>-191.477</v>
       </c>
       <c r="Q23" s="16">
-        <v>-377.44</v>
+        <v>-171.78100000000001</v>
       </c>
       <c r="R23" s="16">
-        <f t="shared" si="7"/>
-        <v>-368.69100000000003</v>
+        <f t="shared" si="10"/>
+        <v>-317.04200000000003</v>
       </c>
       <c r="S23" s="16">
-        <v>-355.36799999999999</v>
+        <v>-303.02600000000001</v>
       </c>
       <c r="U23" s="25">
         <f>IFERROR((I23/F23)^(1/3)-1,"n/a")</f>
-        <v>4.3666858777077211E-2</v>
+        <v>-0.10872074872291071</v>
       </c>
     </row>
     <row r="24" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E24" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="16">
-        <v>-663.68899999999996</v>
+        <v>-1291.5609999999999</v>
       </c>
       <c r="G24" s="16">
-        <v>-510.089</v>
+        <v>-2326.3539999999998</v>
       </c>
       <c r="H24" s="16">
-        <v>-332.31200000000001</v>
+        <v>-1324.5409999999999</v>
       </c>
       <c r="I24" s="16">
-        <v>-654.44399999999996</v>
+        <v>-1468.252</v>
       </c>
       <c r="K24" s="16">
-        <v>-63.975999999999999</v>
+        <v>-358.03100000000001</v>
       </c>
       <c r="L24" s="16">
-        <v>-83.852999999999994</v>
+        <v>-320.66699999999997</v>
       </c>
       <c r="M24" s="16">
-        <v>-78.177999999999997</v>
+        <v>-322.75599999999997</v>
       </c>
       <c r="N24" s="16">
-        <f t="shared" si="6"/>
-        <v>-106.30500000000001</v>
+        <f t="shared" si="11"/>
+        <v>-323.08699999999999</v>
       </c>
       <c r="O24" s="16">
-        <v>-98.584999999999994</v>
+        <v>-357.863</v>
       </c>
       <c r="P24" s="16">
-        <v>-165.262</v>
+        <v>-364.25799999999998</v>
       </c>
       <c r="Q24" s="16">
-        <v>-164.77</v>
+        <v>-377.44</v>
       </c>
       <c r="R24" s="16">
-        <f t="shared" si="7"/>
-        <v>-225.827</v>
+        <f t="shared" si="10"/>
+        <v>-368.69100000000003</v>
       </c>
       <c r="S24" s="16">
-        <v>-247.28299999999999</v>
+        <v>-355.36799999999999</v>
       </c>
       <c r="U24" s="25">
         <f>IFERROR((I24/F24)^(1/3)-1,"n/a")</f>
-        <v>-4.6649671056675501E-3</v>
+        <v>4.3666858777077211E-2</v>
       </c>
     </row>
     <row r="25" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E25" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="16">
-        <v>-909.39200000000005</v>
+        <v>-663.68899999999996</v>
       </c>
       <c r="G25" s="16">
-        <v>-1600.586</v>
+        <v>-510.089</v>
       </c>
       <c r="H25" s="16">
-        <v>-1074.308</v>
+        <v>-332.31200000000001</v>
       </c>
       <c r="I25" s="16">
-        <v>-1300.2570000000001</v>
+        <v>-654.44399999999996</v>
       </c>
       <c r="K25" s="16">
-        <v>-248.761</v>
+        <v>-63.975999999999999</v>
       </c>
       <c r="L25" s="16">
-        <v>-258.988</v>
+        <v>-83.852999999999994</v>
       </c>
       <c r="M25" s="16">
-        <v>-252.63</v>
+        <v>-78.177999999999997</v>
       </c>
       <c r="N25" s="16">
-        <f t="shared" si="6"/>
-        <v>-313.92899999999997</v>
+        <f t="shared" si="11"/>
+        <v>-106.30500000000001</v>
       </c>
       <c r="O25" s="16">
-        <v>-287.23599999999999</v>
+        <v>-98.584999999999994</v>
       </c>
       <c r="P25" s="16">
-        <v>-320.11500000000001</v>
+        <v>-165.262</v>
       </c>
       <c r="Q25" s="16">
-        <v>-330.387</v>
+        <v>-164.77</v>
       </c>
       <c r="R25" s="16">
-        <f t="shared" si="7"/>
-        <v>-362.51900000000001</v>
+        <f t="shared" si="10"/>
+        <v>-225.827</v>
       </c>
       <c r="S25" s="16">
-        <v>-394.346</v>
+        <v>-247.28299999999999</v>
       </c>
       <c r="U25" s="25">
         <f>IFERROR((I25/F25)^(1/3)-1,"n/a")</f>
-        <v>0.12657304808481507</v>
+        <v>-4.6649671056675501E-3</v>
       </c>
     </row>
     <row r="26" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E26" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="16">
-        <v>0</v>
+        <v>-909.39200000000005</v>
       </c>
       <c r="G26" s="16">
-        <v>0</v>
+        <v>-1600.586</v>
       </c>
       <c r="H26" s="16">
-        <v>0</v>
+        <v>-1074.308</v>
       </c>
       <c r="I26" s="16">
-        <v>71.724999999999994</v>
+        <v>-1300.2570000000001</v>
       </c>
       <c r="K26" s="16">
-        <v>0</v>
+        <v>-248.761</v>
       </c>
       <c r="L26" s="16">
-        <v>0</v>
+        <v>-258.988</v>
       </c>
       <c r="M26" s="16">
-        <v>0</v>
+        <v>-252.63</v>
       </c>
       <c r="N26" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-313.92899999999997</v>
       </c>
       <c r="O26" s="16">
-        <v>86.358000000000004</v>
+        <v>-287.23599999999999</v>
       </c>
       <c r="P26" s="16">
-        <v>-31.015999999999998</v>
+        <v>-320.11500000000001</v>
       </c>
       <c r="Q26" s="16">
-        <v>0.14199999999999999</v>
+        <v>-330.387</v>
       </c>
       <c r="R26" s="16">
-        <f t="shared" si="7"/>
-        <v>16.240999999999985</v>
+        <f t="shared" si="10"/>
+        <v>-362.51900000000001</v>
       </c>
       <c r="S26" s="16">
-        <v>-34.365000000000002</v>
+        <v>-394.346</v>
       </c>
       <c r="U26" s="25">
-        <f>IFERROR((I26/F27)^(1/3)-1,"n/a")</f>
-        <v>-1.7765600890436968</v>
+        <f>IFERROR((I26/F26)^(1/3)-1,"n/a")</f>
+        <v>0.12657304808481507</v>
       </c>
     </row>
     <row r="27" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E27" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" s="16">
-        <v>-153.16</v>
+        <v>0</v>
       </c>
       <c r="G27" s="16">
-        <v>-722.21100000000001</v>
+        <v>0</v>
       </c>
       <c r="H27" s="16">
-        <v>34.674999999999997</v>
+        <v>0</v>
       </c>
       <c r="I27" s="16">
+        <v>71.724999999999994</v>
+      </c>
+      <c r="K27" s="16">
         <v>0</v>
       </c>
-      <c r="K27" s="16">
-        <v>-17.962</v>
-      </c>
       <c r="L27" s="16">
-        <v>8.0530000000000008</v>
+        <v>0</v>
       </c>
       <c r="M27" s="16">
-        <v>-7.18</v>
+        <v>0</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" si="6"/>
-        <v>51.763999999999996</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="O27" s="16">
-        <v>0</v>
+        <v>86.358000000000004</v>
       </c>
       <c r="P27" s="16">
-        <v>0</v>
+        <v>-31.015999999999998</v>
       </c>
       <c r="Q27" s="16">
-        <v>0</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="R27" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>16.240999999999985</v>
       </c>
       <c r="S27" s="16">
-        <v>0</v>
-      </c>
-      <c r="U27" s="25" t="str">
-        <f>IFERROR((I27/#REF!)^(1/3)-1,"n/a")</f>
-        <v>n/a</v>
+        <v>-34.365000000000002</v>
+      </c>
+      <c r="U27" s="25">
+        <f>IFERROR((I27/F28)^(1/3)-1,"n/a")</f>
+        <v>-1.7765600890436968</v>
       </c>
     </row>
     <row r="28" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E28" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" s="16">
-        <v>0</v>
+        <v>-153.16</v>
       </c>
       <c r="G28" s="16">
-        <v>-40.703000000000003</v>
+        <v>-722.21100000000001</v>
       </c>
       <c r="H28" s="16">
-        <v>-142.59399999999999</v>
+        <v>34.674999999999997</v>
       </c>
       <c r="I28" s="16">
         <v>0</v>
       </c>
       <c r="K28" s="16">
-        <v>-144.489</v>
+        <v>-17.962</v>
       </c>
       <c r="L28" s="16">
-        <v>1.0349999999999999</v>
+        <v>8.0530000000000008</v>
       </c>
       <c r="M28" s="16">
-        <v>0.86</v>
+        <v>-7.18</v>
       </c>
       <c r="N28" s="16">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>51.763999999999996</v>
       </c>
       <c r="O28" s="16">
         <v>0</v>
@@ -11861,816 +12100,851 @@
         <v>0</v>
       </c>
       <c r="R28" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S28" s="16">
         <v>0</v>
       </c>
       <c r="U28" s="25" t="str">
-        <f t="shared" ref="U28:U37" si="8">IFERROR((I28/F28)^(1/3)-1,"n/a")</f>
+        <f>IFERROR((I28/#REF!)^(1/3)-1,"n/a")</f>
         <v>n/a</v>
       </c>
     </row>
     <row r="29" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E29" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16">
+        <v>-40.703000000000003</v>
+      </c>
+      <c r="H29" s="16">
+        <v>-142.59399999999999</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>-144.489</v>
+      </c>
+      <c r="L29" s="16">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="M29" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="16">
+        <v>0</v>
+      </c>
+      <c r="P29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>0</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="16">
+        <v>0</v>
+      </c>
+      <c r="U29" s="25" t="str">
+        <f t="shared" ref="U29:U38" si="13">IFERROR((I29/F29)^(1/3)-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="30" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E30" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F30" s="18">
         <v>-477.14800000000002</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G30" s="18">
         <v>-74.593000000000004</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H30" s="18">
         <v>-10.26</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I30" s="18">
         <v>-7.9329999999999998</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K30" s="18">
         <v>33.183999999999997</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L30" s="18">
         <v>-18.866</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M30" s="18">
         <v>-3.512</v>
       </c>
-      <c r="N29" s="18">
-        <f t="shared" si="6"/>
+      <c r="N30" s="18">
+        <f t="shared" si="11"/>
         <v>-21.065999999999995</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O30" s="18">
         <v>-2.3759999999999999</v>
       </c>
-      <c r="P29" s="18">
+      <c r="P30" s="18">
         <v>-34.383000000000003</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q30" s="18">
         <v>8.5559999999999992</v>
       </c>
-      <c r="R29" s="18">
-        <f t="shared" si="7"/>
+      <c r="R30" s="18">
+        <f t="shared" si="10"/>
         <v>20.270000000000003</v>
       </c>
-      <c r="S29" s="18">
+      <c r="S30" s="18">
         <v>5.899</v>
       </c>
-      <c r="U29" s="25">
-        <f t="shared" si="8"/>
+      <c r="U30" s="25">
+        <f t="shared" si="13"/>
         <v>-0.74477211859552561</v>
-      </c>
-    </row>
-    <row r="30" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E30" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="16">
-        <f>SUM(F22:F29)</f>
-        <v>-4762.8739999999998</v>
-      </c>
-      <c r="G30" s="16">
-        <f>SUM(G22:G29)</f>
-        <v>-5904.4160000000002</v>
-      </c>
-      <c r="H30" s="16">
-        <f t="shared" ref="H30:I30" si="9">SUM(H22:H29)</f>
-        <v>-3270.0450000000001</v>
-      </c>
-      <c r="I30" s="16">
-        <f t="shared" si="9"/>
-        <v>-4256.8679999999995</v>
-      </c>
-      <c r="K30" s="16">
-        <f t="shared" ref="K30" si="10">SUM(K22:K29)</f>
-        <v>-896.404</v>
-      </c>
-      <c r="L30" s="16">
-        <f t="shared" ref="L30:M30" si="11">SUM(L22:L29)</f>
-        <v>-781.48599999999988</v>
-      </c>
-      <c r="M30" s="16">
-        <f t="shared" si="11"/>
-        <v>-753.97299999999984</v>
-      </c>
-      <c r="N30" s="16">
-        <f t="shared" ref="N30" si="12">SUM(N22:N29)</f>
-        <v>-838.18200000000002</v>
-      </c>
-      <c r="O30" s="16">
-        <f t="shared" ref="O30:P30" si="13">SUM(O22:O29)</f>
-        <v>-877.10899999999992</v>
-      </c>
-      <c r="P30" s="16">
-        <f t="shared" si="13"/>
-        <v>-1106.5110000000002</v>
-      </c>
-      <c r="Q30" s="16">
-        <f t="shared" ref="Q30:S30" si="14">SUM(Q22:Q29)</f>
-        <v>-1035.6799999999998</v>
-      </c>
-      <c r="R30" s="16">
-        <f t="shared" si="14"/>
-        <v>-1237.5680000000002</v>
-      </c>
-      <c r="S30" s="16">
-        <f t="shared" si="14"/>
-        <v>-1328.4890000000003</v>
-      </c>
-      <c r="U30" s="25">
-        <f t="shared" si="8"/>
-        <v>-3.6747014727023908E-2</v>
       </c>
     </row>
     <row r="31" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E31" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="16">
+        <f>SUM(F23:F30)</f>
+        <v>-4762.8739999999998</v>
+      </c>
+      <c r="G31" s="16">
+        <f>SUM(G23:G30)</f>
+        <v>-5904.4160000000002</v>
+      </c>
+      <c r="H31" s="16">
+        <f t="shared" ref="H31:I31" si="14">SUM(H23:H30)</f>
+        <v>-3270.0450000000001</v>
+      </c>
+      <c r="I31" s="16">
+        <f t="shared" si="14"/>
+        <v>-4256.8679999999995</v>
+      </c>
+      <c r="K31" s="16">
+        <f t="shared" ref="K31" si="15">SUM(K23:K30)</f>
+        <v>-896.404</v>
+      </c>
+      <c r="L31" s="16">
+        <f t="shared" ref="L31:M31" si="16">SUM(L23:L30)</f>
+        <v>-781.48599999999988</v>
+      </c>
+      <c r="M31" s="16">
+        <f t="shared" si="16"/>
+        <v>-753.97299999999984</v>
+      </c>
+      <c r="N31" s="16">
+        <f t="shared" ref="N31" si="17">SUM(N23:N30)</f>
+        <v>-838.18200000000002</v>
+      </c>
+      <c r="O31" s="16">
+        <f t="shared" ref="O31:P31" si="18">SUM(O23:O30)</f>
+        <v>-877.10899999999992</v>
+      </c>
+      <c r="P31" s="16">
+        <f t="shared" si="18"/>
+        <v>-1106.5110000000002</v>
+      </c>
+      <c r="Q31" s="16">
+        <f t="shared" ref="Q31:S31" si="19">SUM(Q23:Q30)</f>
+        <v>-1035.6799999999998</v>
+      </c>
+      <c r="R31" s="16">
+        <f t="shared" si="19"/>
+        <v>-1237.5680000000002</v>
+      </c>
+      <c r="S31" s="16">
+        <f t="shared" si="19"/>
+        <v>-1328.4890000000003</v>
+      </c>
+      <c r="U31" s="25">
+        <f t="shared" si="13"/>
+        <v>-3.6747014727023908E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E32" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F32" s="18">
         <v>-20.463000000000001</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G32" s="18">
         <v>-265.47300000000001</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H32" s="18">
         <v>167.583</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I32" s="18">
         <v>29.074000000000002</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K32" s="18">
         <v>-20.265000000000001</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L32" s="18">
         <v>16.564</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M32" s="18">
         <v>135.30699999999999</v>
       </c>
-      <c r="N31" s="18">
-        <f t="shared" si="6"/>
+      <c r="N32" s="18">
+        <f t="shared" si="11"/>
         <v>35.977000000000004</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O32" s="18">
         <v>45.604999999999997</v>
       </c>
-      <c r="P31" s="18">
+      <c r="P32" s="18">
         <v>-63.826999999999998</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q32" s="18">
         <v>40.104999999999997</v>
       </c>
-      <c r="R31" s="18">
-        <f t="shared" si="7"/>
+      <c r="R32" s="18">
+        <f t="shared" si="10"/>
         <v>7.1910000000000061</v>
       </c>
-      <c r="S31" s="18">
+      <c r="S32" s="18">
         <v>-6.1879999999999997</v>
       </c>
-      <c r="U31" s="25">
-        <f t="shared" si="8"/>
+      <c r="U32" s="25">
+        <f t="shared" si="13"/>
         <v>-2.1242040890623182</v>
       </c>
     </row>
-    <row r="32" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E32" s="5" t="s">
+    <row r="33" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="17">
-        <f>SUM(F21,F30:F31)</f>
+      <c r="F33" s="17">
+        <f>SUM(F22,F31:F32)</f>
         <v>3056.1070000000004</v>
       </c>
-      <c r="G32" s="17">
-        <f t="shared" ref="G32:I32" si="15">SUM(G21,G30:G31)</f>
+      <c r="G33" s="17">
+        <f t="shared" ref="G33:I33" si="20">SUM(G22,G31:G32)</f>
         <v>-2975.681</v>
       </c>
-      <c r="H32" s="17">
-        <f t="shared" si="15"/>
+      <c r="H33" s="17">
+        <f t="shared" si="20"/>
         <v>5.9209999999997365</v>
       </c>
-      <c r="I32" s="17">
-        <f t="shared" si="15"/>
+      <c r="I33" s="17">
+        <f t="shared" si="20"/>
         <v>2336.2340000000008</v>
       </c>
-      <c r="K32" s="17">
-        <f t="shared" ref="K32" si="16">SUM(K21,K30:K31)</f>
+      <c r="K33" s="17">
+        <f t="shared" ref="K33" si="21">SUM(K22,K31:K32)</f>
         <v>-144.13999999999999</v>
       </c>
-      <c r="L32" s="17">
-        <f t="shared" ref="L32:M32" si="17">SUM(L21,L30:L31)</f>
-        <v>-57.010999999999932</v>
-      </c>
-      <c r="M32" s="17">
-        <f t="shared" si="17"/>
-        <v>55.48200000000017</v>
-      </c>
-      <c r="N32" s="17">
-        <f t="shared" ref="N32" si="18">SUM(N21,N30:N31)</f>
-        <v>151.58999999999961</v>
-      </c>
-      <c r="O32" s="17">
-        <f t="shared" ref="O32:P32" si="19">SUM(O21,O30:O31)</f>
+      <c r="L33" s="17">
+        <f t="shared" ref="L33:M33" si="22">SUM(L22,L31:L32)</f>
+        <v>-57.010999999999818</v>
+      </c>
+      <c r="M33" s="17">
+        <f t="shared" si="22"/>
+        <v>55.482000000000056</v>
+      </c>
+      <c r="N33" s="17">
+        <f t="shared" ref="N33" si="23">SUM(N22,N31:N32)</f>
+        <v>151.58999999999983</v>
+      </c>
+      <c r="O33" s="17">
+        <f t="shared" ref="O33:P33" si="24">SUM(O22,O31:O32)</f>
         <v>806.06600000000003</v>
       </c>
-      <c r="P32" s="17">
-        <f t="shared" si="19"/>
-        <v>279.28999999999974</v>
-      </c>
-      <c r="Q32" s="17">
-        <f t="shared" ref="Q32:S32" si="20">SUM(Q21,Q30:Q31)</f>
-        <v>209.61800000000014</v>
-      </c>
-      <c r="R32" s="17">
-        <f t="shared" si="20"/>
-        <v>1041.2600000000004</v>
-      </c>
-      <c r="S32" s="17">
-        <f t="shared" si="20"/>
+      <c r="P33" s="17">
+        <f t="shared" si="24"/>
+        <v>279.28999999999996</v>
+      </c>
+      <c r="Q33" s="17">
+        <f t="shared" ref="Q33:S33" si="25">SUM(Q22,Q31:Q32)</f>
+        <v>209.61800000000036</v>
+      </c>
+      <c r="R33" s="17">
+        <f t="shared" si="25"/>
+        <v>1041.2599999999995</v>
+      </c>
+      <c r="S33" s="17">
+        <f t="shared" si="25"/>
         <v>699.61799999999982</v>
       </c>
-      <c r="U32" s="35">
-        <f t="shared" si="8"/>
+      <c r="U33" s="35">
+        <f t="shared" si="13"/>
         <v>-8.5642717665108004E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E33" s="13" t="s">
+    <row r="34" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E34" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F34" s="16">
         <v>-29.16</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G34" s="16">
         <v>-88.900999999999996</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H34" s="16">
         <v>-82.766000000000005</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I34" s="16">
         <v>-80.644999999999996</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K34" s="16">
         <v>-21.536000000000001</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L34" s="16">
         <v>-21.672000000000001</v>
       </c>
-      <c r="M33" s="16">
+      <c r="M34" s="16">
         <v>-20.821000000000002</v>
       </c>
-      <c r="N33" s="16">
-        <f t="shared" si="6"/>
+      <c r="N34" s="16">
+        <f t="shared" si="11"/>
         <v>-18.737000000000009</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O34" s="16">
         <v>-19.071000000000002</v>
       </c>
-      <c r="P33" s="16">
+      <c r="P34" s="16">
         <v>-20.507000000000001</v>
       </c>
-      <c r="Q33" s="16">
+      <c r="Q34" s="16">
         <v>-20.53</v>
       </c>
-      <c r="R33" s="16">
-        <f t="shared" si="7"/>
+      <c r="R34" s="16">
+        <f t="shared" si="10"/>
         <v>-20.536999999999992</v>
       </c>
-      <c r="S33" s="16">
+      <c r="S34" s="16">
         <v>-20.510999999999999</v>
       </c>
-      <c r="U33" s="25">
-        <f t="shared" si="8"/>
+      <c r="U34" s="25">
+        <f t="shared" si="13"/>
         <v>0.40366447586925847</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E34" s="13" t="s">
+    <row r="35" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E35" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F35" s="18">
         <v>0</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G35" s="18">
         <v>0</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H35" s="18">
         <v>0</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I35" s="18">
         <v>687.05499999999995</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K35" s="18">
         <v>0</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L35" s="18">
         <v>0</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M35" s="18">
         <v>0</v>
       </c>
-      <c r="N34" s="18">
-        <f t="shared" si="6"/>
+      <c r="N35" s="18">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O35" s="18">
         <v>650.42899999999997</v>
       </c>
-      <c r="P34" s="18">
+      <c r="P35" s="18">
         <v>-319.02</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q35" s="18">
         <v>-120.50700000000001</v>
       </c>
-      <c r="R34" s="18">
-        <f t="shared" si="7"/>
+      <c r="R35" s="18">
+        <f t="shared" si="10"/>
         <v>476.15299999999996</v>
       </c>
-      <c r="S34" s="18">
+      <c r="S35" s="18">
         <v>-596.65099999999995</v>
       </c>
-      <c r="U34" s="25" t="str">
-        <f t="shared" si="8"/>
+      <c r="U35" s="25" t="str">
+        <f t="shared" si="13"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E35" s="14" t="s">
+    <row r="36" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E36" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="17">
-        <f>SUM(F32:F34)</f>
+      <c r="F36" s="17">
+        <f>SUM(F33:F35)</f>
         <v>3026.9470000000006</v>
       </c>
-      <c r="G35" s="17">
-        <f>SUM(G32:G34)</f>
+      <c r="G36" s="17">
+        <f>SUM(G33:G35)</f>
         <v>-3064.5819999999999</v>
       </c>
-      <c r="H35" s="17">
-        <f t="shared" ref="H35:I35" si="21">SUM(H32:H34)</f>
+      <c r="H36" s="17">
+        <f t="shared" ref="H36:I36" si="26">SUM(H33:H35)</f>
         <v>-76.845000000000269</v>
       </c>
-      <c r="I35" s="17">
-        <f t="shared" si="21"/>
+      <c r="I36" s="17">
+        <f t="shared" si="26"/>
         <v>2942.6440000000007</v>
       </c>
-      <c r="K35" s="17">
-        <f t="shared" ref="K35" si="22">SUM(K32:K34)</f>
+      <c r="K36" s="17">
+        <f t="shared" ref="K36" si="27">SUM(K33:K35)</f>
         <v>-165.67599999999999</v>
       </c>
-      <c r="L35" s="17">
-        <f t="shared" ref="L35:M35" si="23">SUM(L32:L34)</f>
-        <v>-78.682999999999936</v>
-      </c>
-      <c r="M35" s="17">
-        <f t="shared" si="23"/>
-        <v>34.661000000000172</v>
-      </c>
-      <c r="N35" s="17">
-        <f t="shared" ref="N35" si="24">SUM(N32:N34)</f>
-        <v>132.85299999999961</v>
-      </c>
-      <c r="O35" s="17">
-        <f t="shared" ref="O35:P35" si="25">SUM(O32:O34)</f>
+      <c r="L36" s="17">
+        <f t="shared" ref="L36:M36" si="28">SUM(L33:L35)</f>
+        <v>-78.682999999999822</v>
+      </c>
+      <c r="M36" s="17">
+        <f t="shared" si="28"/>
+        <v>34.661000000000058</v>
+      </c>
+      <c r="N36" s="17">
+        <f t="shared" ref="N36" si="29">SUM(N33:N35)</f>
+        <v>132.85299999999984</v>
+      </c>
+      <c r="O36" s="17">
+        <f t="shared" ref="O36:P36" si="30">SUM(O33:O35)</f>
         <v>1437.424</v>
       </c>
-      <c r="P35" s="17">
-        <f t="shared" si="25"/>
-        <v>-60.237000000000251</v>
-      </c>
-      <c r="Q35" s="17">
-        <f t="shared" ref="Q35:S35" si="26">SUM(Q32:Q34)</f>
-        <v>68.581000000000131</v>
-      </c>
-      <c r="R35" s="17">
-        <f t="shared" si="26"/>
-        <v>1496.8760000000004</v>
-      </c>
-      <c r="S35" s="17">
-        <f t="shared" si="26"/>
+      <c r="P36" s="17">
+        <f t="shared" si="30"/>
+        <v>-60.237000000000023</v>
+      </c>
+      <c r="Q36" s="17">
+        <f t="shared" ref="Q36:S36" si="31">SUM(Q33:Q35)</f>
+        <v>68.581000000000358</v>
+      </c>
+      <c r="R36" s="17">
+        <f t="shared" si="31"/>
+        <v>1496.8759999999995</v>
+      </c>
+      <c r="S36" s="17">
+        <f t="shared" si="31"/>
         <v>82.455999999999904</v>
       </c>
-      <c r="U35" s="35">
-        <f t="shared" si="8"/>
+      <c r="U36" s="35">
+        <f t="shared" si="13"/>
         <v>-9.3711557464645212E-3</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
+    <row r="37" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F37" s="16">
         <v>597.173</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G37" s="16">
         <v>439.63299999999998</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H37" s="16">
         <v>171.71600000000001</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I37" s="16">
         <v>-363.57799999999997</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K37" s="16">
         <v>86.78</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L37" s="16">
         <v>-18.722000000000001</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M37" s="16">
         <v>-36.926000000000002</v>
       </c>
-      <c r="N36" s="16">
-        <f t="shared" si="6"/>
+      <c r="N37" s="16">
+        <f t="shared" si="11"/>
         <v>140.584</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O37" s="16">
         <v>-261.17899999999997</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P37" s="16">
         <v>96.387</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="Q37" s="16">
         <v>6.9139999999999997</v>
       </c>
-      <c r="R36" s="16">
-        <f t="shared" si="7"/>
+      <c r="R37" s="16">
+        <f t="shared" si="10"/>
         <v>-205.7</v>
       </c>
-      <c r="S36" s="16">
+      <c r="S37" s="16">
         <v>-16.847999999999999</v>
       </c>
-      <c r="U36" s="25">
-        <f t="shared" si="8"/>
+      <c r="U37" s="25">
+        <f t="shared" si="13"/>
         <v>-1.847550941915804</v>
       </c>
     </row>
-    <row r="37" spans="3:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="5" t="s">
+    <row r="38" spans="5:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="20">
-        <f>SUM(F35:F36)</f>
+      <c r="F38" s="20">
+        <f>SUM(F36:F37)</f>
         <v>3624.1200000000008</v>
       </c>
-      <c r="G37" s="20">
-        <f>SUM(G35:G36)</f>
+      <c r="G38" s="20">
+        <f>SUM(G36:G37)</f>
         <v>-2624.9490000000001</v>
       </c>
-      <c r="H37" s="20">
-        <f>SUM(H35:H36)</f>
+      <c r="H38" s="20">
+        <f>SUM(H36:H37)</f>
         <v>94.870999999999739</v>
       </c>
-      <c r="I37" s="20">
-        <f>SUM(I35:I36)</f>
+      <c r="I38" s="20">
+        <f>SUM(I36:I37)</f>
         <v>2579.0660000000007</v>
       </c>
-      <c r="K37" s="20">
-        <f t="shared" ref="K37:N37" si="27">SUM(K35:K36)</f>
+      <c r="K38" s="20">
+        <f t="shared" ref="K38:N38" si="32">SUM(K36:K37)</f>
         <v>-78.895999999999987</v>
       </c>
-      <c r="L37" s="20">
-        <f t="shared" si="27"/>
-        <v>-97.404999999999944</v>
-      </c>
-      <c r="M37" s="20">
-        <f t="shared" si="27"/>
-        <v>-2.26499999999983</v>
-      </c>
-      <c r="N37" s="20">
-        <f t="shared" si="27"/>
-        <v>273.43699999999961</v>
-      </c>
-      <c r="O37" s="20">
-        <f>SUM(O35:O36)</f>
+      <c r="L38" s="20">
+        <f t="shared" si="32"/>
+        <v>-97.404999999999831</v>
+      </c>
+      <c r="M38" s="20">
+        <f t="shared" si="32"/>
+        <v>-2.2649999999999437</v>
+      </c>
+      <c r="N38" s="20">
+        <f t="shared" si="32"/>
+        <v>273.43699999999984</v>
+      </c>
+      <c r="O38" s="20">
+        <f>SUM(O36:O37)</f>
         <v>1176.2449999999999</v>
       </c>
-      <c r="P37" s="20">
-        <f>SUM(P35:P36)</f>
-        <v>36.14999999999975</v>
-      </c>
-      <c r="Q37" s="20">
-        <f t="shared" ref="Q37:S37" si="28">SUM(Q35:Q36)</f>
-        <v>75.495000000000132</v>
-      </c>
-      <c r="R37" s="20">
-        <f t="shared" si="28"/>
-        <v>1291.1760000000004</v>
-      </c>
-      <c r="S37" s="20">
-        <f t="shared" si="28"/>
+      <c r="P38" s="20">
+        <f>SUM(P36:P37)</f>
+        <v>36.149999999999977</v>
+      </c>
+      <c r="Q38" s="20">
+        <f t="shared" ref="Q38:S38" si="33">SUM(Q36:Q37)</f>
+        <v>75.49500000000036</v>
+      </c>
+      <c r="R38" s="20">
+        <f t="shared" si="33"/>
+        <v>1291.1759999999995</v>
+      </c>
+      <c r="S38" s="20">
+        <f t="shared" si="33"/>
         <v>65.607999999999905</v>
       </c>
-      <c r="U37" s="35">
-        <f t="shared" si="8"/>
+      <c r="U38" s="35">
+        <f t="shared" si="13"/>
         <v>-0.10720182138865331</v>
       </c>
     </row>
-    <row r="38" spans="3:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E39" s="36" t="s">
+    <row r="39" spans="5:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E40" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="23" t="str">
-        <f>IFERROR(+F21/#REF!-1,"n/a")</f>
+      <c r="F40" s="23" t="str">
+        <f>IFERROR(+F22/#REF!-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="G39" s="23">
-        <f>IFERROR(+G21/F21-1,"n/a")</f>
+      <c r="G40" s="23">
+        <f>IFERROR(+G22/F22-1,"n/a")</f>
         <v>-0.59254661427519606</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H40" s="23">
         <v>0.01</v>
       </c>
-      <c r="I39" s="24">
-        <f>IFERROR(+I21/H21-1,"n/a")</f>
+      <c r="I40" s="24">
+        <f>IFERROR(+I22/H22-1,"n/a")</f>
         <v>1.1117178931939855</v>
       </c>
-      <c r="K39" s="23" t="str">
-        <f t="shared" ref="K39:R39" si="29">IFERROR(+K21/J21-1,"n/a")</f>
+      <c r="K40" s="23" t="str">
+        <f t="shared" ref="K40:R40" si="34">IFERROR(+K22/J22-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L39" s="23">
-        <f t="shared" si="29"/>
-        <v>-8.3644756378077778E-2</v>
-      </c>
-      <c r="M39" s="23">
-        <f t="shared" si="29"/>
-        <v>-4.7693848520505955E-2</v>
-      </c>
-      <c r="N39" s="23">
-        <f t="shared" si="29"/>
-        <v>0.41481544111975355</v>
-      </c>
-      <c r="O39" s="23">
-        <f t="shared" si="29"/>
-        <v>0.71689933371426839</v>
-      </c>
-      <c r="P39" s="23">
-        <f t="shared" si="29"/>
-        <v>-0.11476883430937301</v>
-      </c>
-      <c r="Q39" s="23">
-        <f t="shared" si="29"/>
-        <v>-0.16861912159533343</v>
-      </c>
-      <c r="R39" s="23">
-        <f t="shared" si="29"/>
-        <v>0.88487404092124722</v>
-      </c>
-      <c r="S39" s="23">
-        <f>IFERROR(+S21/R21-1,"n/a")</f>
-        <v>-0.10448060143412019</v>
-      </c>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E40" s="37" t="s">
+      <c r="L40" s="23">
+        <f t="shared" si="34"/>
+        <v>-8.3644756378077667E-2</v>
+      </c>
+      <c r="M40" s="23">
+        <f t="shared" si="34"/>
+        <v>-4.7693848520506288E-2</v>
+      </c>
+      <c r="N40" s="23">
+        <f t="shared" si="34"/>
+        <v>0.41481544111975399</v>
+      </c>
+      <c r="O40" s="23">
+        <f t="shared" si="34"/>
+        <v>0.71689933371426795</v>
+      </c>
+      <c r="P40" s="23">
+        <f t="shared" si="34"/>
+        <v>-0.1147688343093729</v>
+      </c>
+      <c r="Q40" s="23">
+        <f t="shared" si="34"/>
+        <v>-0.16861912159533332</v>
+      </c>
+      <c r="R40" s="23">
+        <f t="shared" si="34"/>
+        <v>0.88487404092124611</v>
+      </c>
+      <c r="S40" s="23">
+        <f>IFERROR(+S22/R22-1,"n/a")</f>
+        <v>-0.10448060143411986</v>
+      </c>
+    </row>
+    <row r="41" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E41" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="25">
-        <f>+F23/-F21</f>
+      <c r="F41" s="25">
+        <f>+F24/-F22</f>
         <v>0.16475160738440123</v>
       </c>
-      <c r="G40" s="25">
-        <f t="shared" ref="G40:S40" si="30">+G23/-G21</f>
+      <c r="G41" s="25">
+        <f t="shared" ref="G41:S41" si="35">+G24/-G22</f>
         <v>0.72830385497750927</v>
       </c>
-      <c r="H40" s="25">
-        <f t="shared" si="30"/>
+      <c r="H41" s="25">
+        <f t="shared" si="35"/>
         <v>0.42611898212028571</v>
       </c>
-      <c r="I40" s="25">
-        <f t="shared" si="30"/>
+      <c r="I41" s="25">
+        <f t="shared" si="35"/>
         <v>0.22368155650768093</v>
       </c>
-      <c r="K40" s="25">
-        <f t="shared" si="30"/>
+      <c r="K41" s="25">
+        <f t="shared" si="35"/>
         <v>0.46345315192051045</v>
       </c>
-      <c r="L40" s="25">
-        <f t="shared" si="30"/>
-        <v>0.4529764334782197</v>
-      </c>
-      <c r="M40" s="25">
-        <f t="shared" si="30"/>
-        <v>0.47876134023982858</v>
-      </c>
-      <c r="N40" s="25">
-        <f t="shared" si="30"/>
-        <v>0.33873840814850165</v>
-      </c>
-      <c r="O40" s="25">
-        <f t="shared" si="30"/>
+      <c r="L41" s="25">
+        <f t="shared" si="35"/>
+        <v>0.45297643347821964</v>
+      </c>
+      <c r="M41" s="25">
+        <f t="shared" si="35"/>
+        <v>0.47876134023982869</v>
+      </c>
+      <c r="N41" s="25">
+        <f t="shared" si="35"/>
+        <v>0.33873840814850154</v>
+      </c>
+      <c r="O41" s="25">
+        <f t="shared" si="35"/>
         <v>0.21853294820984753</v>
       </c>
-      <c r="P40" s="25">
-        <f t="shared" si="30"/>
-        <v>0.25127687930972636</v>
-      </c>
-      <c r="Q40" s="25">
-        <f t="shared" si="30"/>
-        <v>0.31317805529902681</v>
-      </c>
-      <c r="R40" s="25">
-        <f t="shared" si="30"/>
-        <v>0.16230189946721238</v>
-      </c>
-      <c r="S40" s="25">
-        <f t="shared" si="30"/>
+      <c r="P41" s="25">
+        <f t="shared" si="35"/>
+        <v>0.25127687930972631</v>
+      </c>
+      <c r="Q41" s="25">
+        <f t="shared" si="35"/>
+        <v>0.31317805529902676</v>
+      </c>
+      <c r="R41" s="25">
+        <f t="shared" si="35"/>
+        <v>0.16230189946721243</v>
+      </c>
+      <c r="S41" s="25">
+        <f t="shared" si="35"/>
         <v>0.17468852845826194</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E41" s="37" t="s">
+    <row r="42" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E42" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="25">
-        <f>IFERROR(+F32/F21,"n/a")</f>
+      <c r="F42" s="25">
+        <f>IFERROR(+F33/F22,"n/a")</f>
         <v>0.38983721294520379</v>
       </c>
-      <c r="G41" s="25">
-        <f>IFERROR(+G32/G21,"n/a")</f>
+      <c r="G42" s="25">
+        <f>IFERROR(+G33/G22,"n/a")</f>
         <v>-0.93158648403610533</v>
       </c>
-      <c r="H41" s="25">
-        <f>IFERROR(+H32/H21,"n/a")</f>
+      <c r="H42" s="25">
+        <f>IFERROR(+H33/H22,"n/a")</f>
         <v>1.9048489198402311E-3</v>
       </c>
-      <c r="I41" s="26">
-        <f>IFERROR(+I32/I21,"n/a")</f>
+      <c r="I42" s="26">
+        <f>IFERROR(+I33/I22,"n/a")</f>
         <v>0.35591469140594778</v>
       </c>
-      <c r="K41" s="25">
-        <f t="shared" ref="K41:R41" si="31">IFERROR(+K32/K21,"n/a")</f>
+      <c r="K42" s="25">
+        <f t="shared" ref="K42:R42" si="36">IFERROR(+K33/K22,"n/a")</f>
         <v>-0.18658199239122414</v>
       </c>
-      <c r="L41" s="25">
-        <f t="shared" si="31"/>
-        <v>-8.0534134940691601E-2</v>
-      </c>
-      <c r="M41" s="25">
-        <f t="shared" si="31"/>
-        <v>8.229943573221335E-2</v>
-      </c>
-      <c r="N41" s="25">
-        <f t="shared" si="31"/>
-        <v>0.15893352345105569</v>
-      </c>
-      <c r="O41" s="25">
-        <f t="shared" si="31"/>
+      <c r="L42" s="25">
+        <f t="shared" si="36"/>
+        <v>-8.0534134940691435E-2</v>
+      </c>
+      <c r="M42" s="25">
+        <f t="shared" si="36"/>
+        <v>8.2299435732213197E-2</v>
+      </c>
+      <c r="N42" s="25">
+        <f t="shared" si="36"/>
+        <v>0.15893352345105591</v>
+      </c>
+      <c r="O42" s="25">
+        <f t="shared" si="36"/>
         <v>0.49223300377999113</v>
       </c>
-      <c r="P41" s="25">
-        <f t="shared" si="31"/>
-        <v>0.19266322118502108</v>
-      </c>
-      <c r="Q41" s="25">
-        <f t="shared" si="31"/>
-        <v>0.17392898896691247</v>
-      </c>
-      <c r="R41" s="25">
-        <f t="shared" si="31"/>
-        <v>0.45837429131502971</v>
-      </c>
-      <c r="S41" s="25">
-        <f>IFERROR(+S32/S21,"n/a")</f>
+      <c r="P42" s="25">
+        <f t="shared" si="36"/>
+        <v>0.19266322118502122</v>
+      </c>
+      <c r="Q42" s="25">
+        <f t="shared" si="36"/>
+        <v>0.17392898896691261</v>
+      </c>
+      <c r="R42" s="25">
+        <f t="shared" si="36"/>
+        <v>0.45837429131502949</v>
+      </c>
+      <c r="S42" s="25">
+        <f>IFERROR(+S33/S22,"n/a")</f>
         <v>0.34391177287463215</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E42" s="37" t="s">
+    <row r="43" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E43" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="25">
-        <f>-F36/F35</f>
+      <c r="F43" s="25">
+        <f>-F37/F36</f>
         <v>-0.19728558180899761</v>
       </c>
-      <c r="G42" s="25">
-        <f>-G36/G35</f>
+      <c r="G43" s="25">
+        <f>-G37/G36</f>
         <v>0.14345610592243901</v>
       </c>
-      <c r="H42" s="25">
-        <f>-H36/H35</f>
+      <c r="H43" s="25">
+        <f>-H37/H36</f>
         <v>2.2345760947361497</v>
       </c>
-      <c r="I42" s="26">
-        <f>-I36/I35</f>
+      <c r="I43" s="26">
+        <f>-I37/I36</f>
         <v>0.12355487106153509</v>
       </c>
-      <c r="K42" s="25">
-        <f t="shared" ref="K42:R42" si="32">-K36/K35</f>
+      <c r="K43" s="25">
+        <f t="shared" ref="K43:R43" si="37">-K37/K36</f>
         <v>0.52379342813684548</v>
       </c>
-      <c r="L42" s="25">
-        <f t="shared" si="32"/>
-        <v>-0.23794212218649538</v>
-      </c>
-      <c r="M42" s="25">
-        <f t="shared" si="32"/>
-        <v>1.0653472202186844</v>
-      </c>
-      <c r="N42" s="25">
-        <f t="shared" si="32"/>
-        <v>-1.0581921371741732</v>
-      </c>
-      <c r="O42" s="25">
-        <f t="shared" si="32"/>
+      <c r="L43" s="25">
+        <f t="shared" si="37"/>
+        <v>-0.23794212218649574</v>
+      </c>
+      <c r="M43" s="25">
+        <f t="shared" si="37"/>
+        <v>1.0653472202186878</v>
+      </c>
+      <c r="N43" s="25">
+        <f t="shared" si="37"/>
+        <v>-1.0581921371741712</v>
+      </c>
+      <c r="O43" s="25">
+        <f t="shared" si="37"/>
         <v>0.18169934549583142</v>
       </c>
-      <c r="P42" s="25">
-        <f t="shared" si="32"/>
-        <v>1.6001294885203381</v>
-      </c>
-      <c r="Q42" s="25">
-        <f t="shared" si="32"/>
-        <v>-0.1008150945597175</v>
-      </c>
-      <c r="R42" s="25">
-        <f t="shared" si="32"/>
-        <v>0.13741953241283841</v>
-      </c>
-      <c r="S42" s="25">
-        <f>-S36/S35</f>
+      <c r="P43" s="25">
+        <f t="shared" si="37"/>
+        <v>1.6001294885203441</v>
+      </c>
+      <c r="Q43" s="25">
+        <f t="shared" si="37"/>
+        <v>-0.10081509455971717</v>
+      </c>
+      <c r="R43" s="25">
+        <f t="shared" si="37"/>
+        <v>0.1374195324128385</v>
+      </c>
+      <c r="S43" s="25">
+        <f>-S37/S36</f>
         <v>0.20432715630154286</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E43" s="38" t="s">
+    <row r="44" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E44" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="27" t="str">
-        <f>IFERROR(+F37/#REF!-1,"n/a")</f>
+      <c r="F44" s="27" t="str">
+        <f>IFERROR(+F38/#REF!-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="G43" s="27">
-        <f t="shared" ref="G43:I43" si="33">IFERROR(+G37/F37-1,"n/a")</f>
+      <c r="G44" s="27">
+        <f t="shared" ref="G44:I44" si="38">IFERROR(+G38/F38-1,"n/a")</f>
         <v>-1.7242996920631766</v>
       </c>
-      <c r="H43" s="27">
-        <f t="shared" si="33"/>
+      <c r="H44" s="27">
+        <f t="shared" si="38"/>
         <v>-1.0361420355214519</v>
       </c>
-      <c r="I43" s="28">
-        <f t="shared" si="33"/>
+      <c r="I44" s="28">
+        <f t="shared" si="38"/>
         <v>26.184977495757479</v>
       </c>
-      <c r="K43" s="27" t="str">
-        <f t="shared" ref="K43" si="34">IFERROR(+K37/J37-1,"n/a")</f>
+      <c r="K44" s="27" t="str">
+        <f t="shared" ref="K44" si="39">IFERROR(+K38/J38-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L43" s="27">
-        <f t="shared" ref="L43" si="35">IFERROR(+L37/K37-1,"n/a")</f>
-        <v>0.23459997972013746</v>
-      </c>
-      <c r="M43" s="27">
-        <f t="shared" ref="M43" si="36">IFERROR(+M37/L37-1,"n/a")</f>
-        <v>-0.97674657358451999</v>
-      </c>
-      <c r="N43" s="27">
-        <f t="shared" ref="N43" si="37">IFERROR(+N37/M37-1,"n/a")</f>
-        <v>-121.72273730685215</v>
-      </c>
-      <c r="O43" s="27">
-        <f t="shared" ref="O43" si="38">IFERROR(+O37/N37-1,"n/a")</f>
-        <v>3.3017038659727893</v>
-      </c>
-      <c r="P43" s="27">
-        <f t="shared" ref="P43" si="39">IFERROR(+P37/O37-1,"n/a")</f>
-        <v>-0.96926660687186794</v>
-      </c>
-      <c r="Q43" s="27">
-        <f>IFERROR(+Q37/P37-1,"n/a")</f>
-        <v>1.0883817427386071</v>
-      </c>
-      <c r="R43" s="27">
-        <f t="shared" ref="R43" si="40">IFERROR(+R37/Q37-1,"n/a")</f>
-        <v>16.102801510033753</v>
-      </c>
-      <c r="S43" s="27">
-        <f t="shared" ref="S43" si="41">IFERROR(+S37/R37-1,"n/a")</f>
-        <v>-0.94918740744871355</v>
-      </c>
-    </row>
-    <row r="44" spans="3:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="3:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E45" s="29" t="s">
+      <c r="L44" s="27">
+        <f t="shared" ref="L44" si="40">IFERROR(+L38/K38-1,"n/a")</f>
+        <v>0.23459997972013591</v>
+      </c>
+      <c r="M44" s="27">
+        <f t="shared" ref="M44" si="41">IFERROR(+M38/L38-1,"n/a")</f>
+        <v>-0.97674657358451877</v>
+      </c>
+      <c r="N44" s="27">
+        <f t="shared" ref="N44" si="42">IFERROR(+N38/M38-1,"n/a")</f>
+        <v>-121.7227373068462</v>
+      </c>
+      <c r="O44" s="27">
+        <f t="shared" ref="O44" si="43">IFERROR(+O38/N38-1,"n/a")</f>
+        <v>3.3017038659727858</v>
+      </c>
+      <c r="P44" s="27">
+        <f t="shared" ref="P44" si="44">IFERROR(+P38/O38-1,"n/a")</f>
+        <v>-0.96926660687186772</v>
+      </c>
+      <c r="Q44" s="27">
+        <f>IFERROR(+Q38/P38-1,"n/a")</f>
+        <v>1.0883817427386004</v>
+      </c>
+      <c r="R44" s="27">
+        <f t="shared" ref="R44" si="45">IFERROR(+R38/Q38-1,"n/a")</f>
+        <v>16.102801510033689</v>
+      </c>
+      <c r="S44" s="27">
+        <f t="shared" ref="S44" si="46">IFERROR(+S38/R38-1,"n/a")</f>
+        <v>-0.94918740744871344</v>
+      </c>
+    </row>
+    <row r="45" spans="5:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="5:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-    </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
@@ -12685,1348 +12959,1348 @@
       <c r="R46" s="16"/>
       <c r="S46" s="16"/>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E47" s="8" t="s">
+    <row r="47" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+    </row>
+    <row r="48" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E48" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F48" s="19">
         <v>3624.12</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G48" s="19">
         <v>-2624.9490000000001</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H48" s="19">
         <v>94.870999999999995</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I48" s="19">
         <v>2579.0659999999998</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K48" s="19">
         <v>-78.896000000000001</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L48" s="19">
         <v>-97.405000000000001</v>
       </c>
-      <c r="M47" s="19">
+      <c r="M48" s="19">
         <v>-2.2650000000000001</v>
       </c>
-      <c r="N47" s="19">
-        <f>H47-SUM(K47:M47)</f>
+      <c r="N48" s="19">
+        <f>H48-SUM(K48:M48)</f>
         <v>273.43699999999995</v>
       </c>
-      <c r="O47" s="19">
+      <c r="O48" s="19">
         <v>1176.2449999999999</v>
       </c>
-      <c r="P47" s="19">
+      <c r="P48" s="19">
         <v>36.15</v>
       </c>
-      <c r="Q47" s="19">
+      <c r="Q48" s="19">
         <v>75.495000000000005</v>
       </c>
-      <c r="R47" s="19">
-        <f>I47-SUM(O47:Q47)</f>
+      <c r="R48" s="19">
+        <f>I48-SUM(O48:Q48)</f>
         <v>1291.1759999999999</v>
       </c>
-      <c r="S47" s="19">
+      <c r="S48" s="19">
         <v>65.608000000000004</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C48" s="15" t="b" cm="1">
-        <f t="array" ref="C48">AND(F48:I48&lt;$B$1,F48:I48&gt;-$B$1)</f>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C49" s="15" t="b" cm="1">
+        <f t="array" ref="C49">AND(F49:I49&lt;$B$1,F49:I49&gt;-$B$1)</f>
         <v>1</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="19">
-        <f t="shared" ref="F48:I48" si="42">+F47-F37</f>
+      <c r="F49" s="57">
+        <f t="shared" ref="F49:I49" si="47">+F48-F38</f>
         <v>0</v>
       </c>
-      <c r="G48" s="19">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="19">
-        <f t="shared" si="42"/>
-        <v>2.5579538487363607E-13</v>
-      </c>
-      <c r="I48" s="19">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="46"/>
-      <c r="K48" s="19">
-        <f t="shared" ref="K48" si="43">+K47-K37</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="19">
-        <f t="shared" ref="L48:M48" si="44">+L47-L37</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="19">
-        <f t="shared" si="44"/>
-        <v>-1.7008616737257398E-13</v>
-      </c>
-      <c r="N48" s="19">
-        <f t="shared" ref="N48" si="45">+N47-N37</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="19">
-        <f t="shared" ref="O48:P48" si="46">+O47-O37</f>
-        <v>0</v>
-      </c>
-      <c r="P48" s="19">
-        <f t="shared" si="46"/>
-        <v>2.4868995751603507E-13</v>
-      </c>
-      <c r="Q48" s="19">
-        <f t="shared" ref="Q48:S48" si="47">+Q47-Q37</f>
-        <v>-1.2789769243681803E-13</v>
-      </c>
-      <c r="R48" s="19">
+      <c r="G49" s="57">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="S48" s="19">
+      <c r="H49" s="57">
+        <f t="shared" si="47"/>
+        <v>2.5579538487363607E-13</v>
+      </c>
+      <c r="I49" s="57">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-    </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E50" s="5" t="str">
+      <c r="J49" s="46"/>
+      <c r="K49" s="57">
+        <f t="shared" ref="K49" si="48">+K48-K38</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="57">
+        <f t="shared" ref="L49:M49" si="49">+L48-L38</f>
+        <v>-1.7053025658242404E-13</v>
+      </c>
+      <c r="M49" s="57">
+        <f t="shared" si="49"/>
+        <v>-5.6399329650957952E-14</v>
+      </c>
+      <c r="N49" s="57">
+        <f t="shared" ref="N49" si="50">+N48-N38</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="57">
+        <f t="shared" ref="O49:P49" si="51">+O48-O38</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="57">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="57">
+        <f t="shared" ref="Q49:S49" si="52">+Q48-Q38</f>
+        <v>-3.5527136788005009E-13</v>
+      </c>
+      <c r="R49" s="57">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="57">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E51" s="5" t="str">
         <f>Input!$E$8&amp;" - BS"</f>
         <v>COIN - BS</v>
       </c>
-      <c r="I50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="U50" s="34" t="s">
+      <c r="I51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="U51" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E51" s="10" t="str">
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E52" s="10" t="str">
         <f>+Input!$E$14</f>
         <v>$m</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F52" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G52" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="21" t="s">
+      <c r="H52" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="21" t="s">
+      <c r="I52" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K51" s="47" t="s">
+      <c r="K52" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="L51" s="47" t="s">
+      <c r="L52" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="M51" s="47" t="s">
+      <c r="M52" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="N51" s="47" t="s">
+      <c r="N52" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="O51" s="48" t="s">
+      <c r="O52" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="P51" s="48" t="s">
+      <c r="P52" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q51" s="48" t="s">
+      <c r="Q52" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="R51" s="48" t="s">
+      <c r="R52" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="S51" s="21" t="s">
+      <c r="S52" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="U51" s="33" t="s">
+      <c r="U52" s="33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="5:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E53" s="13" t="s">
+    <row r="53" spans="3:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E54" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F54" s="16">
         <v>988.19299999999998</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G54" s="16">
         <v>424.39299999999997</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H54" s="16">
         <v>330.61</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I54" s="16">
         <v>1552.9949999999999</v>
-      </c>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16">
-        <f>H53</f>
-        <v>330.61</v>
-      </c>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16">
-        <f>I53</f>
-        <v>1552.9949999999999</v>
-      </c>
-      <c r="S53" s="16">
-        <v>1268.001</v>
-      </c>
-      <c r="U53" s="25">
-        <f t="shared" ref="U53:U65" si="48">IFERROR((I53/F53)^(1/3)-1,"n/a")</f>
-        <v>0.16263330970848489</v>
-      </c>
-    </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E54" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" s="16">
-        <f>625.758</f>
-        <v>625.75800000000004</v>
-      </c>
-      <c r="G54" s="16">
-        <f>1073.906</f>
-        <v>1073.9059999999999</v>
-      </c>
-      <c r="H54" s="16">
-        <f>1139.67</f>
-        <v>1139.67</v>
-      </c>
-      <c r="I54" s="16">
-        <f>1139.67</f>
-        <v>1139.67</v>
       </c>
       <c r="K54" s="16"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
       <c r="N54" s="16">
         <f>H54</f>
-        <v>1139.67</v>
+        <v>330.61</v>
       </c>
       <c r="O54" s="16"/>
       <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="16">
-        <f t="shared" ref="R54:R55" si="49">I54</f>
+        <f>I54</f>
+        <v>1552.9949999999999</v>
+      </c>
+      <c r="S54" s="16">
+        <v>1268.001</v>
+      </c>
+      <c r="U54" s="25">
+        <f t="shared" ref="U54:U66" si="53">IFERROR((I54/F54)^(1/3)-1,"n/a")</f>
+        <v>0.16263330970848489</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E55" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="16">
+        <f>625.758</f>
+        <v>625.75800000000004</v>
+      </c>
+      <c r="G55" s="16">
+        <f>1073.906</f>
+        <v>1073.9059999999999</v>
+      </c>
+      <c r="H55" s="16">
+        <f>1139.67</f>
         <v>1139.67</v>
       </c>
-      <c r="S54" s="16">
+      <c r="I55" s="16">
+        <f>1139.67</f>
+        <v>1139.67</v>
+      </c>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16">
+        <f>H55</f>
+        <v>1139.67</v>
+      </c>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16">
+        <f t="shared" ref="R55:R56" si="54">I55</f>
+        <v>1139.67</v>
+      </c>
+      <c r="S55" s="16">
         <v>1153.6210000000001</v>
       </c>
-      <c r="U54" s="25">
-        <f t="shared" si="48"/>
+      <c r="U55" s="25">
+        <f t="shared" si="53"/>
         <v>0.2212115466122897</v>
       </c>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E55" s="13" t="s">
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E56" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F56" s="18">
         <f>98.385+59.23+952.307+176.689</f>
         <v>1286.6110000000001</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G56" s="18">
         <f>69.357+171.853+1401.72+135.429</f>
         <v>1778.3590000000002</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H56" s="18">
         <f>1272.233+192.55+375.622+86.422</f>
         <v>1926.827</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I56" s="18">
         <f>941.298+200.08+548.451+46.804</f>
         <v>1736.633</v>
       </c>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18">
-        <f>H55</f>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18">
+        <f>H56</f>
         <v>1926.827</v>
       </c>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18">
-        <f t="shared" si="49"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18">
+        <f t="shared" si="54"/>
         <v>1736.633</v>
       </c>
-      <c r="S55" s="18">
+      <c r="S56" s="18">
         <f>995.529+860.067</f>
         <v>1855.596</v>
       </c>
-      <c r="U55" s="25">
-        <f t="shared" si="48"/>
+      <c r="U56" s="25">
+        <f t="shared" si="53"/>
         <v>0.10514754450632835</v>
       </c>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E56" s="5" t="s">
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E57" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F56" s="17">
-        <f>SUM(F53:F55)</f>
+      <c r="F57" s="17">
+        <f>SUM(F54:F56)</f>
         <v>2900.5619999999999</v>
       </c>
-      <c r="G56" s="17">
-        <f>SUM(G53:G55)</f>
+      <c r="G57" s="17">
+        <f>SUM(G54:G56)</f>
         <v>3276.6580000000004</v>
       </c>
-      <c r="H56" s="17">
-        <f>SUM(H53:H55)</f>
+      <c r="H57" s="17">
+        <f>SUM(H54:H56)</f>
         <v>3397.107</v>
       </c>
-      <c r="I56" s="17">
-        <f>SUM(I53:I55)</f>
+      <c r="I57" s="17">
+        <f>SUM(I54:I56)</f>
         <v>4429.2979999999998</v>
       </c>
-      <c r="K56" s="17">
-        <f t="shared" ref="K56:N56" si="50">SUM(K53:K55)</f>
+      <c r="K57" s="17">
+        <f t="shared" ref="K57:N57" si="55">SUM(K54:K56)</f>
         <v>0</v>
       </c>
-      <c r="L56" s="17">
-        <f t="shared" si="50"/>
+      <c r="L57" s="17">
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="M56" s="17">
-        <f t="shared" si="50"/>
+      <c r="M57" s="17">
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="N56" s="17">
-        <f t="shared" si="50"/>
+      <c r="N57" s="17">
+        <f t="shared" si="55"/>
         <v>3397.107</v>
       </c>
-      <c r="O56" s="17">
-        <f>SUM(O53:O55)</f>
+      <c r="O57" s="17">
+        <f>SUM(O54:O56)</f>
         <v>0</v>
       </c>
-      <c r="P56" s="17">
-        <f>SUM(P53:P55)</f>
+      <c r="P57" s="17">
+        <f>SUM(P54:P56)</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="17">
-        <f t="shared" ref="Q56:S56" si="51">SUM(Q53:Q55)</f>
+      <c r="Q57" s="17">
+        <f t="shared" ref="Q57:S57" si="56">SUM(Q54:Q56)</f>
         <v>0</v>
       </c>
-      <c r="R56" s="17">
-        <f t="shared" si="51"/>
+      <c r="R57" s="17">
+        <f t="shared" si="56"/>
         <v>4429.2979999999998</v>
       </c>
-      <c r="S56" s="17">
-        <f t="shared" si="51"/>
+      <c r="S57" s="17">
+        <f t="shared" si="56"/>
         <v>4277.2180000000008</v>
       </c>
-      <c r="U56" s="35">
-        <f t="shared" si="48"/>
+      <c r="U57" s="35">
+        <f t="shared" si="53"/>
         <v>0.15155384322346599</v>
       </c>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E57" s="13" t="s">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E58" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F58" s="16">
         <v>7123.4780000000001</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G58" s="16">
         <v>4425.0209999999997</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H58" s="16">
         <v>5139.3509999999997</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I58" s="16">
         <v>8543.9030000000002</v>
-      </c>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16">
-        <f t="shared" ref="N57:N61" si="52">H57</f>
-        <v>5139.3509999999997</v>
-      </c>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16">
-        <f t="shared" ref="R57:R61" si="53">I57</f>
-        <v>8543.9030000000002</v>
-      </c>
-      <c r="S57" s="16">
-        <v>8051.1689999999999</v>
-      </c>
-      <c r="U57" s="25">
-        <f t="shared" si="48"/>
-        <v>6.2481574428890241E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E58" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" s="16">
-        <v>100.096</v>
-      </c>
-      <c r="G58" s="16">
-        <v>861.149</v>
-      </c>
-      <c r="H58" s="16">
-        <v>576.02800000000002</v>
-      </c>
-      <c r="I58" s="16">
-        <v>1241.808</v>
       </c>
       <c r="K58" s="16"/>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
       <c r="N58" s="16">
-        <f t="shared" si="52"/>
-        <v>576.02800000000002</v>
+        <f t="shared" ref="N58:N62" si="57">H58</f>
+        <v>5139.3509999999997</v>
       </c>
       <c r="O58" s="16"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="16">
+        <f t="shared" ref="R58:R62" si="58">I58</f>
+        <v>8543.9030000000002</v>
+      </c>
+      <c r="S58" s="16">
+        <v>8051.1689999999999</v>
+      </c>
+      <c r="U58" s="25">
         <f t="shared" si="53"/>
+        <v>6.2481574428890241E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E59" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59" s="16">
+        <v>100.096</v>
+      </c>
+      <c r="G59" s="16">
+        <v>861.149</v>
+      </c>
+      <c r="H59" s="16">
+        <v>576.02800000000002</v>
+      </c>
+      <c r="I59" s="16">
         <v>1241.808</v>
-      </c>
-      <c r="S58" s="16">
-        <v>2225.0540000000001</v>
-      </c>
-      <c r="U58" s="25">
-        <f t="shared" si="48"/>
-        <v>1.3149728938807121</v>
-      </c>
-    </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E59" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F59" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G59" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="H59" s="16">
-        <v>74.102999999999994</v>
-      </c>
-      <c r="I59" s="16">
-        <v>82.781000000000006</v>
       </c>
       <c r="K59" s="16"/>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16">
-        <f t="shared" si="52"/>
-        <v>74.102999999999994</v>
+        <f t="shared" si="57"/>
+        <v>576.02800000000002</v>
       </c>
       <c r="O59" s="16"/>
       <c r="P59" s="16"/>
       <c r="Q59" s="16"/>
       <c r="R59" s="16">
+        <f t="shared" si="58"/>
+        <v>1241.808</v>
+      </c>
+      <c r="S59" s="16">
+        <v>2225.0540000000001</v>
+      </c>
+      <c r="U59" s="25">
         <f t="shared" si="53"/>
+        <v>1.3149728938807121</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E60" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60" s="16">
+        <v>74.102999999999994</v>
+      </c>
+      <c r="I60" s="16">
         <v>82.781000000000006</v>
-      </c>
-      <c r="S59" s="16">
-        <v>67.484999999999999</v>
-      </c>
-      <c r="U59" s="25" t="str">
-        <f t="shared" si="48"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E60" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="16">
-        <v>304.70600000000002</v>
-      </c>
-      <c r="G60" s="16">
-        <v>404.37599999999998</v>
-      </c>
-      <c r="H60" s="16">
-        <f>193.425+168.29</f>
-        <v>361.71500000000003</v>
-      </c>
-      <c r="I60" s="16">
-        <f>475.37+265.251</f>
-        <v>740.62099999999998</v>
       </c>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16">
-        <f t="shared" si="52"/>
-        <v>361.71500000000003</v>
+        <f t="shared" si="57"/>
+        <v>74.102999999999994</v>
       </c>
       <c r="O60" s="16"/>
       <c r="P60" s="16"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="16">
+        <f t="shared" si="58"/>
+        <v>82.781000000000006</v>
+      </c>
+      <c r="S60" s="16">
+        <v>67.484999999999999</v>
+      </c>
+      <c r="U60" s="25" t="str">
         <f t="shared" si="53"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E61" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="16">
+        <v>304.70600000000002</v>
+      </c>
+      <c r="G61" s="16">
+        <v>404.37599999999998</v>
+      </c>
+      <c r="H61" s="16">
+        <f>193.425+168.29</f>
+        <v>361.71500000000003</v>
+      </c>
+      <c r="I61" s="16">
+        <f>475.37+265.251</f>
         <v>740.62099999999998</v>
       </c>
-      <c r="S60" s="16">
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16">
+        <f t="shared" si="57"/>
+        <v>361.71500000000003</v>
+      </c>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16">
+        <f t="shared" si="58"/>
+        <v>740.62099999999998</v>
+      </c>
+      <c r="S61" s="16">
         <f>245.112+454.473</f>
         <v>699.58500000000004</v>
       </c>
-      <c r="U60" s="25">
-        <f t="shared" si="48"/>
+      <c r="U61" s="25">
+        <f t="shared" si="53"/>
         <v>0.34453363801232051</v>
       </c>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E61" s="13" t="s">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E62" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F61" s="18">
-        <f>18373.863-SUM(F57:F60)</f>
+      <c r="F62" s="18">
+        <f>18373.863-SUM(F58:F61)</f>
         <v>10845.583000000001</v>
       </c>
-      <c r="G61" s="18">
-        <f>86448.215-SUM(G57:G60)</f>
+      <c r="G62" s="18">
+        <f>86448.215-SUM(G58:G61)</f>
         <v>80757.668999999994</v>
       </c>
-      <c r="H61" s="18">
-        <f>11356.794-SUM(H57:H60)</f>
+      <c r="H62" s="18">
+        <f>11356.794-SUM(H58:H61)</f>
         <v>5205.5969999999998</v>
       </c>
-      <c r="I61" s="18">
-        <f>18112.653-SUM(I57:I60)</f>
+      <c r="I62" s="18">
+        <f>18112.653-SUM(I58:I61)</f>
         <v>7503.5399999999991</v>
       </c>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18">
-        <f t="shared" si="52"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18">
+        <f t="shared" si="57"/>
         <v>5205.5969999999998</v>
       </c>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18">
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18">
+        <f t="shared" si="58"/>
+        <v>7503.5399999999991</v>
+      </c>
+      <c r="S62" s="18">
+        <f>17453.788-SUM(S58:S61)</f>
+        <v>6410.494999999999</v>
+      </c>
+      <c r="U62" s="25">
         <f t="shared" si="53"/>
-        <v>7503.5399999999991</v>
-      </c>
-      <c r="S61" s="18">
-        <f>17453.788-SUM(S57:S60)</f>
-        <v>6410.494999999999</v>
-      </c>
-      <c r="U61" s="25">
-        <f t="shared" si="48"/>
         <v>-0.11555445256443708</v>
       </c>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E62" s="5" t="s">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E63" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F62" s="17">
-        <f>SUM(F57:F61)</f>
+      <c r="F63" s="17">
+        <f>SUM(F58:F62)</f>
         <v>18373.863000000001</v>
       </c>
-      <c r="G62" s="17">
-        <f>SUM(G57:G61)</f>
+      <c r="G63" s="17">
+        <f>SUM(G58:G62)</f>
         <v>86448.214999999997</v>
       </c>
-      <c r="H62" s="17">
-        <f>SUM(H57:H61)</f>
+      <c r="H63" s="17">
+        <f>SUM(H58:H62)</f>
         <v>11356.794</v>
       </c>
-      <c r="I62" s="17">
-        <f>SUM(I57:I61)</f>
+      <c r="I63" s="17">
+        <f>SUM(I58:I62)</f>
         <v>18112.652999999998</v>
       </c>
-      <c r="K62" s="17">
-        <f t="shared" ref="K62:N62" si="54">SUM(K57:K61)</f>
+      <c r="K63" s="17">
+        <f t="shared" ref="K63:N63" si="59">SUM(K58:K62)</f>
         <v>0</v>
       </c>
-      <c r="L62" s="17">
-        <f t="shared" si="54"/>
+      <c r="L63" s="17">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="M62" s="17">
-        <f t="shared" si="54"/>
+      <c r="M63" s="17">
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="N62" s="17">
-        <f t="shared" si="54"/>
+      <c r="N63" s="17">
+        <f t="shared" si="59"/>
         <v>11356.794</v>
       </c>
-      <c r="O62" s="17">
-        <f>SUM(O57:O61)</f>
+      <c r="O63" s="17">
+        <f>SUM(O58:O62)</f>
         <v>0</v>
       </c>
-      <c r="P62" s="17">
-        <f>SUM(P57:P61)</f>
+      <c r="P63" s="17">
+        <f>SUM(P58:P62)</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="17">
-        <f t="shared" ref="Q62:S62" si="55">SUM(Q57:Q61)</f>
+      <c r="Q63" s="17">
+        <f t="shared" ref="Q63:S63" si="60">SUM(Q58:Q62)</f>
         <v>0</v>
       </c>
-      <c r="R62" s="17">
-        <f t="shared" si="55"/>
+      <c r="R63" s="17">
+        <f t="shared" si="60"/>
         <v>18112.652999999998</v>
       </c>
-      <c r="S62" s="17">
-        <f t="shared" si="55"/>
+      <c r="S63" s="17">
+        <f t="shared" si="60"/>
         <v>17453.788</v>
       </c>
-      <c r="U62" s="35">
-        <f t="shared" si="48"/>
+      <c r="U63" s="35">
+        <f t="shared" si="53"/>
         <v>-4.7614318775033304E-3</v>
       </c>
     </row>
-    <row r="63" spans="5:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="5" t="s">
+    <row r="64" spans="3:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F63" s="20">
-        <f>+F62+F56</f>
+      <c r="F64" s="20">
+        <f>+F63+F57</f>
         <v>21274.425000000003</v>
       </c>
-      <c r="G63" s="20">
-        <f>+G62+G56</f>
+      <c r="G64" s="20">
+        <f>+G63+G57</f>
         <v>89724.872999999992</v>
       </c>
-      <c r="H63" s="20">
-        <f>+H62+H56</f>
+      <c r="H64" s="20">
+        <f>+H63+H57</f>
         <v>14753.901</v>
       </c>
-      <c r="I63" s="20">
-        <f>+I62+I56</f>
+      <c r="I64" s="20">
+        <f>+I63+I57</f>
         <v>22541.950999999997</v>
       </c>
-      <c r="K63" s="20">
-        <f t="shared" ref="K63:N63" si="56">+K62+K56</f>
+      <c r="K64" s="20">
+        <f t="shared" ref="K64:N64" si="61">+K63+K57</f>
         <v>0</v>
       </c>
-      <c r="L63" s="20">
-        <f t="shared" si="56"/>
+      <c r="L64" s="20">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="M63" s="20">
-        <f t="shared" si="56"/>
+      <c r="M64" s="20">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="N63" s="20">
-        <f t="shared" si="56"/>
+      <c r="N64" s="20">
+        <f t="shared" si="61"/>
         <v>14753.901</v>
       </c>
-      <c r="O63" s="20">
-        <f>+O62+O56</f>
+      <c r="O64" s="20">
+        <f>+O63+O57</f>
         <v>0</v>
       </c>
-      <c r="P63" s="20">
-        <f>+P62+P56</f>
+      <c r="P64" s="20">
+        <f>+P63+P57</f>
         <v>0</v>
       </c>
-      <c r="Q63" s="20">
-        <f t="shared" ref="Q63:S63" si="57">+Q62+Q56</f>
+      <c r="Q64" s="20">
+        <f t="shared" ref="Q64:S64" si="62">+Q63+Q57</f>
         <v>0</v>
       </c>
-      <c r="R63" s="20">
-        <f t="shared" si="57"/>
+      <c r="R64" s="20">
+        <f t="shared" si="62"/>
         <v>22541.950999999997</v>
       </c>
-      <c r="S63" s="20">
-        <f t="shared" si="57"/>
+      <c r="S64" s="20">
+        <f t="shared" si="62"/>
         <v>21731.006000000001</v>
       </c>
-      <c r="U63" s="35">
-        <f t="shared" si="48"/>
+      <c r="U64" s="35">
+        <f t="shared" si="53"/>
         <v>1.9478074846015492E-2</v>
       </c>
     </row>
-    <row r="64" spans="5:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="U64" s="25" t="str">
-        <f t="shared" si="48"/>
+    <row r="65" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="U65" s="25" t="str">
+        <f t="shared" si="53"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="65" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E65" s="5" t="s">
+    <row r="66" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E66" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F66" s="17">
         <v>6381.6890000000003</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G66" s="17">
         <v>5454.5569999999998</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H66" s="17">
         <v>6281.6490000000003</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I66" s="17">
         <v>10276.842000000001</v>
       </c>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17">
-        <f>I65</f>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17">
+        <f>I66</f>
         <v>10276.842000000001</v>
       </c>
-      <c r="S65" s="17">
+      <c r="S66" s="17">
         <v>10468.24</v>
       </c>
-      <c r="U65" s="35">
-        <f t="shared" si="48"/>
+      <c r="U66" s="35">
+        <f t="shared" si="53"/>
         <v>0.17212703022075493</v>
       </c>
-    </row>
-    <row r="66" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E66" t="s">
-        <v>91</v>
-      </c>
-      <c r="F66" s="16">
-        <v>3938</v>
-      </c>
-      <c r="G66" s="16">
-        <v>3641.3</v>
-      </c>
-      <c r="H66" s="16">
-        <v>3046.8</v>
-      </c>
-      <c r="I66" s="16">
-        <v>4629.6000000000004</v>
-      </c>
-      <c r="K66" s="16">
-        <v>3499.7</v>
-      </c>
-      <c r="L66" s="16">
-        <v>3499.7</v>
-      </c>
-      <c r="M66" s="16">
-        <v>3203.6</v>
-      </c>
-      <c r="N66" s="16">
-        <f>H66</f>
-        <v>3046.8</v>
-      </c>
-      <c r="O66" s="16">
-        <v>4506.6000000000004</v>
-      </c>
-      <c r="P66" s="16">
-        <v>4465.5</v>
-      </c>
-      <c r="Q66" s="16">
-        <v>4496.3</v>
-      </c>
-      <c r="R66" s="16">
-        <f>I66</f>
-        <v>4629.6000000000004</v>
-      </c>
-      <c r="S66" s="16">
-        <v>4509.7</v>
-      </c>
-      <c r="U66" s="35"/>
     </row>
     <row r="67" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
+        <v>91</v>
+      </c>
+      <c r="F67" s="16">
+        <v>3938</v>
+      </c>
+      <c r="G67" s="16">
+        <v>3641.3</v>
+      </c>
+      <c r="H67" s="16">
+        <v>3046.8</v>
+      </c>
+      <c r="I67" s="16">
+        <v>4629.6000000000004</v>
+      </c>
+      <c r="K67" s="16">
+        <v>3499.7</v>
+      </c>
+      <c r="L67" s="16">
+        <v>3499.7</v>
+      </c>
+      <c r="M67" s="16">
+        <v>3203.6</v>
+      </c>
+      <c r="N67" s="16">
+        <f>H67</f>
+        <v>3046.8</v>
+      </c>
+      <c r="O67" s="16">
+        <v>4506.6000000000004</v>
+      </c>
+      <c r="P67" s="16">
+        <v>4465.5</v>
+      </c>
+      <c r="Q67" s="16">
+        <v>4496.3</v>
+      </c>
+      <c r="R67" s="16">
+        <f>I67</f>
+        <v>4629.6000000000004</v>
+      </c>
+      <c r="S67" s="16">
+        <v>4509.7</v>
+      </c>
+      <c r="U67" s="35"/>
+    </row>
+    <row r="68" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
         <v>108</v>
       </c>
-      <c r="F67" s="16">
-        <f>SUM(F57:F58)</f>
+      <c r="F68" s="16">
+        <f>SUM(F58:F59)</f>
         <v>7223.5740000000005</v>
       </c>
-      <c r="G67" s="16">
-        <f t="shared" ref="G67:S67" si="58">SUM(G57:G58)</f>
+      <c r="G68" s="16">
+        <f t="shared" ref="G68:S68" si="63">SUM(G58:G59)</f>
         <v>5286.17</v>
       </c>
-      <c r="H67" s="16">
-        <f t="shared" si="58"/>
+      <c r="H68" s="16">
+        <f t="shared" si="63"/>
         <v>5715.3789999999999</v>
       </c>
-      <c r="I67" s="16">
-        <f t="shared" si="58"/>
+      <c r="I68" s="16">
+        <f t="shared" si="63"/>
         <v>9785.7109999999993</v>
       </c>
-      <c r="K67" s="16">
-        <f t="shared" ref="K67" si="59">SUM(K57:K58)</f>
+      <c r="K68" s="16">
+        <f t="shared" ref="K68" si="64">SUM(K58:K59)</f>
         <v>0</v>
       </c>
-      <c r="L67" s="16">
-        <f t="shared" si="58"/>
+      <c r="L68" s="16">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="M67" s="16">
-        <f t="shared" si="58"/>
+      <c r="M68" s="16">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="N67" s="16">
-        <f t="shared" si="58"/>
+      <c r="N68" s="16">
+        <f t="shared" si="63"/>
         <v>5715.3789999999999</v>
       </c>
-      <c r="O67" s="16">
-        <f t="shared" si="58"/>
+      <c r="O68" s="16">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="P67" s="16">
-        <f t="shared" si="58"/>
+      <c r="P68" s="16">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="Q67" s="16">
-        <f t="shared" si="58"/>
+      <c r="Q68" s="16">
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="R67" s="16">
-        <f t="shared" si="58"/>
+      <c r="R68" s="16">
+        <f t="shared" si="63"/>
         <v>9785.7109999999993</v>
       </c>
-      <c r="S67" s="16">
-        <f t="shared" si="58"/>
+      <c r="S68" s="16">
+        <f t="shared" si="63"/>
         <v>10276.223</v>
       </c>
-      <c r="U67" s="35"/>
-    </row>
-    <row r="68" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E68" s="5" t="s">
+      <c r="U68" s="35"/>
+    </row>
+    <row r="69" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E69" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F68" s="17">
-        <f>+F66-F67</f>
+      <c r="F69" s="17">
+        <f>+F67-F68</f>
         <v>-3285.5740000000005</v>
       </c>
-      <c r="G68" s="17">
-        <f t="shared" ref="G68:I68" si="60">+G66-G67</f>
+      <c r="G69" s="17">
+        <f t="shared" ref="G69:I69" si="65">+G67-G68</f>
         <v>-1644.87</v>
       </c>
-      <c r="H68" s="17">
-        <f t="shared" si="60"/>
+      <c r="H69" s="17">
+        <f t="shared" si="65"/>
         <v>-2668.5789999999997</v>
       </c>
-      <c r="I68" s="17">
-        <f t="shared" si="60"/>
+      <c r="I69" s="17">
+        <f t="shared" si="65"/>
         <v>-5156.110999999999</v>
       </c>
-      <c r="K68" s="17">
-        <f t="shared" ref="K68:L68" si="61">+K66-K67</f>
+      <c r="K69" s="17">
+        <f t="shared" ref="K69:L69" si="66">+K67-K68</f>
         <v>3499.7</v>
       </c>
-      <c r="L68" s="17">
-        <f t="shared" si="61"/>
+      <c r="L69" s="17">
+        <f t="shared" si="66"/>
         <v>3499.7</v>
       </c>
-      <c r="M68" s="17">
-        <f t="shared" ref="M68" si="62">+M66-M67</f>
+      <c r="M69" s="17">
+        <f t="shared" ref="M69" si="67">+M67-M68</f>
         <v>3203.6</v>
       </c>
-      <c r="N68" s="17">
-        <f t="shared" ref="N68" si="63">+N66-N67</f>
+      <c r="N69" s="17">
+        <f t="shared" ref="N69" si="68">+N67-N68</f>
         <v>-2668.5789999999997</v>
       </c>
-      <c r="O68" s="17">
-        <f t="shared" ref="O68" si="64">+O66-O67</f>
+      <c r="O69" s="17">
+        <f t="shared" ref="O69" si="69">+O67-O68</f>
         <v>4506.6000000000004</v>
       </c>
-      <c r="P68" s="17">
-        <f t="shared" ref="P68" si="65">+P66-P67</f>
+      <c r="P69" s="17">
+        <f t="shared" ref="P69" si="70">+P67-P68</f>
         <v>4465.5</v>
       </c>
-      <c r="Q68" s="17">
-        <f t="shared" ref="Q68" si="66">+Q66-Q67</f>
+      <c r="Q69" s="17">
+        <f t="shared" ref="Q69" si="71">+Q67-Q68</f>
         <v>4496.3</v>
       </c>
-      <c r="R68" s="17">
-        <f t="shared" ref="R68" si="67">+R66-R67</f>
+      <c r="R69" s="17">
+        <f t="shared" ref="R69" si="72">+R67-R68</f>
         <v>-5156.110999999999</v>
       </c>
-      <c r="S68" s="17">
-        <f t="shared" ref="S68" si="68">+S66-S67</f>
+      <c r="S69" s="17">
+        <f t="shared" ref="S69" si="73">+S67-S68</f>
         <v>-5766.5230000000001</v>
       </c>
-      <c r="U68" s="35"/>
-    </row>
-    <row r="69" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
+      <c r="U69" s="35"/>
     </row>
     <row r="70" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E70" s="8" t="s">
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+    </row>
+    <row r="71" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E71" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F71" s="19">
         <v>21274.424999999999</v>
       </c>
-      <c r="G70" s="19">
+      <c r="G71" s="19">
         <v>89724.873000000007</v>
       </c>
-      <c r="H70" s="19">
+      <c r="H71" s="19">
         <v>14753.901</v>
       </c>
-      <c r="I70" s="19">
+      <c r="I71" s="19">
         <v>22541.951000000001</v>
       </c>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19">
-        <f>H70</f>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19">
+        <f>H71</f>
         <v>14753.901</v>
       </c>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19">
-        <f>I70</f>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19">
+        <f>I71</f>
         <v>22541.951000000001</v>
       </c>
-      <c r="S70" s="19">
+      <c r="S71" s="19">
         <v>21731.006000000001</v>
       </c>
     </row>
-    <row r="71" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C71" s="15" t="b" cm="1">
-        <f t="array" ref="C71">AND(F71:I71&lt;$B$1,F71:I71&gt;-$B$1)</f>
+    <row r="72" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C72" s="15" t="b" cm="1">
+        <f t="array" ref="C72">AND(F72:I72&lt;$B$1,F72:I72&gt;-$B$1)</f>
         <v>1</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E72" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="19">
-        <f t="shared" ref="F71:I71" si="69">+F70-F63</f>
+      <c r="F72" s="19">
+        <f t="shared" ref="F72:I72" si="74">+F71-F64</f>
         <v>0</v>
       </c>
-      <c r="G71" s="19">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="19">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="19">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="19">
-        <f t="shared" ref="K71" si="70">+K70-K63</f>
-        <v>0</v>
-      </c>
-      <c r="L71" s="19">
-        <f t="shared" ref="L71:M71" si="71">+L70-L63</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="19">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="19">
-        <f t="shared" ref="N71" si="72">+N70-N63</f>
-        <v>0</v>
-      </c>
-      <c r="O71" s="19">
-        <f t="shared" ref="O71:P71" si="73">+O70-O63</f>
-        <v>0</v>
-      </c>
-      <c r="P71" s="19">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="Q71" s="19">
-        <f t="shared" ref="Q71:S71" si="74">+Q70-Q63</f>
-        <v>0</v>
-      </c>
-      <c r="R71" s="19">
+      <c r="G72" s="19">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S71" s="19">
+      <c r="H72" s="19">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
+      <c r="I72" s="19">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="19">
+        <f t="shared" ref="K72" si="75">+K71-K64</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="19">
+        <f t="shared" ref="L72:M72" si="76">+L71-L64</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="19">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="19">
+        <f t="shared" ref="N72" si="77">+N71-N64</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="19">
+        <f t="shared" ref="O72:P72" si="78">+O71-O64</f>
+        <v>0</v>
+      </c>
+      <c r="P72" s="19">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="19">
+        <f t="shared" ref="Q72:S72" si="79">+Q71-Q64</f>
+        <v>0</v>
+      </c>
+      <c r="R72" s="19">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="19">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E73" s="5" t="str">
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+    </row>
+    <row r="74" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E74" s="5" t="str">
         <f>Input!$E$8&amp;" - CF"</f>
         <v>COIN - CF</v>
       </c>
-      <c r="I73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="U73" s="34" t="s">
+      <c r="I74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="U74" s="34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E74" s="10" t="str">
+    <row r="75" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E75" s="10" t="str">
         <f>+Input!$E$14</f>
         <v>$m</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F75" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G74" s="21" t="s">
+      <c r="G75" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H74" s="21" t="s">
+      <c r="H75" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I74" s="21" t="s">
+      <c r="I75" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K74" s="47" t="s">
+      <c r="K75" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="L74" s="47" t="s">
+      <c r="L75" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="M74" s="47" t="s">
+      <c r="M75" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="N74" s="47" t="s">
+      <c r="N75" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="O74" s="48" t="s">
+      <c r="O75" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="P74" s="48" t="s">
+      <c r="P75" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q74" s="48" t="s">
+      <c r="Q75" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="R74" s="48" t="s">
+      <c r="R75" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="S74" s="21" t="s">
+      <c r="S75" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="U74" s="33" t="s">
+      <c r="U75" s="33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E76" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F76" s="16">
-        <v>4038.172</v>
-      </c>
-      <c r="G76" s="16">
-        <v>-1585.4190000000001</v>
-      </c>
-      <c r="H76" s="16">
-        <v>922.95100000000002</v>
-      </c>
-      <c r="I76" s="16">
-        <v>2556.8440000000001</v>
-      </c>
-      <c r="K76" s="16">
-        <v>463.07799999999997</v>
-      </c>
-      <c r="L76" s="16">
-        <v>614.202</v>
-      </c>
-      <c r="M76" s="16">
-        <f>928.137-SUM(K76:L76)</f>
-        <v>-149.14300000000003</v>
-      </c>
-      <c r="N76" s="16">
-        <f>I76-SUM(K76:M76)</f>
-        <v>1628.7070000000001</v>
-      </c>
-      <c r="O76" s="16">
-        <v>411.48500000000001</v>
-      </c>
-      <c r="P76" s="16">
-        <f>895.682-O76</f>
-        <v>484.197</v>
-      </c>
-      <c r="Q76" s="16">
-        <f>1592.226-SUM(O76:P76)</f>
-        <v>696.5440000000001</v>
-      </c>
-      <c r="R76" s="16">
-        <f>I76-SUM(O76:Q76)</f>
-        <v>964.61799999999994</v>
-      </c>
-      <c r="S76" s="16">
-        <v>-182.727</v>
-      </c>
-      <c r="U76" s="25">
-        <f>IFERROR((I76/F76)^(1/3)-1,"n/a")</f>
-        <v>-0.14130327592383696</v>
-      </c>
-    </row>
+    <row r="76" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E77" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F77" s="18">
-        <v>-1124.74</v>
-      </c>
-      <c r="G77" s="18">
-        <v>-663.822</v>
-      </c>
-      <c r="H77" s="18">
-        <v>5.3920000000000003</v>
-      </c>
-      <c r="I77" s="18">
-        <v>-282.38499999999999</v>
-      </c>
-      <c r="K77" s="18">
-        <v>-26.08</v>
-      </c>
-      <c r="L77" s="18">
-        <v>-12.754</v>
-      </c>
-      <c r="M77" s="18">
-        <f>-85.117-SUM(K77:L77)</f>
-        <v>-46.283000000000008</v>
-      </c>
-      <c r="N77" s="18">
+        <v>35</v>
+      </c>
+      <c r="F77" s="16">
+        <v>4038.172</v>
+      </c>
+      <c r="G77" s="16">
+        <v>-1585.4190000000001</v>
+      </c>
+      <c r="H77" s="16">
+        <v>922.95100000000002</v>
+      </c>
+      <c r="I77" s="16">
+        <v>2556.8440000000001</v>
+      </c>
+      <c r="K77" s="16">
+        <v>463.07799999999997</v>
+      </c>
+      <c r="L77" s="16">
+        <v>614.202</v>
+      </c>
+      <c r="M77" s="16">
+        <f>928.137-SUM(K77:L77)</f>
+        <v>-149.14300000000003</v>
+      </c>
+      <c r="N77" s="16">
         <f>I77-SUM(K77:M77)</f>
-        <v>-197.26799999999997</v>
-      </c>
-      <c r="O77" s="18">
-        <v>-125.681</v>
-      </c>
-      <c r="P77" s="18">
-        <f>-144.292-O77</f>
-        <v>-18.611000000000004</v>
-      </c>
-      <c r="Q77" s="18">
-        <f>-232.969-SUM(O77:P77)</f>
-        <v>-88.676999999999992</v>
-      </c>
-      <c r="R77" s="18">
+        <v>1628.7070000000001</v>
+      </c>
+      <c r="O77" s="16">
+        <v>411.48500000000001</v>
+      </c>
+      <c r="P77" s="16">
+        <f>895.682-O77</f>
+        <v>484.197</v>
+      </c>
+      <c r="Q77" s="16">
+        <f>1592.226-SUM(O77:P77)</f>
+        <v>696.5440000000001</v>
+      </c>
+      <c r="R77" s="16">
         <f>I77-SUM(O77:Q77)</f>
-        <v>-49.415999999999997</v>
-      </c>
-      <c r="S77" s="18">
-        <v>-231.65299999999999</v>
+        <v>964.61799999999994</v>
+      </c>
+      <c r="S77" s="16">
+        <v>-182.727</v>
       </c>
       <c r="U77" s="25">
         <f>IFERROR((I77/F77)^(1/3)-1,"n/a")</f>
+        <v>-0.14130327592383696</v>
+      </c>
+    </row>
+    <row r="78" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E78" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="18">
+        <v>-1124.74</v>
+      </c>
+      <c r="G78" s="18">
+        <v>-663.822</v>
+      </c>
+      <c r="H78" s="18">
+        <v>5.3920000000000003</v>
+      </c>
+      <c r="I78" s="18">
+        <v>-282.38499999999999</v>
+      </c>
+      <c r="K78" s="18">
+        <v>-26.08</v>
+      </c>
+      <c r="L78" s="18">
+        <v>-12.754</v>
+      </c>
+      <c r="M78" s="18">
+        <f>-85.117-SUM(K78:L78)</f>
+        <v>-46.283000000000008</v>
+      </c>
+      <c r="N78" s="18">
+        <f>I78-SUM(K78:M78)</f>
+        <v>-197.26799999999997</v>
+      </c>
+      <c r="O78" s="18">
+        <v>-125.681</v>
+      </c>
+      <c r="P78" s="18">
+        <f>-144.292-O78</f>
+        <v>-18.611000000000004</v>
+      </c>
+      <c r="Q78" s="18">
+        <f>-232.969-SUM(O78:P78)</f>
+        <v>-88.676999999999992</v>
+      </c>
+      <c r="R78" s="18">
+        <f>I78-SUM(O78:Q78)</f>
+        <v>-49.415999999999997</v>
+      </c>
+      <c r="S78" s="18">
+        <v>-231.65299999999999</v>
+      </c>
+      <c r="U78" s="25">
+        <f>IFERROR((I78/F78)^(1/3)-1,"n/a")</f>
         <v>-0.36914459589093829</v>
       </c>
     </row>
-    <row r="78" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E78" s="5" t="s">
+    <row r="79" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E79" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F78" s="17">
-        <f t="shared" ref="F78:H78" si="75">+F76+F77</f>
+      <c r="F79" s="17">
+        <f t="shared" ref="F79:H79" si="80">+F77+F78</f>
         <v>2913.4319999999998</v>
       </c>
-      <c r="G78" s="17">
-        <f t="shared" si="75"/>
+      <c r="G79" s="17">
+        <f t="shared" si="80"/>
         <v>-2249.241</v>
       </c>
-      <c r="H78" s="17">
-        <f t="shared" si="75"/>
+      <c r="H79" s="17">
+        <f t="shared" si="80"/>
         <v>928.34300000000007</v>
       </c>
-      <c r="I78" s="17">
-        <f>+I76+I77</f>
+      <c r="I79" s="17">
+        <f>+I77+I78</f>
         <v>2274.4589999999998</v>
       </c>
-      <c r="K78" s="17">
-        <f t="shared" ref="K78:N78" si="76">+K76+K77</f>
+      <c r="K79" s="17">
+        <f t="shared" ref="K79:N79" si="81">+K77+K78</f>
         <v>436.99799999999999</v>
       </c>
-      <c r="L78" s="17">
-        <f t="shared" si="76"/>
+      <c r="L79" s="17">
+        <f t="shared" si="81"/>
         <v>601.44799999999998</v>
       </c>
-      <c r="M78" s="17">
-        <f t="shared" si="76"/>
+      <c r="M79" s="17">
+        <f t="shared" si="81"/>
         <v>-195.42600000000004</v>
       </c>
-      <c r="N78" s="17">
-        <f t="shared" si="76"/>
+      <c r="N79" s="17">
+        <f t="shared" si="81"/>
         <v>1431.4390000000001</v>
       </c>
-      <c r="O78" s="17">
-        <f>+O76+O77</f>
+      <c r="O79" s="17">
+        <f>+O77+O78</f>
         <v>285.80400000000003</v>
       </c>
-      <c r="P78" s="17">
-        <f>+P76+P77</f>
+      <c r="P79" s="17">
+        <f>+P77+P78</f>
         <v>465.58600000000001</v>
       </c>
-      <c r="Q78" s="17">
-        <f t="shared" ref="Q78:S78" si="77">+Q76+Q77</f>
+      <c r="Q79" s="17">
+        <f t="shared" ref="Q79:S79" si="82">+Q77+Q78</f>
         <v>607.86700000000008</v>
       </c>
-      <c r="R78" s="17">
-        <f t="shared" si="77"/>
+      <c r="R79" s="17">
+        <f t="shared" si="82"/>
         <v>915.202</v>
       </c>
-      <c r="S78" s="17">
-        <f t="shared" si="77"/>
+      <c r="S79" s="17">
+        <f t="shared" si="82"/>
         <v>-414.38</v>
       </c>
-      <c r="U78" s="35">
-        <f>IFERROR((I78/F78)^(1/3)-1,"n/a")</f>
+      <c r="U79" s="35">
+        <f>IFERROR((I79/F79)^(1/3)-1,"n/a")</f>
         <v>-7.9216046658247219E-2</v>
       </c>
     </row>
-    <row r="79" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E79" s="13" t="s">
+    <row r="80" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E80" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F80" s="16">
         <v>9976.0840000000007</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G80" s="16">
         <v>-5838.518</v>
       </c>
-      <c r="H79" s="16">
+      <c r="H80" s="16">
         <v>-811.33199999999999</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I80" s="16">
         <v>2828.9209999999998</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K80" s="16">
         <v>460.12900000000002</v>
       </c>
-      <c r="L79" s="16">
+      <c r="L80" s="16">
         <v>-1142.2629999999999</v>
       </c>
-      <c r="M79" s="16">
-        <f>-1734.128-SUM(K79:L79)</f>
+      <c r="M80" s="16">
+        <f>-1734.128-SUM(K80:L80)</f>
         <v>-1051.9940000000001</v>
       </c>
-      <c r="N79" s="16">
-        <f>I79-SUM(K79:M79)</f>
+      <c r="N80" s="16">
+        <f>I80-SUM(K80:M80)</f>
         <v>4563.049</v>
       </c>
-      <c r="O79" s="16">
+      <c r="O80" s="16">
         <v>1927.721</v>
       </c>
-      <c r="P79" s="16">
-        <f>993.988-O79</f>
+      <c r="P80" s="16">
+        <f>993.988-O80</f>
         <v>-933.73299999999995</v>
       </c>
-      <c r="Q79" s="16">
-        <f>682.663-SUM(O79:P79)</f>
+      <c r="Q80" s="16">
+        <f>682.663-SUM(O80:P80)</f>
         <v>-311.32500000000005</v>
       </c>
-      <c r="R79" s="16">
-        <f>I79-SUM(O79:Q79)</f>
+      <c r="R80" s="16">
+        <f>I80-SUM(O80:Q80)</f>
         <v>2146.2579999999998</v>
       </c>
-      <c r="S79" s="16">
+      <c r="S80" s="16">
         <v>-893.80200000000002</v>
       </c>
-      <c r="U79" s="25">
-        <f>IFERROR((I79/F79)^(1/3)-1,"n/a")</f>
+      <c r="U80" s="25">
+        <f>IFERROR((I80/F80)^(1/3)-1,"n/a")</f>
         <v>-0.34301784391940782</v>
       </c>
-      <c r="W79" s="30" t="s">
+      <c r="W80" s="30" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="82" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="16"/>
     </row>
     <row r="83" spans="6:19" x14ac:dyDescent="0.2">
       <c r="F83" s="16"/>
@@ -24393,18 +24667,33 @@
       <c r="R773" s="16"/>
       <c r="S773" s="16"/>
     </row>
+    <row r="774" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F774" s="16"/>
+      <c r="G774" s="16"/>
+      <c r="H774" s="16"/>
+      <c r="I774" s="16"/>
+      <c r="K774" s="16"/>
+      <c r="L774" s="16"/>
+      <c r="M774" s="16"/>
+      <c r="N774" s="16"/>
+      <c r="O774" s="16"/>
+      <c r="P774" s="16"/>
+      <c r="Q774" s="16"/>
+      <c r="R774" s="16"/>
+      <c r="S774" s="16"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
+  <conditionalFormatting sqref="C49">
     <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
+  <conditionalFormatting sqref="C72">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -24412,9 +24701,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F30:I30 K80:P220 S80:S220 K41:M75 K78:M78 M76:M77 M79 K30:M39" formulaRange="1"/>
-    <ignoredError sqref="Q221:R231" formula="1"/>
-    <ignoredError sqref="Q80:R220 S41:S79 N41:R75 Q76:Q77 Q79 N78:R78 O76:O77 O79 N30:S39" formula="1" formulaRange="1"/>
+    <ignoredError sqref="F31:I31 K81:P221 S81:S221 K42:M76 K79:M79 M77:M78 M80 K31:M40" formulaRange="1"/>
+    <ignoredError sqref="Q222:R232" formula="1"/>
+    <ignoredError sqref="Q81:R221 S42:S80 N42:R76 Q77:Q78 Q80 N79:R79 O77:O78 O80 N31:S40" formula="1" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/COIN.xlsx
+++ b/COIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5B5B2F-237C-40A3-86CA-0273585CB0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A6AB1-BC41-4F04-962E-3AA2BCC0D501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="25920" windowHeight="20985" tabRatio="767" activeTab="6" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="767" activeTab="6" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -295,9 +295,6 @@
     <t>Dec 24</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: </t>
-  </si>
-  <si>
     <t>Coinbase Global, Inc.</t>
   </si>
   <si>
@@ -534,6 +531,9 @@
   <si>
     <t>Corporate interest and other rev</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
 </sst>
 </file>
 
@@ -699,7 +699,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -743,17 +743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -762,63 +751,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -854,22 +792,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -883,9 +806,6 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="1" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -927,7 +847,7 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -937,6 +857,8 @@
     <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1528,7 +1450,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1536,7 +1458,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1544,7 +1466,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1552,7 +1474,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1560,7 +1482,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1575,8 +1497,8 @@
       <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="43" t="s">
-        <v>69</v>
+      <c r="E13" s="35" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1584,7 +1506,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1610,7 +1532,7 @@
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="K16" s="33" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1618,13 +1540,13 @@
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="40">
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32">
         <v>0.01</v>
       </c>
     </row>
@@ -1637,13 +1559,13 @@
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="42"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="42"/>
+      <c r="E23" s="34"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
@@ -1655,7 +1577,7 @@
       <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1739,7 +1661,7 @@
         <f>+Input!$E$14</f>
         <v>$m</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -1754,13 +1676,13 @@
     <row r="10" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E11" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="17">
         <v>50752</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49">
+      <c r="G11" s="41"/>
+      <c r="H11" s="41">
         <v>45787</v>
       </c>
       <c r="I11" s="16"/>
@@ -1777,11 +1699,11 @@
         <v>30</v>
       </c>
       <c r="F12" s="16">
-        <f>Historical!S68*-1</f>
+        <f>Historical!S74*-1</f>
         <v>-10276.223</v>
       </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50" t="s">
+      <c r="G12" s="42"/>
+      <c r="H12" s="42" t="s">
         <v>62</v>
       </c>
       <c r="I12" s="16"/>
@@ -1795,14 +1717,14 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E13" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="16">
-        <f>+Historical!S67</f>
+        <f>+Historical!S73</f>
         <v>4509.7</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50" t="s">
+      <c r="G13" s="42"/>
+      <c r="H13" s="42" t="s">
         <v>62</v>
       </c>
       <c r="I13" s="16"/>
@@ -1816,14 +1738,14 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E14" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" s="17">
         <f>SUM(F11:F13)</f>
         <v>44985.476999999999</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
@@ -1848,14 +1770,14 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="51">
+        <v>128</v>
+      </c>
+      <c r="F16" s="43">
         <f>+F11/Historical!I38</f>
         <v>19.678441730455905</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -1867,14 +1789,14 @@
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="51">
-        <f>+F11/Historical!I66</f>
+        <v>129</v>
+      </c>
+      <c r="F17" s="43">
+        <f>+F11/Historical!I72</f>
         <v>4.938482074551696</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
@@ -1909,22 +1831,22 @@
         <f>+Input!$E$14</f>
         <v>$m</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="H20" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="I20" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="J20" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="J20" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="53" t="s">
+      <c r="K20" s="45" t="s">
         <v>49</v>
       </c>
       <c r="L20" s="16"/>
@@ -1952,7 +1874,7 @@
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F23" s="16">
         <v>0</v>
@@ -1972,7 +1894,7 @@
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
@@ -1980,29 +1902,29 @@
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E24" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="54">
+        <v>123</v>
+      </c>
+      <c r="F24" s="46">
         <f>SUM(F22:F23)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="46">
         <f t="shared" ref="G24:K24" si="0">SUM(G22:G23)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="54">
+      <c r="K24" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2016,27 +1938,27 @@
       <c r="E25" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="47">
         <f>+Input!E22</f>
         <v>0</v>
       </c>
-      <c r="G25" s="55">
+      <c r="G25" s="47">
         <f>F25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="47">
         <f t="shared" ref="H25:K27" si="1">G25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="55">
+      <c r="K25" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2050,27 +1972,27 @@
       <c r="E26" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="38">
         <f>+Input!E24</f>
         <v>0</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="38">
         <f>F26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="46">
+      <c r="K26" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2084,27 +2006,27 @@
       <c r="E27" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="47">
         <f>+Input!E23</f>
         <v>0</v>
       </c>
-      <c r="G27" s="55">
+      <c r="G27" s="47">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K27" s="55">
+      <c r="K27" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2118,27 +2040,27 @@
       <c r="E28" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F28" s="47">
         <f>+Input!E25</f>
         <v>0</v>
       </c>
-      <c r="G28" s="55">
+      <c r="G28" s="47">
         <f t="shared" ref="G28:K28" si="2">F28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="55">
+      <c r="H28" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I28" s="55">
+      <c r="I28" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" s="55">
+      <c r="J28" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="55">
+      <c r="K28" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2150,33 +2072,33 @@
     </row>
     <row r="29" spans="5:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="55">
+        <v>124</v>
+      </c>
+      <c r="F29" s="47">
         <f>F26*F27+F28</f>
         <v>0</v>
       </c>
-      <c r="G29" s="55">
+      <c r="G29" s="47">
         <f t="shared" ref="G29:K29" si="3">G26*G27+G28</f>
         <v>0</v>
       </c>
-      <c r="H29" s="55">
+      <c r="H29" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I29" s="55">
+      <c r="I29" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J29" s="55">
+      <c r="J29" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K29" s="55">
+      <c r="K29" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="55"/>
+      <c r="L29" s="47"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
@@ -2186,22 +2108,22 @@
       <c r="E30" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F30" s="47">
         <v>0</v>
       </c>
-      <c r="G30" s="55">
+      <c r="G30" s="47">
         <v>0</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="47">
         <v>0</v>
       </c>
-      <c r="I30" s="55">
+      <c r="I30" s="47">
         <v>0</v>
       </c>
-      <c r="J30" s="55">
+      <c r="J30" s="47">
         <v>0</v>
       </c>
-      <c r="K30" s="55">
+      <c r="K30" s="47">
         <f>+Input!K18*-1</f>
         <v>-0.01</v>
       </c>
@@ -2215,27 +2137,27 @@
       <c r="E31" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="55">
+      <c r="F31" s="47">
         <f>F29+F25+F30</f>
         <v>0</v>
       </c>
-      <c r="G31" s="55">
+      <c r="G31" s="47">
         <f t="shared" ref="G31:K31" si="4">G29+G25+G30</f>
         <v>0</v>
       </c>
-      <c r="H31" s="55">
+      <c r="H31" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I31" s="55">
+      <c r="I31" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J31" s="55">
+      <c r="J31" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K31" s="55">
+      <c r="K31" s="47">
         <f t="shared" si="4"/>
         <v>-0.01</v>
       </c>
@@ -2247,29 +2169,29 @@
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="46">
+        <v>125</v>
+      </c>
+      <c r="F32" s="38">
         <f>1/(1+F31)^1</f>
         <v>1</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="38">
         <f>F32/(1+G31)^1</f>
         <v>1</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="38">
         <f t="shared" ref="H32:J32" si="5">G32/(1+H31)^1</f>
         <v>1</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="38">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J32" s="46">
+      <c r="J32" s="38">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K32" s="46">
+      <c r="K32" s="38">
         <f>J32/K31</f>
         <v>-100</v>
       </c>
@@ -2281,7 +2203,7 @@
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E33" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F33" s="17">
         <f>F24*F32</f>
@@ -2315,7 +2237,7 @@
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E34" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F34" s="17">
         <f>SUM(F33:K33)</f>
@@ -11058,10 +10980,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:W774"/>
+  <dimension ref="A1:W780"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -11070,7 +10992,7 @@
     <col min="4" max="4" width="2.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="1.28515625" customWidth="1"/>
-    <col min="23" max="23" width="52.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="52.85546875" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -11114,20 +11036,20 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="41" t="s">
-        <v>111</v>
+      <c r="N8" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="41" t="s">
-        <v>111</v>
+      <c r="R8" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="S8" s="9"/>
-      <c r="U8" s="34" t="s">
+      <c r="U8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="W8" s="31" t="s">
+      <c r="W8" s="26" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11136,53 +11058,53 @@
         <f>+Input!$E$14</f>
         <v>$m</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" s="47" t="s">
+      <c r="K9" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="M9" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="O9" s="48" t="s">
+      <c r="N9" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q9" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="R9" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="S9" s="32" t="s">
+      <c r="R9" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="U9" s="33" t="s">
+      <c r="S9" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="U9" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:23" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="E11" s="56" t="s">
-        <v>133</v>
+      <c r="E11" s="48" t="s">
+        <v>132</v>
       </c>
       <c r="F11" s="16">
         <v>6490.9920000000002</v>
@@ -11225,14 +11147,14 @@
       <c r="S11" s="16">
         <v>1095.5060000000001</v>
       </c>
-      <c r="U11" s="25">
+      <c r="U11" s="23">
         <f>IFERROR((I11/F11)^(1/3)-1,"n/a")</f>
         <v>-0.19151008876583597</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="E12" s="56" t="s">
-        <v>134</v>
+      <c r="E12" s="48" t="s">
+        <v>133</v>
       </c>
       <c r="F12" s="16">
         <v>346.274</v>
@@ -11275,14 +11197,14 @@
       <c r="S12" s="16">
         <v>98.888000000000005</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="23">
         <f t="shared" ref="U12:U21" si="2">IFERROR((I12/F12)^(1/3)-1,"n/a")</f>
         <v>-6.5116100350981476E-4</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="E13" s="56" t="s">
-        <v>135</v>
+      <c r="E13" s="48" t="s">
+        <v>134</v>
       </c>
       <c r="F13" s="18">
         <v>0</v>
@@ -11325,14 +11247,14 @@
       <c r="S13" s="18">
         <v>67.813999999999993</v>
       </c>
-      <c r="U13" s="25" t="str">
+      <c r="U13" s="23" t="str">
         <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E14" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="16">
         <f t="shared" ref="F14" si="3">SUM(F11:F13)</f>
@@ -11386,14 +11308,14 @@
         <f>SUM(S11:S13)</f>
         <v>1262.2080000000001</v>
       </c>
-      <c r="U14" s="25">
+      <c r="U14" s="23">
         <f t="shared" si="2"/>
         <v>-0.16461044041852402</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="E15" s="56" t="s">
-        <v>136</v>
+      <c r="E15" s="48" t="s">
+        <v>135</v>
       </c>
       <c r="F15" s="16">
         <v>9.8819999999999997</v>
@@ -11436,14 +11358,14 @@
       <c r="S15" s="16">
         <v>297.53500000000003</v>
       </c>
-      <c r="U15" s="25">
+      <c r="U15" s="23">
         <f t="shared" si="2"/>
         <v>3.5165412003394803</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="E16" s="56" t="s">
-        <v>137</v>
+      <c r="E16" s="48" t="s">
+        <v>136</v>
       </c>
       <c r="F16" s="16">
         <v>223.05500000000001</v>
@@ -11486,14 +11408,14 @@
       <c r="S16" s="16">
         <v>196.59200000000001</v>
       </c>
-      <c r="U16" s="25">
+      <c r="U16" s="23">
         <f t="shared" si="2"/>
         <v>0.46807331238642602</v>
       </c>
     </row>
     <row r="17" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E17" s="56" t="s">
-        <v>138</v>
+      <c r="E17" s="48" t="s">
+        <v>137</v>
       </c>
       <c r="F17" s="16">
         <v>15.952999999999999</v>
@@ -11536,14 +11458,14 @@
       <c r="S17" s="16">
         <v>63.085999999999999</v>
       </c>
-      <c r="U17" s="25">
+      <c r="U17" s="23">
         <f t="shared" si="2"/>
         <v>1.554094680148129</v>
       </c>
     </row>
     <row r="18" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E18" s="56" t="s">
-        <v>141</v>
+      <c r="E18" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="F18" s="16">
         <v>136.29300000000001</v>
@@ -11583,15 +11505,15 @@
         <f t="shared" si="9"/>
         <v>43.136999999999986</v>
       </c>
-      <c r="S18" s="58"/>
-      <c r="U18" s="25">
+      <c r="S18" s="50"/>
+      <c r="U18" s="23">
         <f t="shared" si="2"/>
         <v>1.3067141465875398E-2</v>
       </c>
     </row>
     <row r="19" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E19" s="56" t="s">
-        <v>139</v>
+      <c r="E19" s="48" t="s">
+        <v>138</v>
       </c>
       <c r="F19" s="18">
         <v>132.304</v>
@@ -11631,17 +11553,17 @@
         <f t="shared" ref="R19:R37" si="10">I19-SUM(O19:Q19)</f>
         <v>91.448999999999955</v>
       </c>
-      <c r="S19" s="59">
+      <c r="S19" s="51">
         <v>140.898</v>
       </c>
-      <c r="U19" s="25">
+      <c r="U19" s="23">
         <f t="shared" si="2"/>
         <v>0.28907800841725306</v>
       </c>
     </row>
     <row r="20" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E20" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="16">
         <f>SUM(F15:F19)</f>
@@ -11695,14 +11617,14 @@
         <f>SUM(S15:S19)</f>
         <v>698.1110000000001</v>
       </c>
-      <c r="U20" s="25">
+      <c r="U20" s="23">
         <f t="shared" si="2"/>
         <v>0.64585307160833261</v>
       </c>
     </row>
     <row r="21" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E21" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="18">
         <v>484.69099999999997</v>
@@ -11745,14 +11667,14 @@
       <c r="S21" s="18">
         <v>73.975999999999999</v>
       </c>
-      <c r="U21" s="25">
+      <c r="U21" s="23">
         <f t="shared" si="2"/>
         <v>-0.17639631956973301</v>
       </c>
     </row>
     <row r="22" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E22" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="17">
         <f>SUM(F20:F21,F14)</f>
@@ -11806,14 +11728,14 @@
         <f t="shared" si="12"/>
         <v>2034.2950000000001</v>
       </c>
-      <c r="U22" s="35">
+      <c r="U22" s="30">
         <f>IFERROR((I22/F22)^(1/3)-1,"n/a")</f>
         <v>-5.7470277979168927E-2</v>
       </c>
     </row>
     <row r="23" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E23" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="16">
         <v>-1267.924</v>
@@ -11856,14 +11778,14 @@
       <c r="S23" s="16">
         <v>-303.02600000000001</v>
       </c>
-      <c r="U23" s="25">
+      <c r="U23" s="23">
         <f>IFERROR((I23/F23)^(1/3)-1,"n/a")</f>
         <v>-0.10872074872291071</v>
       </c>
     </row>
     <row r="24" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E24" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="16">
         <v>-1291.5609999999999</v>
@@ -11906,14 +11828,14 @@
       <c r="S24" s="16">
         <v>-355.36799999999999</v>
       </c>
-      <c r="U24" s="25">
+      <c r="U24" s="23">
         <f>IFERROR((I24/F24)^(1/3)-1,"n/a")</f>
         <v>4.3666858777077211E-2</v>
       </c>
     </row>
     <row r="25" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E25" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" s="16">
         <v>-663.68899999999996</v>
@@ -11956,14 +11878,14 @@
       <c r="S25" s="16">
         <v>-247.28299999999999</v>
       </c>
-      <c r="U25" s="25">
+      <c r="U25" s="23">
         <f>IFERROR((I25/F25)^(1/3)-1,"n/a")</f>
         <v>-4.6649671056675501E-3</v>
       </c>
     </row>
     <row r="26" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E26" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="16">
         <v>-909.39200000000005</v>
@@ -12006,14 +11928,14 @@
       <c r="S26" s="16">
         <v>-394.346</v>
       </c>
-      <c r="U26" s="25">
+      <c r="U26" s="23">
         <f>IFERROR((I26/F26)^(1/3)-1,"n/a")</f>
         <v>0.12657304808481507</v>
       </c>
     </row>
     <row r="27" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E27" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="16">
         <v>0</v>
@@ -12056,14 +11978,14 @@
       <c r="S27" s="16">
         <v>-34.365000000000002</v>
       </c>
-      <c r="U27" s="25">
+      <c r="U27" s="23">
         <f>IFERROR((I27/F28)^(1/3)-1,"n/a")</f>
         <v>-1.7765600890436968</v>
       </c>
     </row>
     <row r="28" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E28" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="16">
         <v>-153.16</v>
@@ -12106,14 +12028,14 @@
       <c r="S28" s="16">
         <v>0</v>
       </c>
-      <c r="U28" s="25" t="str">
+      <c r="U28" s="23" t="str">
         <f>IFERROR((I28/#REF!)^(1/3)-1,"n/a")</f>
         <v>n/a</v>
       </c>
     </row>
     <row r="29" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E29" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="16">
         <v>0</v>
@@ -12156,14 +12078,14 @@
       <c r="S29" s="16">
         <v>0</v>
       </c>
-      <c r="U29" s="25" t="str">
+      <c r="U29" s="23" t="str">
         <f t="shared" ref="U29:U38" si="13">IFERROR((I29/F29)^(1/3)-1,"n/a")</f>
         <v>n/a</v>
       </c>
     </row>
     <row r="30" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E30" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="18">
         <v>-477.14800000000002</v>
@@ -12206,75 +12128,76 @@
       <c r="S30" s="18">
         <v>5.899</v>
       </c>
-      <c r="U30" s="25">
+      <c r="U30" s="23">
         <f t="shared" si="13"/>
         <v>-0.74477211859552561</v>
       </c>
     </row>
     <row r="31" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E31" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="16">
+      <c r="E31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="17">
         <f>SUM(F23:F30)</f>
         <v>-4762.8739999999998</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="17">
         <f>SUM(G23:G30)</f>
         <v>-5904.4160000000002</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="17">
         <f t="shared" ref="H31:I31" si="14">SUM(H23:H30)</f>
         <v>-3270.0450000000001</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="17">
         <f t="shared" si="14"/>
         <v>-4256.8679999999995</v>
       </c>
-      <c r="K31" s="16">
+      <c r="J31" s="5"/>
+      <c r="K31" s="17">
         <f t="shared" ref="K31" si="15">SUM(K23:K30)</f>
         <v>-896.404</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="17">
         <f t="shared" ref="L31:M31" si="16">SUM(L23:L30)</f>
         <v>-781.48599999999988</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M31" s="17">
         <f t="shared" si="16"/>
         <v>-753.97299999999984</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N31" s="17">
         <f t="shared" ref="N31" si="17">SUM(N23:N30)</f>
         <v>-838.18200000000002</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O31" s="17">
         <f t="shared" ref="O31:P31" si="18">SUM(O23:O30)</f>
         <v>-877.10899999999992</v>
       </c>
-      <c r="P31" s="16">
+      <c r="P31" s="17">
         <f t="shared" si="18"/>
         <v>-1106.5110000000002</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="Q31" s="17">
         <f t="shared" ref="Q31:S31" si="19">SUM(Q23:Q30)</f>
         <v>-1035.6799999999998</v>
       </c>
-      <c r="R31" s="16">
+      <c r="R31" s="17">
         <f t="shared" si="19"/>
         <v>-1237.5680000000002</v>
       </c>
-      <c r="S31" s="16">
+      <c r="S31" s="17">
         <f t="shared" si="19"/>
         <v>-1328.4890000000003</v>
       </c>
-      <c r="U31" s="25">
+      <c r="U31" s="23">
         <f t="shared" si="13"/>
         <v>-3.6747014727023908E-2</v>
       </c>
     </row>
     <row r="32" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E32" s="44" t="s">
-        <v>84</v>
+      <c r="E32" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="F32" s="18">
         <v>-20.463000000000001</v>
@@ -12317,14 +12240,14 @@
       <c r="S32" s="18">
         <v>-6.1879999999999997</v>
       </c>
-      <c r="U32" s="25">
+      <c r="U32" s="23">
         <f t="shared" si="13"/>
         <v>-2.1242040890623182</v>
       </c>
     </row>
     <row r="33" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E33" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="17">
         <f>SUM(F22,F31:F32)</f>
@@ -12378,14 +12301,14 @@
         <f t="shared" si="25"/>
         <v>699.61799999999982</v>
       </c>
-      <c r="U33" s="35">
+      <c r="U33" s="30">
         <f t="shared" si="13"/>
         <v>-8.5642717665108004E-2</v>
       </c>
     </row>
     <row r="34" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E34" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="16">
         <v>-29.16</v>
@@ -12428,14 +12351,14 @@
       <c r="S34" s="16">
         <v>-20.510999999999999</v>
       </c>
-      <c r="U34" s="25">
+      <c r="U34" s="23">
         <f t="shared" si="13"/>
         <v>0.40366447586925847</v>
       </c>
     </row>
     <row r="35" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E35" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F35" s="18">
         <v>0</v>
@@ -12478,7 +12401,7 @@
       <c r="S35" s="18">
         <v>-596.65099999999995</v>
       </c>
-      <c r="U35" s="25" t="str">
+      <c r="U35" s="23" t="str">
         <f t="shared" si="13"/>
         <v>n/a</v>
       </c>
@@ -12539,7 +12462,7 @@
         <f t="shared" si="31"/>
         <v>82.455999999999904</v>
       </c>
-      <c r="U36" s="35">
+      <c r="U36" s="30">
         <f t="shared" si="13"/>
         <v>-9.3711557464645212E-3</v>
       </c>
@@ -12589,7 +12512,7 @@
       <c r="S37" s="16">
         <v>-16.847999999999999</v>
       </c>
-      <c r="U37" s="25">
+      <c r="U37" s="23">
         <f t="shared" si="13"/>
         <v>-1.847550941915804</v>
       </c>
@@ -12650,1749 +12573,1766 @@
         <f t="shared" si="33"/>
         <v>65.607999999999905</v>
       </c>
-      <c r="U38" s="35">
+      <c r="U38" s="30">
         <f t="shared" si="13"/>
         <v>-0.10720182138865331</v>
       </c>
     </row>
     <row r="39" spans="5:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="52"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+    </row>
+    <row r="41" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E41" s="52"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+    </row>
+    <row r="42" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E42" s="52"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+    </row>
+    <row r="43" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E43" s="52"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+    </row>
+    <row r="44" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E44" s="52"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+    </row>
+    <row r="45" spans="5:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+    </row>
+    <row r="46" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E46" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="23" t="str">
+      <c r="F46" s="23" t="str">
         <f>IFERROR(+F22/#REF!-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G46" s="23">
         <f>IFERROR(+G22/F22-1,"n/a")</f>
         <v>-0.59254661427519606</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H46" s="23">
         <v>0.01</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I46" s="23">
         <f>IFERROR(+I22/H22-1,"n/a")</f>
         <v>1.1117178931939855</v>
       </c>
-      <c r="K40" s="23" t="str">
-        <f t="shared" ref="K40:R40" si="34">IFERROR(+K22/J22-1,"n/a")</f>
+      <c r="J46" s="53"/>
+      <c r="K46" s="23" t="str">
+        <f t="shared" ref="K46:R46" si="34">IFERROR(+K22/J22-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L40" s="23">
+      <c r="L46" s="23">
         <f t="shared" si="34"/>
         <v>-8.3644756378077667E-2</v>
       </c>
-      <c r="M40" s="23">
+      <c r="M46" s="23">
         <f t="shared" si="34"/>
         <v>-4.7693848520506288E-2</v>
       </c>
-      <c r="N40" s="23">
+      <c r="N46" s="23">
         <f t="shared" si="34"/>
         <v>0.41481544111975399</v>
       </c>
-      <c r="O40" s="23">
+      <c r="O46" s="23">
         <f t="shared" si="34"/>
         <v>0.71689933371426795</v>
       </c>
-      <c r="P40" s="23">
+      <c r="P46" s="23">
         <f t="shared" si="34"/>
         <v>-0.1147688343093729</v>
       </c>
-      <c r="Q40" s="23">
+      <c r="Q46" s="23">
         <f t="shared" si="34"/>
         <v>-0.16861912159533332</v>
       </c>
-      <c r="R40" s="23">
+      <c r="R46" s="23">
         <f t="shared" si="34"/>
         <v>0.88487404092124611</v>
       </c>
-      <c r="S40" s="23">
+      <c r="S46" s="23">
         <f>IFERROR(+S22/R22-1,"n/a")</f>
         <v>-0.10448060143411986</v>
       </c>
     </row>
-    <row r="41" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E41" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" s="25">
+    <row r="47" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E47" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="23">
         <f>+F24/-F22</f>
         <v>0.16475160738440123</v>
       </c>
-      <c r="G41" s="25">
-        <f t="shared" ref="G41:S41" si="35">+G24/-G22</f>
+      <c r="G47" s="23">
+        <f t="shared" ref="G47:S47" si="35">+G24/-G22</f>
         <v>0.72830385497750927</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H47" s="23">
         <f t="shared" si="35"/>
         <v>0.42611898212028571</v>
       </c>
-      <c r="I41" s="25">
+      <c r="I47" s="23">
         <f t="shared" si="35"/>
         <v>0.22368155650768093</v>
       </c>
-      <c r="K41" s="25">
+      <c r="J47" s="53"/>
+      <c r="K47" s="23">
         <f t="shared" si="35"/>
         <v>0.46345315192051045</v>
       </c>
-      <c r="L41" s="25">
+      <c r="L47" s="23">
         <f t="shared" si="35"/>
         <v>0.45297643347821964</v>
       </c>
-      <c r="M41" s="25">
+      <c r="M47" s="23">
         <f t="shared" si="35"/>
         <v>0.47876134023982869</v>
       </c>
-      <c r="N41" s="25">
+      <c r="N47" s="23">
         <f t="shared" si="35"/>
         <v>0.33873840814850154</v>
       </c>
-      <c r="O41" s="25">
+      <c r="O47" s="23">
         <f t="shared" si="35"/>
         <v>0.21853294820984753</v>
       </c>
-      <c r="P41" s="25">
+      <c r="P47" s="23">
         <f t="shared" si="35"/>
         <v>0.25127687930972631</v>
       </c>
-      <c r="Q41" s="25">
+      <c r="Q47" s="23">
         <f t="shared" si="35"/>
         <v>0.31317805529902676</v>
       </c>
-      <c r="R41" s="25">
+      <c r="R47" s="23">
         <f t="shared" si="35"/>
         <v>0.16230189946721243</v>
       </c>
-      <c r="S41" s="25">
+      <c r="S47" s="23">
         <f t="shared" si="35"/>
         <v>0.17468852845826194</v>
       </c>
     </row>
-    <row r="42" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E42" s="37" t="s">
+    <row r="48" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E48" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F48" s="23">
         <f>IFERROR(+F33/F22,"n/a")</f>
         <v>0.38983721294520379</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G48" s="23">
         <f>IFERROR(+G33/G22,"n/a")</f>
         <v>-0.93158648403610533</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H48" s="23">
         <f>IFERROR(+H33/H22,"n/a")</f>
         <v>1.9048489198402311E-3</v>
       </c>
-      <c r="I42" s="26">
+      <c r="I48" s="23">
         <f>IFERROR(+I33/I22,"n/a")</f>
         <v>0.35591469140594778</v>
       </c>
-      <c r="K42" s="25">
-        <f t="shared" ref="K42:R42" si="36">IFERROR(+K33/K22,"n/a")</f>
+      <c r="J48" s="53"/>
+      <c r="K48" s="23">
+        <f t="shared" ref="K48:R48" si="36">IFERROR(+K33/K22,"n/a")</f>
         <v>-0.18658199239122414</v>
       </c>
-      <c r="L42" s="25">
+      <c r="L48" s="23">
         <f t="shared" si="36"/>
         <v>-8.0534134940691435E-2</v>
       </c>
-      <c r="M42" s="25">
+      <c r="M48" s="23">
         <f t="shared" si="36"/>
         <v>8.2299435732213197E-2</v>
       </c>
-      <c r="N42" s="25">
+      <c r="N48" s="23">
         <f t="shared" si="36"/>
         <v>0.15893352345105591</v>
       </c>
-      <c r="O42" s="25">
+      <c r="O48" s="23">
         <f t="shared" si="36"/>
         <v>0.49223300377999113</v>
       </c>
-      <c r="P42" s="25">
+      <c r="P48" s="23">
         <f t="shared" si="36"/>
         <v>0.19266322118502122</v>
       </c>
-      <c r="Q42" s="25">
+      <c r="Q48" s="23">
         <f t="shared" si="36"/>
         <v>0.17392898896691261</v>
       </c>
-      <c r="R42" s="25">
+      <c r="R48" s="23">
         <f t="shared" si="36"/>
         <v>0.45837429131502949</v>
       </c>
-      <c r="S42" s="25">
+      <c r="S48" s="23">
         <f>IFERROR(+S33/S22,"n/a")</f>
         <v>0.34391177287463215</v>
       </c>
     </row>
-    <row r="43" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E43" s="37" t="s">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E49" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F49" s="23">
         <f>-F37/F36</f>
         <v>-0.19728558180899761</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G49" s="23">
         <f>-G37/G36</f>
         <v>0.14345610592243901</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H49" s="23">
         <f>-H37/H36</f>
         <v>2.2345760947361497</v>
       </c>
-      <c r="I43" s="26">
+      <c r="I49" s="23">
         <f>-I37/I36</f>
         <v>0.12355487106153509</v>
       </c>
-      <c r="K43" s="25">
-        <f t="shared" ref="K43:R43" si="37">-K37/K36</f>
+      <c r="J49" s="53"/>
+      <c r="K49" s="23">
+        <f t="shared" ref="K49:R49" si="37">-K37/K36</f>
         <v>0.52379342813684548</v>
       </c>
-      <c r="L43" s="25">
+      <c r="L49" s="23">
         <f t="shared" si="37"/>
         <v>-0.23794212218649574</v>
       </c>
-      <c r="M43" s="25">
+      <c r="M49" s="23">
         <f t="shared" si="37"/>
         <v>1.0653472202186878</v>
       </c>
-      <c r="N43" s="25">
+      <c r="N49" s="23">
         <f t="shared" si="37"/>
         <v>-1.0581921371741712</v>
       </c>
-      <c r="O43" s="25">
+      <c r="O49" s="23">
         <f t="shared" si="37"/>
         <v>0.18169934549583142</v>
       </c>
-      <c r="P43" s="25">
+      <c r="P49" s="23">
         <f t="shared" si="37"/>
         <v>1.6001294885203441</v>
       </c>
-      <c r="Q43" s="25">
+      <c r="Q49" s="23">
         <f t="shared" si="37"/>
         <v>-0.10081509455971717</v>
       </c>
-      <c r="R43" s="25">
+      <c r="R49" s="23">
         <f t="shared" si="37"/>
         <v>0.1374195324128385</v>
       </c>
-      <c r="S43" s="25">
+      <c r="S49" s="23">
         <f>-S37/S36</f>
         <v>0.20432715630154286</v>
       </c>
     </row>
-    <row r="44" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E44" s="38" t="s">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E50" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="27" t="str">
+      <c r="F50" s="23" t="str">
         <f>IFERROR(+F38/#REF!-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="G44" s="27">
-        <f t="shared" ref="G44:I44" si="38">IFERROR(+G38/F38-1,"n/a")</f>
+      <c r="G50" s="23">
+        <f t="shared" ref="G50:I50" si="38">IFERROR(+G38/F38-1,"n/a")</f>
         <v>-1.7242996920631766</v>
       </c>
-      <c r="H44" s="27">
+      <c r="H50" s="23">
         <f t="shared" si="38"/>
         <v>-1.0361420355214519</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I50" s="23">
         <f t="shared" si="38"/>
         <v>26.184977495757479</v>
       </c>
-      <c r="K44" s="27" t="str">
-        <f t="shared" ref="K44" si="39">IFERROR(+K38/J38-1,"n/a")</f>
+      <c r="J50" s="53"/>
+      <c r="K50" s="23" t="str">
+        <f t="shared" ref="K50" si="39">IFERROR(+K38/J38-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L44" s="27">
-        <f t="shared" ref="L44" si="40">IFERROR(+L38/K38-1,"n/a")</f>
+      <c r="L50" s="23">
+        <f t="shared" ref="L50" si="40">IFERROR(+L38/K38-1,"n/a")</f>
         <v>0.23459997972013591</v>
       </c>
-      <c r="M44" s="27">
-        <f t="shared" ref="M44" si="41">IFERROR(+M38/L38-1,"n/a")</f>
+      <c r="M50" s="23">
+        <f t="shared" ref="M50" si="41">IFERROR(+M38/L38-1,"n/a")</f>
         <v>-0.97674657358451877</v>
       </c>
-      <c r="N44" s="27">
-        <f t="shared" ref="N44" si="42">IFERROR(+N38/M38-1,"n/a")</f>
+      <c r="N50" s="23">
+        <f t="shared" ref="N50" si="42">IFERROR(+N38/M38-1,"n/a")</f>
         <v>-121.7227373068462</v>
       </c>
-      <c r="O44" s="27">
-        <f t="shared" ref="O44" si="43">IFERROR(+O38/N38-1,"n/a")</f>
+      <c r="O50" s="23">
+        <f t="shared" ref="O50" si="43">IFERROR(+O38/N38-1,"n/a")</f>
         <v>3.3017038659727858</v>
       </c>
-      <c r="P44" s="27">
-        <f t="shared" ref="P44" si="44">IFERROR(+P38/O38-1,"n/a")</f>
+      <c r="P50" s="23">
+        <f t="shared" ref="P50" si="44">IFERROR(+P38/O38-1,"n/a")</f>
         <v>-0.96926660687186772</v>
       </c>
-      <c r="Q44" s="27">
+      <c r="Q50" s="23">
         <f>IFERROR(+Q38/P38-1,"n/a")</f>
         <v>1.0883817427386004</v>
       </c>
-      <c r="R44" s="27">
-        <f t="shared" ref="R44" si="45">IFERROR(+R38/Q38-1,"n/a")</f>
+      <c r="R50" s="23">
+        <f t="shared" ref="R50" si="45">IFERROR(+R38/Q38-1,"n/a")</f>
         <v>16.102801510033689</v>
       </c>
-      <c r="S44" s="27">
-        <f t="shared" ref="S44" si="46">IFERROR(+S38/R38-1,"n/a")</f>
+      <c r="S50" s="23">
+        <f t="shared" ref="S50" si="46">IFERROR(+S38/R38-1,"n/a")</f>
         <v>-0.94918740744871344</v>
       </c>
     </row>
-    <row r="45" spans="5:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="5:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-    </row>
-    <row r="47" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-    </row>
-    <row r="48" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E48" s="8" t="s">
+    <row r="51" spans="3:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="3:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="24"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E54" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F54" s="19">
         <v>3624.12</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G54" s="19">
         <v>-2624.9490000000001</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H54" s="19">
         <v>94.870999999999995</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I54" s="19">
         <v>2579.0659999999998</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K54" s="19">
         <v>-78.896000000000001</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L54" s="19">
         <v>-97.405000000000001</v>
       </c>
-      <c r="M48" s="19">
+      <c r="M54" s="19">
         <v>-2.2650000000000001</v>
       </c>
-      <c r="N48" s="19">
-        <f>H48-SUM(K48:M48)</f>
+      <c r="N54" s="19">
+        <f>H54-SUM(K54:M54)</f>
         <v>273.43699999999995</v>
       </c>
-      <c r="O48" s="19">
+      <c r="O54" s="19">
         <v>1176.2449999999999</v>
       </c>
-      <c r="P48" s="19">
+      <c r="P54" s="19">
         <v>36.15</v>
       </c>
-      <c r="Q48" s="19">
+      <c r="Q54" s="19">
         <v>75.495000000000005</v>
       </c>
-      <c r="R48" s="19">
-        <f>I48-SUM(O48:Q48)</f>
+      <c r="R54" s="19">
+        <f>I54-SUM(O54:Q54)</f>
         <v>1291.1759999999999</v>
       </c>
-      <c r="S48" s="19">
+      <c r="S54" s="19">
         <v>65.608000000000004</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C49" s="15" t="b" cm="1">
-        <f t="array" ref="C49">AND(F49:I49&lt;$B$1,F49:I49&gt;-$B$1)</f>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C55" s="15" t="b" cm="1">
+        <f t="array" ref="C55">AND(F55:I55&lt;$B$1,F55:I55&gt;-$B$1)</f>
         <v>1</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E55" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="57">
-        <f t="shared" ref="F49:I49" si="47">+F48-F38</f>
+      <c r="F55" s="49">
+        <f>+F54-F38</f>
         <v>0</v>
       </c>
-      <c r="G49" s="57">
-        <f t="shared" si="47"/>
+      <c r="G55" s="49">
+        <f>+G54-G38</f>
         <v>0</v>
       </c>
-      <c r="H49" s="57">
-        <f t="shared" si="47"/>
+      <c r="H55" s="49">
+        <f>+H54-H38</f>
         <v>2.5579538487363607E-13</v>
       </c>
-      <c r="I49" s="57">
-        <f t="shared" si="47"/>
+      <c r="I55" s="49">
+        <f>+I54-I38</f>
         <v>0</v>
       </c>
-      <c r="J49" s="46"/>
-      <c r="K49" s="57">
-        <f t="shared" ref="K49" si="48">+K48-K38</f>
+      <c r="J55" s="38"/>
+      <c r="K55" s="49">
+        <f>+K54-K38</f>
         <v>0</v>
       </c>
-      <c r="L49" s="57">
-        <f t="shared" ref="L49:M49" si="49">+L48-L38</f>
+      <c r="L55" s="49">
+        <f>+L54-L38</f>
         <v>-1.7053025658242404E-13</v>
       </c>
-      <c r="M49" s="57">
-        <f t="shared" si="49"/>
+      <c r="M55" s="49">
+        <f>+M54-M38</f>
         <v>-5.6399329650957952E-14</v>
       </c>
-      <c r="N49" s="57">
-        <f t="shared" ref="N49" si="50">+N48-N38</f>
+      <c r="N55" s="49">
+        <f>+N54-N38</f>
         <v>0</v>
       </c>
-      <c r="O49" s="57">
-        <f t="shared" ref="O49:P49" si="51">+O48-O38</f>
+      <c r="O55" s="49">
+        <f>+O54-O38</f>
         <v>0</v>
       </c>
-      <c r="P49" s="57">
-        <f t="shared" si="51"/>
+      <c r="P55" s="49">
+        <f>+P54-P38</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="57">
-        <f t="shared" ref="Q49:S49" si="52">+Q48-Q38</f>
+      <c r="Q55" s="49">
+        <f>+Q54-Q38</f>
         <v>-3.5527136788005009E-13</v>
       </c>
-      <c r="R49" s="57">
-        <f t="shared" si="52"/>
+      <c r="R55" s="49">
+        <f>+R54-R38</f>
         <v>0</v>
       </c>
-      <c r="S49" s="57">
-        <f t="shared" si="52"/>
+      <c r="S55" s="49">
+        <f>+S54-S38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E51" s="5" t="str">
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E57" s="5" t="str">
         <f>Input!$E$8&amp;" - BS"</f>
         <v>COIN - BS</v>
       </c>
-      <c r="I51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="U51" s="34" t="s">
+      <c r="I57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="U57" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E52" s="10" t="str">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E58" s="10" t="str">
         <f>+Input!$E$14</f>
         <v>$m</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F58" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G52" s="21" t="s">
+      <c r="G58" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="H58" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="I58" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K52" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="L52" s="47" t="s">
+      <c r="K58" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="L58" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="M52" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="N52" s="47" t="s">
+      <c r="M58" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="N58" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="O52" s="48" t="s">
+      <c r="O58" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="P58" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="P52" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q52" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="R52" s="48" t="s">
+      <c r="R58" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S52" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="U52" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E54" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="16">
-        <v>988.19299999999998</v>
-      </c>
-      <c r="G54" s="16">
-        <v>424.39299999999997</v>
-      </c>
-      <c r="H54" s="16">
-        <v>330.61</v>
-      </c>
-      <c r="I54" s="16">
-        <v>1552.9949999999999</v>
-      </c>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16">
-        <f>H54</f>
-        <v>330.61</v>
-      </c>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16">
-        <f>I54</f>
-        <v>1552.9949999999999</v>
-      </c>
-      <c r="S54" s="16">
-        <v>1268.001</v>
-      </c>
-      <c r="U54" s="25">
-        <f t="shared" ref="U54:U66" si="53">IFERROR((I54/F54)^(1/3)-1,"n/a")</f>
-        <v>0.16263330970848489</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E55" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F55" s="16">
-        <f>625.758</f>
-        <v>625.75800000000004</v>
-      </c>
-      <c r="G55" s="16">
-        <f>1073.906</f>
-        <v>1073.9059999999999</v>
-      </c>
-      <c r="H55" s="16">
-        <f>1139.67</f>
-        <v>1139.67</v>
-      </c>
-      <c r="I55" s="16">
-        <f>1139.67</f>
-        <v>1139.67</v>
-      </c>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16">
-        <f>H55</f>
-        <v>1139.67</v>
-      </c>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16">
-        <f t="shared" ref="R55:R56" si="54">I55</f>
-        <v>1139.67</v>
-      </c>
-      <c r="S55" s="16">
-        <v>1153.6210000000001</v>
-      </c>
-      <c r="U55" s="25">
-        <f t="shared" si="53"/>
-        <v>0.2212115466122897</v>
-      </c>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E56" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56" s="18">
-        <f>98.385+59.23+952.307+176.689</f>
-        <v>1286.6110000000001</v>
-      </c>
-      <c r="G56" s="18">
-        <f>69.357+171.853+1401.72+135.429</f>
-        <v>1778.3590000000002</v>
-      </c>
-      <c r="H56" s="18">
-        <f>1272.233+192.55+375.622+86.422</f>
-        <v>1926.827</v>
-      </c>
-      <c r="I56" s="18">
-        <f>941.298+200.08+548.451+46.804</f>
-        <v>1736.633</v>
-      </c>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18">
-        <f>H56</f>
-        <v>1926.827</v>
-      </c>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18">
-        <f t="shared" si="54"/>
-        <v>1736.633</v>
-      </c>
-      <c r="S56" s="18">
-        <f>995.529+860.067</f>
-        <v>1855.596</v>
-      </c>
-      <c r="U56" s="25">
-        <f t="shared" si="53"/>
-        <v>0.10514754450632835</v>
-      </c>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E57" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F57" s="17">
-        <f>SUM(F54:F56)</f>
-        <v>2900.5619999999999</v>
-      </c>
-      <c r="G57" s="17">
-        <f>SUM(G54:G56)</f>
-        <v>3276.6580000000004</v>
-      </c>
-      <c r="H57" s="17">
-        <f>SUM(H54:H56)</f>
-        <v>3397.107</v>
-      </c>
-      <c r="I57" s="17">
-        <f>SUM(I54:I56)</f>
-        <v>4429.2979999999998</v>
-      </c>
-      <c r="K57" s="17">
-        <f t="shared" ref="K57:N57" si="55">SUM(K54:K56)</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="17">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="17">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="17">
-        <f t="shared" si="55"/>
-        <v>3397.107</v>
-      </c>
-      <c r="O57" s="17">
-        <f>SUM(O54:O56)</f>
-        <v>0</v>
-      </c>
-      <c r="P57" s="17">
-        <f>SUM(P54:P56)</f>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="17">
-        <f t="shared" ref="Q57:S57" si="56">SUM(Q54:Q56)</f>
-        <v>0</v>
-      </c>
-      <c r="R57" s="17">
-        <f t="shared" si="56"/>
-        <v>4429.2979999999998</v>
-      </c>
-      <c r="S57" s="17">
-        <f t="shared" si="56"/>
-        <v>4277.2180000000008</v>
-      </c>
-      <c r="U57" s="35">
-        <f t="shared" si="53"/>
-        <v>0.15155384322346599</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E58" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" s="16">
-        <v>7123.4780000000001</v>
-      </c>
-      <c r="G58" s="16">
-        <v>4425.0209999999997</v>
-      </c>
-      <c r="H58" s="16">
-        <v>5139.3509999999997</v>
-      </c>
-      <c r="I58" s="16">
-        <v>8543.9030000000002</v>
-      </c>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16">
-        <f t="shared" ref="N58:N62" si="57">H58</f>
-        <v>5139.3509999999997</v>
-      </c>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16">
-        <f t="shared" ref="R58:R62" si="58">I58</f>
-        <v>8543.9030000000002</v>
-      </c>
-      <c r="S58" s="16">
-        <v>8051.1689999999999</v>
-      </c>
-      <c r="U58" s="25">
-        <f t="shared" si="53"/>
-        <v>6.2481574428890241E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E59" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59" s="16">
-        <v>100.096</v>
-      </c>
-      <c r="G59" s="16">
-        <v>861.149</v>
-      </c>
-      <c r="H59" s="16">
-        <v>576.02800000000002</v>
-      </c>
-      <c r="I59" s="16">
-        <v>1241.808</v>
-      </c>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16">
-        <f t="shared" si="57"/>
-        <v>576.02800000000002</v>
-      </c>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16">
-        <f t="shared" si="58"/>
-        <v>1241.808</v>
-      </c>
-      <c r="S59" s="16">
-        <v>2225.0540000000001</v>
-      </c>
-      <c r="U59" s="25">
-        <f t="shared" si="53"/>
-        <v>1.3149728938807121</v>
-      </c>
-    </row>
+      <c r="S58" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="U58" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E60" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G60" s="45" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="F60" s="16">
+        <v>988.19299999999998</v>
+      </c>
+      <c r="G60" s="16">
+        <v>424.39299999999997</v>
       </c>
       <c r="H60" s="16">
-        <v>74.102999999999994</v>
+        <v>330.61</v>
       </c>
       <c r="I60" s="16">
-        <v>82.781000000000006</v>
+        <v>1552.9949999999999</v>
       </c>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16">
-        <f t="shared" si="57"/>
-        <v>74.102999999999994</v>
+        <f>H60</f>
+        <v>330.61</v>
       </c>
       <c r="O60" s="16"/>
       <c r="P60" s="16"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="16">
-        <f t="shared" si="58"/>
-        <v>82.781000000000006</v>
+        <f>I60</f>
+        <v>1552.9949999999999</v>
       </c>
       <c r="S60" s="16">
-        <v>67.484999999999999</v>
-      </c>
-      <c r="U60" s="25" t="str">
-        <f t="shared" si="53"/>
-        <v>n/a</v>
+        <v>1268.001</v>
+      </c>
+      <c r="U60" s="23">
+        <f t="shared" ref="U60:U72" si="47">IFERROR((I60/F60)^(1/3)-1,"n/a")</f>
+        <v>0.16263330970848489</v>
       </c>
     </row>
     <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E61" s="13" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="F61" s="16">
-        <v>304.70600000000002</v>
+        <f>625.758</f>
+        <v>625.75800000000004</v>
       </c>
       <c r="G61" s="16">
-        <v>404.37599999999998</v>
+        <f>1073.906</f>
+        <v>1073.9059999999999</v>
       </c>
       <c r="H61" s="16">
-        <f>193.425+168.29</f>
-        <v>361.71500000000003</v>
+        <f>1139.67</f>
+        <v>1139.67</v>
       </c>
       <c r="I61" s="16">
-        <f>475.37+265.251</f>
-        <v>740.62099999999998</v>
+        <f>1139.67</f>
+        <v>1139.67</v>
       </c>
       <c r="K61" s="16"/>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
       <c r="N61" s="16">
-        <f t="shared" si="57"/>
-        <v>361.71500000000003</v>
+        <f>H61</f>
+        <v>1139.67</v>
       </c>
       <c r="O61" s="16"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="16">
-        <f t="shared" si="58"/>
-        <v>740.62099999999998</v>
+        <f t="shared" ref="R61:R62" si="48">I61</f>
+        <v>1139.67</v>
       </c>
       <c r="S61" s="16">
-        <f>245.112+454.473</f>
-        <v>699.58500000000004</v>
-      </c>
-      <c r="U61" s="25">
-        <f t="shared" si="53"/>
-        <v>0.34453363801232051</v>
+        <v>1153.6210000000001</v>
+      </c>
+      <c r="U61" s="23">
+        <f t="shared" si="47"/>
+        <v>0.2212115466122897</v>
       </c>
     </row>
     <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E62" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F62" s="18">
-        <f>18373.863-SUM(F58:F61)</f>
-        <v>10845.583000000001</v>
+        <f>98.385+59.23+952.307+176.689</f>
+        <v>1286.6110000000001</v>
       </c>
       <c r="G62" s="18">
-        <f>86448.215-SUM(G58:G61)</f>
-        <v>80757.668999999994</v>
+        <f>69.357+171.853+1401.72+135.429</f>
+        <v>1778.3590000000002</v>
       </c>
       <c r="H62" s="18">
-        <f>11356.794-SUM(H58:H61)</f>
-        <v>5205.5969999999998</v>
+        <f>1272.233+192.55+375.622+86.422</f>
+        <v>1926.827</v>
       </c>
       <c r="I62" s="18">
-        <f>18112.653-SUM(I58:I61)</f>
-        <v>7503.5399999999991</v>
+        <f>941.298+200.08+548.451+46.804</f>
+        <v>1736.633</v>
       </c>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
       <c r="N62" s="18">
-        <f t="shared" si="57"/>
-        <v>5205.5969999999998</v>
+        <f>H62</f>
+        <v>1926.827</v>
       </c>
       <c r="O62" s="18"/>
       <c r="P62" s="18"/>
       <c r="Q62" s="18"/>
       <c r="R62" s="18">
-        <f t="shared" si="58"/>
-        <v>7503.5399999999991</v>
+        <f t="shared" si="48"/>
+        <v>1736.633</v>
       </c>
       <c r="S62" s="18">
-        <f>17453.788-SUM(S58:S61)</f>
-        <v>6410.494999999999</v>
-      </c>
-      <c r="U62" s="25">
-        <f t="shared" si="53"/>
-        <v>-0.11555445256443708</v>
+        <f>995.529+860.067</f>
+        <v>1855.596</v>
+      </c>
+      <c r="U62" s="23">
+        <f t="shared" si="47"/>
+        <v>0.10514754450632835</v>
       </c>
     </row>
     <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E63" s="5" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="F63" s="17">
-        <f>SUM(F58:F62)</f>
-        <v>18373.863000000001</v>
+        <f>SUM(F60:F62)</f>
+        <v>2900.5619999999999</v>
       </c>
       <c r="G63" s="17">
-        <f>SUM(G58:G62)</f>
-        <v>86448.214999999997</v>
+        <f>SUM(G60:G62)</f>
+        <v>3276.6580000000004</v>
       </c>
       <c r="H63" s="17">
-        <f>SUM(H58:H62)</f>
-        <v>11356.794</v>
+        <f>SUM(H60:H62)</f>
+        <v>3397.107</v>
       </c>
       <c r="I63" s="17">
-        <f>SUM(I58:I62)</f>
-        <v>18112.652999999998</v>
+        <f>SUM(I60:I62)</f>
+        <v>4429.2979999999998</v>
       </c>
       <c r="K63" s="17">
-        <f t="shared" ref="K63:N63" si="59">SUM(K58:K62)</f>
+        <f t="shared" ref="K63:N63" si="49">SUM(K60:K62)</f>
         <v>0</v>
       </c>
       <c r="L63" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M63" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N63" s="17">
-        <f t="shared" si="59"/>
-        <v>11356.794</v>
+        <f t="shared" si="49"/>
+        <v>3397.107</v>
       </c>
       <c r="O63" s="17">
-        <f>SUM(O58:O62)</f>
+        <f>SUM(O60:O62)</f>
         <v>0</v>
       </c>
       <c r="P63" s="17">
-        <f>SUM(P58:P62)</f>
+        <f>SUM(P60:P62)</f>
         <v>0</v>
       </c>
       <c r="Q63" s="17">
-        <f t="shared" ref="Q63:S63" si="60">SUM(Q58:Q62)</f>
+        <f t="shared" ref="Q63:S63" si="50">SUM(Q60:Q62)</f>
         <v>0</v>
       </c>
       <c r="R63" s="17">
-        <f t="shared" si="60"/>
-        <v>18112.652999999998</v>
+        <f t="shared" si="50"/>
+        <v>4429.2979999999998</v>
       </c>
       <c r="S63" s="17">
-        <f t="shared" si="60"/>
-        <v>17453.788</v>
-      </c>
-      <c r="U63" s="35">
-        <f t="shared" si="53"/>
-        <v>-4.7614318775033304E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="3:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F64" s="20">
-        <f>+F63+F57</f>
-        <v>21274.425000000003</v>
-      </c>
-      <c r="G64" s="20">
-        <f>+G63+G57</f>
-        <v>89724.872999999992</v>
-      </c>
-      <c r="H64" s="20">
-        <f>+H63+H57</f>
-        <v>14753.901</v>
-      </c>
-      <c r="I64" s="20">
-        <f>+I63+I57</f>
-        <v>22541.950999999997</v>
-      </c>
-      <c r="K64" s="20">
-        <f t="shared" ref="K64:N64" si="61">+K63+K57</f>
-        <v>0</v>
-      </c>
-      <c r="L64" s="20">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="20">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="20">
-        <f t="shared" si="61"/>
-        <v>14753.901</v>
-      </c>
-      <c r="O64" s="20">
-        <f>+O63+O57</f>
-        <v>0</v>
-      </c>
-      <c r="P64" s="20">
-        <f>+P63+P57</f>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="20">
-        <f t="shared" ref="Q64:S64" si="62">+Q63+Q57</f>
-        <v>0</v>
-      </c>
-      <c r="R64" s="20">
-        <f t="shared" si="62"/>
-        <v>22541.950999999997</v>
-      </c>
-      <c r="S64" s="20">
-        <f t="shared" si="62"/>
-        <v>21731.006000000001</v>
-      </c>
-      <c r="U64" s="35">
-        <f t="shared" si="53"/>
-        <v>1.9478074846015492E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
+        <f t="shared" si="50"/>
+        <v>4277.2180000000008</v>
+      </c>
+      <c r="U63" s="30">
+        <f t="shared" si="47"/>
+        <v>0.15155384322346599</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E64" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="16">
+        <v>7123.4780000000001</v>
+      </c>
+      <c r="G64" s="16">
+        <v>4425.0209999999997</v>
+      </c>
+      <c r="H64" s="16">
+        <v>5139.3509999999997</v>
+      </c>
+      <c r="I64" s="16">
+        <v>8543.9030000000002</v>
+      </c>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16">
+        <f t="shared" ref="N64:N68" si="51">H64</f>
+        <v>5139.3509999999997</v>
+      </c>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16">
+        <f t="shared" ref="R64:R68" si="52">I64</f>
+        <v>8543.9030000000002</v>
+      </c>
+      <c r="S64" s="16">
+        <v>8051.1689999999999</v>
+      </c>
+      <c r="U64" s="23">
+        <f t="shared" si="47"/>
+        <v>6.2481574428890241E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E65" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="16">
+        <v>100.096</v>
+      </c>
+      <c r="G65" s="16">
+        <v>861.149</v>
+      </c>
+      <c r="H65" s="16">
+        <v>576.02800000000002</v>
+      </c>
+      <c r="I65" s="16">
+        <v>1241.808</v>
+      </c>
       <c r="K65" s="16"/>
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
+      <c r="N65" s="16">
+        <f t="shared" si="51"/>
+        <v>576.02800000000002</v>
+      </c>
       <c r="O65" s="16"/>
       <c r="P65" s="16"/>
       <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="U65" s="25" t="str">
+      <c r="R65" s="16">
+        <f t="shared" si="52"/>
+        <v>1241.808</v>
+      </c>
+      <c r="S65" s="16">
+        <v>2225.0540000000001</v>
+      </c>
+      <c r="U65" s="23">
+        <f t="shared" si="47"/>
+        <v>1.3149728938807121</v>
+      </c>
+    </row>
+    <row r="66" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E66" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G66" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" s="16">
+        <v>74.102999999999994</v>
+      </c>
+      <c r="I66" s="16">
+        <v>82.781000000000006</v>
+      </c>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16">
+        <f t="shared" si="51"/>
+        <v>74.102999999999994</v>
+      </c>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16">
+        <f t="shared" si="52"/>
+        <v>82.781000000000006</v>
+      </c>
+      <c r="S66" s="16">
+        <v>67.484999999999999</v>
+      </c>
+      <c r="U66" s="23" t="str">
+        <f t="shared" si="47"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="67" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E67" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="16">
+        <v>304.70600000000002</v>
+      </c>
+      <c r="G67" s="16">
+        <v>404.37599999999998</v>
+      </c>
+      <c r="H67" s="16">
+        <f>193.425+168.29</f>
+        <v>361.71500000000003</v>
+      </c>
+      <c r="I67" s="16">
+        <f>475.37+265.251</f>
+        <v>740.62099999999998</v>
+      </c>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16">
+        <f t="shared" si="51"/>
+        <v>361.71500000000003</v>
+      </c>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16">
+        <f t="shared" si="52"/>
+        <v>740.62099999999998</v>
+      </c>
+      <c r="S67" s="16">
+        <f>245.112+454.473</f>
+        <v>699.58500000000004</v>
+      </c>
+      <c r="U67" s="23">
+        <f t="shared" si="47"/>
+        <v>0.34453363801232051</v>
+      </c>
+    </row>
+    <row r="68" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E68" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="18">
+        <f>18373.863-SUM(F64:F67)</f>
+        <v>10845.583000000001</v>
+      </c>
+      <c r="G68" s="18">
+        <f>86448.215-SUM(G64:G67)</f>
+        <v>80757.668999999994</v>
+      </c>
+      <c r="H68" s="18">
+        <f>11356.794-SUM(H64:H67)</f>
+        <v>5205.5969999999998</v>
+      </c>
+      <c r="I68" s="18">
+        <f>18112.653-SUM(I64:I67)</f>
+        <v>7503.5399999999991</v>
+      </c>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18">
+        <f t="shared" si="51"/>
+        <v>5205.5969999999998</v>
+      </c>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18">
+        <f t="shared" si="52"/>
+        <v>7503.5399999999991</v>
+      </c>
+      <c r="S68" s="18">
+        <f>17453.788-SUM(S64:S67)</f>
+        <v>6410.494999999999</v>
+      </c>
+      <c r="U68" s="23">
+        <f t="shared" si="47"/>
+        <v>-0.11555445256443708</v>
+      </c>
+    </row>
+    <row r="69" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E69" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" s="17">
+        <f>SUM(F64:F68)</f>
+        <v>18373.863000000001</v>
+      </c>
+      <c r="G69" s="17">
+        <f>SUM(G64:G68)</f>
+        <v>86448.214999999997</v>
+      </c>
+      <c r="H69" s="17">
+        <f>SUM(H64:H68)</f>
+        <v>11356.794</v>
+      </c>
+      <c r="I69" s="17">
+        <f>SUM(I64:I68)</f>
+        <v>18112.652999999998</v>
+      </c>
+      <c r="K69" s="17">
+        <f t="shared" ref="K69:N69" si="53">SUM(K64:K68)</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="17">
         <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="17">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="17">
+        <f t="shared" si="53"/>
+        <v>11356.794</v>
+      </c>
+      <c r="O69" s="17">
+        <f>SUM(O64:O68)</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="17">
+        <f>SUM(P64:P68)</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="17">
+        <f t="shared" ref="Q69:S69" si="54">SUM(Q64:Q68)</f>
+        <v>0</v>
+      </c>
+      <c r="R69" s="17">
+        <f t="shared" si="54"/>
+        <v>18112.652999999998</v>
+      </c>
+      <c r="S69" s="17">
+        <f t="shared" si="54"/>
+        <v>17453.788</v>
+      </c>
+      <c r="U69" s="30">
+        <f t="shared" si="47"/>
+        <v>-4.7614318775033304E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" s="20">
+        <f>+F69+F63</f>
+        <v>21274.425000000003</v>
+      </c>
+      <c r="G70" s="20">
+        <f>+G69+G63</f>
+        <v>89724.872999999992</v>
+      </c>
+      <c r="H70" s="20">
+        <f>+H69+H63</f>
+        <v>14753.901</v>
+      </c>
+      <c r="I70" s="20">
+        <f>+I69+I63</f>
+        <v>22541.950999999997</v>
+      </c>
+      <c r="K70" s="20">
+        <f t="shared" ref="K70:N70" si="55">+K69+K63</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="20">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="20">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="20">
+        <f t="shared" si="55"/>
+        <v>14753.901</v>
+      </c>
+      <c r="O70" s="20">
+        <f>+O69+O63</f>
+        <v>0</v>
+      </c>
+      <c r="P70" s="20">
+        <f>+P69+P63</f>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="20">
+        <f t="shared" ref="Q70:S70" si="56">+Q69+Q63</f>
+        <v>0</v>
+      </c>
+      <c r="R70" s="20">
+        <f t="shared" si="56"/>
+        <v>22541.950999999997</v>
+      </c>
+      <c r="S70" s="20">
+        <f t="shared" si="56"/>
+        <v>21731.006000000001</v>
+      </c>
+      <c r="U70" s="30">
+        <f t="shared" si="47"/>
+        <v>1.9478074846015492E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="3:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="U71" s="23" t="str">
+        <f t="shared" si="47"/>
         <v>n/a</v>
       </c>
     </row>
-    <row r="66" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E66" s="5" t="s">
+    <row r="72" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E72" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F72" s="17">
         <v>6381.6890000000003</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G72" s="17">
         <v>5454.5569999999998</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H72" s="17">
         <v>6281.6490000000003</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I72" s="17">
         <v>10276.842000000001</v>
       </c>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17">
-        <f>I66</f>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17">
+        <f>I72</f>
         <v>10276.842000000001</v>
       </c>
-      <c r="S66" s="17">
+      <c r="S72" s="17">
         <v>10468.24</v>
       </c>
-      <c r="U66" s="35">
-        <f t="shared" si="53"/>
+      <c r="U72" s="30">
+        <f t="shared" si="47"/>
         <v>0.17212703022075493</v>
       </c>
     </row>
-    <row r="67" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E67" t="s">
+    <row r="73" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="16">
+        <v>3938</v>
+      </c>
+      <c r="G73" s="16">
+        <v>3641.3</v>
+      </c>
+      <c r="H73" s="16">
+        <v>3046.8</v>
+      </c>
+      <c r="I73" s="16">
+        <v>4629.6000000000004</v>
+      </c>
+      <c r="K73" s="16">
+        <v>3499.7</v>
+      </c>
+      <c r="L73" s="16">
+        <v>3499.7</v>
+      </c>
+      <c r="M73" s="16">
+        <v>3203.6</v>
+      </c>
+      <c r="N73" s="16">
+        <f>H73</f>
+        <v>3046.8</v>
+      </c>
+      <c r="O73" s="16">
+        <v>4506.6000000000004</v>
+      </c>
+      <c r="P73" s="16">
+        <v>4465.5</v>
+      </c>
+      <c r="Q73" s="16">
+        <v>4496.3</v>
+      </c>
+      <c r="R73" s="16">
+        <f>I73</f>
+        <v>4629.6000000000004</v>
+      </c>
+      <c r="S73" s="16">
+        <v>4509.7</v>
+      </c>
+      <c r="U73" s="30"/>
+    </row>
+    <row r="74" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="16">
+        <f>SUM(F64:F65)</f>
+        <v>7223.5740000000005</v>
+      </c>
+      <c r="G74" s="16">
+        <f t="shared" ref="G74:S74" si="57">SUM(G64:G65)</f>
+        <v>5286.17</v>
+      </c>
+      <c r="H74" s="16">
+        <f t="shared" si="57"/>
+        <v>5715.3789999999999</v>
+      </c>
+      <c r="I74" s="16">
+        <f t="shared" si="57"/>
+        <v>9785.7109999999993</v>
+      </c>
+      <c r="K74" s="16">
+        <f t="shared" ref="K74" si="58">SUM(K64:K65)</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="16">
+        <f t="shared" si="57"/>
+        <v>5715.3789999999999</v>
+      </c>
+      <c r="O74" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="16">
+        <f t="shared" si="57"/>
+        <v>9785.7109999999993</v>
+      </c>
+      <c r="S74" s="16">
+        <f t="shared" si="57"/>
+        <v>10276.223</v>
+      </c>
+      <c r="U74" s="30"/>
+    </row>
+    <row r="75" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E75" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F67" s="16">
-        <v>3938</v>
-      </c>
-      <c r="G67" s="16">
-        <v>3641.3</v>
-      </c>
-      <c r="H67" s="16">
-        <v>3046.8</v>
-      </c>
-      <c r="I67" s="16">
-        <v>4629.6000000000004</v>
-      </c>
-      <c r="K67" s="16">
+      <c r="F75" s="17">
+        <f>+F73-F74</f>
+        <v>-3285.5740000000005</v>
+      </c>
+      <c r="G75" s="17">
+        <f t="shared" ref="G75:I75" si="59">+G73-G74</f>
+        <v>-1644.87</v>
+      </c>
+      <c r="H75" s="17">
+        <f t="shared" si="59"/>
+        <v>-2668.5789999999997</v>
+      </c>
+      <c r="I75" s="17">
+        <f t="shared" si="59"/>
+        <v>-5156.110999999999</v>
+      </c>
+      <c r="K75" s="17">
+        <f t="shared" ref="K75:L75" si="60">+K73-K74</f>
         <v>3499.7</v>
       </c>
-      <c r="L67" s="16">
+      <c r="L75" s="17">
+        <f t="shared" si="60"/>
         <v>3499.7</v>
       </c>
-      <c r="M67" s="16">
+      <c r="M75" s="17">
+        <f t="shared" ref="M75" si="61">+M73-M74</f>
         <v>3203.6</v>
       </c>
-      <c r="N67" s="16">
-        <f>H67</f>
-        <v>3046.8</v>
-      </c>
-      <c r="O67" s="16">
+      <c r="N75" s="17">
+        <f t="shared" ref="N75" si="62">+N73-N74</f>
+        <v>-2668.5789999999997</v>
+      </c>
+      <c r="O75" s="17">
+        <f t="shared" ref="O75" si="63">+O73-O74</f>
         <v>4506.6000000000004</v>
       </c>
-      <c r="P67" s="16">
+      <c r="P75" s="17">
+        <f t="shared" ref="P75" si="64">+P73-P74</f>
         <v>4465.5</v>
       </c>
-      <c r="Q67" s="16">
+      <c r="Q75" s="17">
+        <f t="shared" ref="Q75" si="65">+Q73-Q74</f>
         <v>4496.3</v>
       </c>
-      <c r="R67" s="16">
-        <f>I67</f>
-        <v>4629.6000000000004</v>
-      </c>
-      <c r="S67" s="16">
-        <v>4509.7</v>
-      </c>
-      <c r="U67" s="35"/>
-    </row>
-    <row r="68" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E68" t="s">
-        <v>108</v>
-      </c>
-      <c r="F68" s="16">
-        <f>SUM(F58:F59)</f>
-        <v>7223.5740000000005</v>
-      </c>
-      <c r="G68" s="16">
-        <f t="shared" ref="G68:S68" si="63">SUM(G58:G59)</f>
-        <v>5286.17</v>
-      </c>
-      <c r="H68" s="16">
-        <f t="shared" si="63"/>
-        <v>5715.3789999999999</v>
-      </c>
-      <c r="I68" s="16">
-        <f t="shared" si="63"/>
-        <v>9785.7109999999993</v>
-      </c>
-      <c r="K68" s="16">
-        <f t="shared" ref="K68" si="64">SUM(K58:K59)</f>
+      <c r="R75" s="17">
+        <f t="shared" ref="R75" si="66">+R73-R74</f>
+        <v>-5156.110999999999</v>
+      </c>
+      <c r="S75" s="17">
+        <f t="shared" ref="S75" si="67">+S73-S74</f>
+        <v>-5766.5230000000001</v>
+      </c>
+      <c r="U75" s="30"/>
+    </row>
+    <row r="76" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+    </row>
+    <row r="77" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E77" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" s="19">
+        <v>21274.424999999999</v>
+      </c>
+      <c r="G77" s="19">
+        <v>89724.873000000007</v>
+      </c>
+      <c r="H77" s="19">
+        <v>14753.901</v>
+      </c>
+      <c r="I77" s="19">
+        <v>22541.951000000001</v>
+      </c>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19">
+        <f>H77</f>
+        <v>14753.901</v>
+      </c>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19">
+        <f>I77</f>
+        <v>22541.951000000001</v>
+      </c>
+      <c r="S77" s="19">
+        <v>21731.006000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C78" s="15" t="b" cm="1">
+        <f t="array" ref="C78">AND(F78:I78&lt;$B$1,F78:I78&gt;-$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="19">
+        <f t="shared" ref="F78:I78" si="68">+F77-F70</f>
         <v>0</v>
       </c>
-      <c r="L68" s="16">
-        <f t="shared" si="63"/>
+      <c r="G78" s="19">
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="M68" s="16">
-        <f t="shared" si="63"/>
+      <c r="H78" s="19">
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="N68" s="16">
-        <f t="shared" si="63"/>
-        <v>5715.3789999999999</v>
-      </c>
-      <c r="O68" s="16">
-        <f t="shared" si="63"/>
+      <c r="I78" s="19">
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="P68" s="16">
-        <f t="shared" si="63"/>
+      <c r="K78" s="19">
+        <f t="shared" ref="K78" si="69">+K77-K70</f>
         <v>0</v>
       </c>
-      <c r="Q68" s="16">
-        <f t="shared" si="63"/>
+      <c r="L78" s="19">
+        <f t="shared" ref="L78:M78" si="70">+L77-L70</f>
         <v>0</v>
       </c>
-      <c r="R68" s="16">
-        <f t="shared" si="63"/>
-        <v>9785.7109999999993</v>
-      </c>
-      <c r="S68" s="16">
-        <f t="shared" si="63"/>
-        <v>10276.223</v>
-      </c>
-      <c r="U68" s="35"/>
-    </row>
-    <row r="69" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E69" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F69" s="17">
-        <f>+F67-F68</f>
-        <v>-3285.5740000000005</v>
-      </c>
-      <c r="G69" s="17">
-        <f t="shared" ref="G69:I69" si="65">+G67-G68</f>
-        <v>-1644.87</v>
-      </c>
-      <c r="H69" s="17">
-        <f t="shared" si="65"/>
-        <v>-2668.5789999999997</v>
-      </c>
-      <c r="I69" s="17">
-        <f t="shared" si="65"/>
-        <v>-5156.110999999999</v>
-      </c>
-      <c r="K69" s="17">
-        <f t="shared" ref="K69:L69" si="66">+K67-K68</f>
-        <v>3499.7</v>
-      </c>
-      <c r="L69" s="17">
-        <f t="shared" si="66"/>
-        <v>3499.7</v>
-      </c>
-      <c r="M69" s="17">
-        <f t="shared" ref="M69" si="67">+M67-M68</f>
-        <v>3203.6</v>
-      </c>
-      <c r="N69" s="17">
-        <f t="shared" ref="N69" si="68">+N67-N68</f>
-        <v>-2668.5789999999997</v>
-      </c>
-      <c r="O69" s="17">
-        <f t="shared" ref="O69" si="69">+O67-O68</f>
-        <v>4506.6000000000004</v>
-      </c>
-      <c r="P69" s="17">
-        <f t="shared" ref="P69" si="70">+P67-P68</f>
-        <v>4465.5</v>
-      </c>
-      <c r="Q69" s="17">
-        <f t="shared" ref="Q69" si="71">+Q67-Q68</f>
-        <v>4496.3</v>
-      </c>
-      <c r="R69" s="17">
-        <f t="shared" ref="R69" si="72">+R67-R68</f>
-        <v>-5156.110999999999</v>
-      </c>
-      <c r="S69" s="17">
-        <f t="shared" ref="S69" si="73">+S67-S68</f>
-        <v>-5766.5230000000001</v>
-      </c>
-      <c r="U69" s="35"/>
-    </row>
-    <row r="70" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-    </row>
-    <row r="71" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E71" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F71" s="19">
-        <v>21274.424999999999</v>
-      </c>
-      <c r="G71" s="19">
-        <v>89724.873000000007</v>
-      </c>
-      <c r="H71" s="19">
-        <v>14753.901</v>
-      </c>
-      <c r="I71" s="19">
-        <v>22541.951000000001</v>
-      </c>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19">
-        <f>H71</f>
-        <v>14753.901</v>
-      </c>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19">
-        <f>I71</f>
-        <v>22541.951000000001</v>
-      </c>
-      <c r="S71" s="19">
-        <v>21731.006000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C72" s="15" t="b" cm="1">
-        <f t="array" ref="C72">AND(F72:I72&lt;$B$1,F72:I72&gt;-$B$1)</f>
-        <v>1</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F72" s="19">
-        <f t="shared" ref="F72:I72" si="74">+F71-F64</f>
+      <c r="M78" s="19">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="G72" s="19">
-        <f t="shared" si="74"/>
+      <c r="N78" s="19">
+        <f t="shared" ref="N78" si="71">+N77-N70</f>
         <v>0</v>
       </c>
-      <c r="H72" s="19">
-        <f t="shared" si="74"/>
+      <c r="O78" s="19">
+        <f t="shared" ref="O78:P78" si="72">+O77-O70</f>
         <v>0</v>
       </c>
-      <c r="I72" s="19">
-        <f t="shared" si="74"/>
+      <c r="P78" s="19">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="K72" s="19">
-        <f t="shared" ref="K72" si="75">+K71-K64</f>
+      <c r="Q78" s="19">
+        <f t="shared" ref="Q78:S78" si="73">+Q77-Q70</f>
         <v>0</v>
       </c>
-      <c r="L72" s="19">
-        <f t="shared" ref="L72:M72" si="76">+L71-L64</f>
+      <c r="R78" s="19">
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="M72" s="19">
-        <f t="shared" si="76"/>
+      <c r="S78" s="19">
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="N72" s="19">
-        <f t="shared" ref="N72" si="77">+N71-N64</f>
-        <v>0</v>
-      </c>
-      <c r="O72" s="19">
-        <f t="shared" ref="O72:P72" si="78">+O71-O64</f>
-        <v>0</v>
-      </c>
-      <c r="P72" s="19">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="Q72" s="19">
-        <f t="shared" ref="Q72:S72" si="79">+Q71-Q64</f>
-        <v>0</v>
-      </c>
-      <c r="R72" s="19">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="S72" s="19">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-    </row>
-    <row r="74" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E74" s="5" t="str">
+    </row>
+    <row r="79" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+    </row>
+    <row r="80" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E80" s="5" t="str">
         <f>Input!$E$8&amp;" - CF"</f>
         <v>COIN - CF</v>
       </c>
-      <c r="I74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="U74" s="34" t="s">
+      <c r="I80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="U80" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E75" s="10" t="str">
+    <row r="81" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E81" s="10" t="str">
         <f>+Input!$E$14</f>
         <v>$m</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F81" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G81" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H75" s="21" t="s">
+      <c r="H81" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I75" s="21" t="s">
+      <c r="I81" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K75" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="L75" s="47" t="s">
+      <c r="K81" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="L81" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="M75" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="N75" s="47" t="s">
+      <c r="M81" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="N81" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="O75" s="48" t="s">
+      <c r="O81" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="P81" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q81" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="P75" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q75" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="R75" s="48" t="s">
+      <c r="R81" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S75" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="U75" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E77" s="13" t="s">
+      <c r="S81" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="U81" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="5:23" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E83" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F83" s="16">
         <v>4038.172</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G83" s="16">
         <v>-1585.4190000000001</v>
       </c>
-      <c r="H77" s="16">
+      <c r="H83" s="16">
         <v>922.95100000000002</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I83" s="16">
         <v>2556.8440000000001</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K83" s="16">
         <v>463.07799999999997</v>
       </c>
-      <c r="L77" s="16">
+      <c r="L83" s="16">
         <v>614.202</v>
       </c>
-      <c r="M77" s="16">
-        <f>928.137-SUM(K77:L77)</f>
+      <c r="M83" s="16">
+        <f>928.137-SUM(K83:L83)</f>
         <v>-149.14300000000003</v>
       </c>
-      <c r="N77" s="16">
-        <f>I77-SUM(K77:M77)</f>
+      <c r="N83" s="16">
+        <f>I83-SUM(K83:M83)</f>
         <v>1628.7070000000001</v>
       </c>
-      <c r="O77" s="16">
+      <c r="O83" s="16">
         <v>411.48500000000001</v>
       </c>
-      <c r="P77" s="16">
-        <f>895.682-O77</f>
+      <c r="P83" s="16">
+        <f>895.682-O83</f>
         <v>484.197</v>
       </c>
-      <c r="Q77" s="16">
-        <f>1592.226-SUM(O77:P77)</f>
+      <c r="Q83" s="16">
+        <f>1592.226-SUM(O83:P83)</f>
         <v>696.5440000000001</v>
       </c>
-      <c r="R77" s="16">
-        <f>I77-SUM(O77:Q77)</f>
+      <c r="R83" s="16">
+        <f>I83-SUM(O83:Q83)</f>
         <v>964.61799999999994</v>
       </c>
-      <c r="S77" s="16">
+      <c r="S83" s="16">
         <v>-182.727</v>
       </c>
-      <c r="U77" s="25">
-        <f>IFERROR((I77/F77)^(1/3)-1,"n/a")</f>
+      <c r="U83" s="23">
+        <f>IFERROR((I83/F83)^(1/3)-1,"n/a")</f>
         <v>-0.14130327592383696</v>
       </c>
     </row>
-    <row r="78" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E78" s="13" t="s">
+    <row r="84" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E84" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F84" s="18">
         <v>-1124.74</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G84" s="18">
         <v>-663.822</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H84" s="18">
         <v>5.3920000000000003</v>
       </c>
-      <c r="I78" s="18">
+      <c r="I84" s="18">
         <v>-282.38499999999999</v>
       </c>
-      <c r="K78" s="18">
+      <c r="K84" s="18">
         <v>-26.08</v>
       </c>
-      <c r="L78" s="18">
+      <c r="L84" s="18">
         <v>-12.754</v>
       </c>
-      <c r="M78" s="18">
-        <f>-85.117-SUM(K78:L78)</f>
+      <c r="M84" s="18">
+        <f>-85.117-SUM(K84:L84)</f>
         <v>-46.283000000000008</v>
       </c>
-      <c r="N78" s="18">
-        <f>I78-SUM(K78:M78)</f>
+      <c r="N84" s="18">
+        <f>I84-SUM(K84:M84)</f>
         <v>-197.26799999999997</v>
       </c>
-      <c r="O78" s="18">
+      <c r="O84" s="18">
         <v>-125.681</v>
       </c>
-      <c r="P78" s="18">
-        <f>-144.292-O78</f>
+      <c r="P84" s="18">
+        <f>-144.292-O84</f>
         <v>-18.611000000000004</v>
       </c>
-      <c r="Q78" s="18">
-        <f>-232.969-SUM(O78:P78)</f>
+      <c r="Q84" s="18">
+        <f>-232.969-SUM(O84:P84)</f>
         <v>-88.676999999999992</v>
       </c>
-      <c r="R78" s="18">
-        <f>I78-SUM(O78:Q78)</f>
+      <c r="R84" s="18">
+        <f>I84-SUM(O84:Q84)</f>
         <v>-49.415999999999997</v>
       </c>
-      <c r="S78" s="18">
+      <c r="S84" s="18">
         <v>-231.65299999999999</v>
       </c>
-      <c r="U78" s="25">
-        <f>IFERROR((I78/F78)^(1/3)-1,"n/a")</f>
+      <c r="U84" s="23">
+        <f>IFERROR((I84/F84)^(1/3)-1,"n/a")</f>
         <v>-0.36914459589093829</v>
       </c>
     </row>
-    <row r="79" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E79" s="5" t="s">
+    <row r="85" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E85" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="17">
-        <f t="shared" ref="F79:H79" si="80">+F77+F78</f>
+      <c r="F85" s="17">
+        <f t="shared" ref="F85:H85" si="74">+F83+F84</f>
         <v>2913.4319999999998</v>
       </c>
-      <c r="G79" s="17">
-        <f t="shared" si="80"/>
+      <c r="G85" s="17">
+        <f t="shared" si="74"/>
         <v>-2249.241</v>
       </c>
-      <c r="H79" s="17">
-        <f t="shared" si="80"/>
+      <c r="H85" s="17">
+        <f t="shared" si="74"/>
         <v>928.34300000000007</v>
       </c>
-      <c r="I79" s="17">
-        <f>+I77+I78</f>
+      <c r="I85" s="17">
+        <f>+I83+I84</f>
         <v>2274.4589999999998</v>
       </c>
-      <c r="K79" s="17">
-        <f t="shared" ref="K79:N79" si="81">+K77+K78</f>
+      <c r="K85" s="17">
+        <f t="shared" ref="K85:N85" si="75">+K83+K84</f>
         <v>436.99799999999999</v>
       </c>
-      <c r="L79" s="17">
-        <f t="shared" si="81"/>
+      <c r="L85" s="17">
+        <f t="shared" si="75"/>
         <v>601.44799999999998</v>
       </c>
-      <c r="M79" s="17">
-        <f t="shared" si="81"/>
+      <c r="M85" s="17">
+        <f t="shared" si="75"/>
         <v>-195.42600000000004</v>
       </c>
-      <c r="N79" s="17">
-        <f t="shared" si="81"/>
+      <c r="N85" s="17">
+        <f t="shared" si="75"/>
         <v>1431.4390000000001</v>
       </c>
-      <c r="O79" s="17">
-        <f>+O77+O78</f>
+      <c r="O85" s="17">
+        <f>+O83+O84</f>
         <v>285.80400000000003</v>
       </c>
-      <c r="P79" s="17">
-        <f>+P77+P78</f>
+      <c r="P85" s="17">
+        <f>+P83+P84</f>
         <v>465.58600000000001</v>
       </c>
-      <c r="Q79" s="17">
-        <f t="shared" ref="Q79:S79" si="82">+Q77+Q78</f>
+      <c r="Q85" s="17">
+        <f t="shared" ref="Q85:S85" si="76">+Q83+Q84</f>
         <v>607.86700000000008</v>
       </c>
-      <c r="R79" s="17">
-        <f t="shared" si="82"/>
+      <c r="R85" s="17">
+        <f t="shared" si="76"/>
         <v>915.202</v>
       </c>
-      <c r="S79" s="17">
-        <f t="shared" si="82"/>
+      <c r="S85" s="17">
+        <f t="shared" si="76"/>
         <v>-414.38</v>
       </c>
-      <c r="U79" s="35">
-        <f>IFERROR((I79/F79)^(1/3)-1,"n/a")</f>
+      <c r="U85" s="30">
+        <f>IFERROR((I85/F85)^(1/3)-1,"n/a")</f>
         <v>-7.9216046658247219E-2</v>
       </c>
     </row>
-    <row r="80" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="E80" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F80" s="16">
+    <row r="86" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E86" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" s="16">
         <v>9976.0840000000007</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G86" s="16">
         <v>-5838.518</v>
       </c>
-      <c r="H80" s="16">
+      <c r="H86" s="16">
         <v>-811.33199999999999</v>
       </c>
-      <c r="I80" s="16">
+      <c r="I86" s="16">
         <v>2828.9209999999998</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K86" s="16">
         <v>460.12900000000002</v>
       </c>
-      <c r="L80" s="16">
+      <c r="L86" s="16">
         <v>-1142.2629999999999</v>
       </c>
-      <c r="M80" s="16">
-        <f>-1734.128-SUM(K80:L80)</f>
+      <c r="M86" s="16">
+        <f>-1734.128-SUM(K86:L86)</f>
         <v>-1051.9940000000001</v>
       </c>
-      <c r="N80" s="16">
-        <f>I80-SUM(K80:M80)</f>
+      <c r="N86" s="16">
+        <f>I86-SUM(K86:M86)</f>
         <v>4563.049</v>
       </c>
-      <c r="O80" s="16">
+      <c r="O86" s="16">
         <v>1927.721</v>
       </c>
-      <c r="P80" s="16">
-        <f>993.988-O80</f>
+      <c r="P86" s="16">
+        <f>993.988-O86</f>
         <v>-933.73299999999995</v>
       </c>
-      <c r="Q80" s="16">
-        <f>682.663-SUM(O80:P80)</f>
+      <c r="Q86" s="16">
+        <f>682.663-SUM(O86:P86)</f>
         <v>-311.32500000000005</v>
       </c>
-      <c r="R80" s="16">
-        <f>I80-SUM(O80:Q80)</f>
+      <c r="R86" s="16">
+        <f>I86-SUM(O86:Q86)</f>
         <v>2146.2579999999998</v>
       </c>
-      <c r="S80" s="16">
+      <c r="S86" s="16">
         <v>-893.80200000000002</v>
       </c>
-      <c r="U80" s="25">
-        <f>IFERROR((I80/F80)^(1/3)-1,"n/a")</f>
+      <c r="U86" s="23">
+        <f>IFERROR((I86/F86)^(1/3)-1,"n/a")</f>
         <v>-0.34301784391940782</v>
       </c>
-      <c r="W80" s="30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
-    </row>
-    <row r="84" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
-      <c r="S84" s="16"/>
-    </row>
-    <row r="85" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="16"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="16"/>
-      <c r="S85" s="16"/>
-    </row>
-    <row r="86" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="16"/>
-    </row>
-    <row r="87" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="K87" s="16"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
-      <c r="S87" s="16"/>
-    </row>
-    <row r="88" spans="6:19" x14ac:dyDescent="0.2">
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="16"/>
-    </row>
-    <row r="89" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="W86" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="5:23" x14ac:dyDescent="0.2">
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
@@ -14407,7 +14347,7 @@
       <c r="R89" s="16"/>
       <c r="S89" s="16"/>
     </row>
-    <row r="90" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:23" x14ac:dyDescent="0.2">
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
       <c r="H90" s="16"/>
@@ -14422,7 +14362,7 @@
       <c r="R90" s="16"/>
       <c r="S90" s="16"/>
     </row>
-    <row r="91" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:23" x14ac:dyDescent="0.2">
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
@@ -14437,7 +14377,7 @@
       <c r="R91" s="16"/>
       <c r="S91" s="16"/>
     </row>
-    <row r="92" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:23" x14ac:dyDescent="0.2">
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
@@ -14452,7 +14392,7 @@
       <c r="R92" s="16"/>
       <c r="S92" s="16"/>
     </row>
-    <row r="93" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:23" x14ac:dyDescent="0.2">
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
@@ -14467,7 +14407,7 @@
       <c r="R93" s="16"/>
       <c r="S93" s="16"/>
     </row>
-    <row r="94" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:23" x14ac:dyDescent="0.2">
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
@@ -14482,7 +14422,7 @@
       <c r="R94" s="16"/>
       <c r="S94" s="16"/>
     </row>
-    <row r="95" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:23" x14ac:dyDescent="0.2">
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
@@ -14497,7 +14437,7 @@
       <c r="R95" s="16"/>
       <c r="S95" s="16"/>
     </row>
-    <row r="96" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:23" x14ac:dyDescent="0.2">
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
@@ -24682,18 +24622,108 @@
       <c r="R774" s="16"/>
       <c r="S774" s="16"/>
     </row>
+    <row r="775" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F775" s="16"/>
+      <c r="G775" s="16"/>
+      <c r="H775" s="16"/>
+      <c r="I775" s="16"/>
+      <c r="K775" s="16"/>
+      <c r="L775" s="16"/>
+      <c r="M775" s="16"/>
+      <c r="N775" s="16"/>
+      <c r="O775" s="16"/>
+      <c r="P775" s="16"/>
+      <c r="Q775" s="16"/>
+      <c r="R775" s="16"/>
+      <c r="S775" s="16"/>
+    </row>
+    <row r="776" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F776" s="16"/>
+      <c r="G776" s="16"/>
+      <c r="H776" s="16"/>
+      <c r="I776" s="16"/>
+      <c r="K776" s="16"/>
+      <c r="L776" s="16"/>
+      <c r="M776" s="16"/>
+      <c r="N776" s="16"/>
+      <c r="O776" s="16"/>
+      <c r="P776" s="16"/>
+      <c r="Q776" s="16"/>
+      <c r="R776" s="16"/>
+      <c r="S776" s="16"/>
+    </row>
+    <row r="777" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F777" s="16"/>
+      <c r="G777" s="16"/>
+      <c r="H777" s="16"/>
+      <c r="I777" s="16"/>
+      <c r="K777" s="16"/>
+      <c r="L777" s="16"/>
+      <c r="M777" s="16"/>
+      <c r="N777" s="16"/>
+      <c r="O777" s="16"/>
+      <c r="P777" s="16"/>
+      <c r="Q777" s="16"/>
+      <c r="R777" s="16"/>
+      <c r="S777" s="16"/>
+    </row>
+    <row r="778" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F778" s="16"/>
+      <c r="G778" s="16"/>
+      <c r="H778" s="16"/>
+      <c r="I778" s="16"/>
+      <c r="K778" s="16"/>
+      <c r="L778" s="16"/>
+      <c r="M778" s="16"/>
+      <c r="N778" s="16"/>
+      <c r="O778" s="16"/>
+      <c r="P778" s="16"/>
+      <c r="Q778" s="16"/>
+      <c r="R778" s="16"/>
+      <c r="S778" s="16"/>
+    </row>
+    <row r="779" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F779" s="16"/>
+      <c r="G779" s="16"/>
+      <c r="H779" s="16"/>
+      <c r="I779" s="16"/>
+      <c r="K779" s="16"/>
+      <c r="L779" s="16"/>
+      <c r="M779" s="16"/>
+      <c r="N779" s="16"/>
+      <c r="O779" s="16"/>
+      <c r="P779" s="16"/>
+      <c r="Q779" s="16"/>
+      <c r="R779" s="16"/>
+      <c r="S779" s="16"/>
+    </row>
+    <row r="780" spans="6:19" x14ac:dyDescent="0.2">
+      <c r="F780" s="16"/>
+      <c r="G780" s="16"/>
+      <c r="H780" s="16"/>
+      <c r="I780" s="16"/>
+      <c r="K780" s="16"/>
+      <c r="L780" s="16"/>
+      <c r="M780" s="16"/>
+      <c r="N780" s="16"/>
+      <c r="O780" s="16"/>
+      <c r="P780" s="16"/>
+      <c r="Q780" s="16"/>
+      <c r="R780" s="16"/>
+      <c r="S780" s="16"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
+  <conditionalFormatting sqref="C55">
     <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
+  <conditionalFormatting sqref="C78">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -24701,9 +24731,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F31:I31 K81:P221 S81:S221 K42:M76 K79:M79 M77:M78 M80 K31:M40" formulaRange="1"/>
-    <ignoredError sqref="Q222:R232" formula="1"/>
-    <ignoredError sqref="Q81:R221 S42:S80 N42:R76 Q77:Q78 Q80 N79:R79 O77:O78 O80 N31:S40" formula="1" formulaRange="1"/>
+    <ignoredError sqref="F31:I31 K87:P227 S87:S227 K48:M82 K85:M85 M83:M84 M86 K46:M46 K31:M39" formulaRange="1"/>
+    <ignoredError sqref="Q228:R238" formula="1"/>
+    <ignoredError sqref="Q87:R227 S48:S86 N48:R82 Q83:Q84 Q86 N85:R85 O83:O84 O86 N46:S46 N31:S39" formula="1" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/COIN.xlsx
+++ b/COIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A6AB1-BC41-4F04-962E-3AA2BCC0D501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB4D3DF-F3DD-4562-ABA2-DB4A13B782C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="767" activeTab="6" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="142">
   <si>
     <t>Font</t>
   </si>
@@ -530,9 +530,6 @@
   </si>
   <si>
     <t>Corporate interest and other rev</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -10982,8 +10979,8 @@
   </sheetPr>
   <dimension ref="A1:W780"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -12597,7 +12594,6 @@
       <c r="S40" s="23"/>
     </row>
     <row r="41" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="E41" s="52"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
@@ -12623,9 +12619,7 @@
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
-      <c r="N42" s="23" t="s">
-        <v>142</v>
-      </c>
+      <c r="N42" s="23"/>
       <c r="O42" s="23"/>
       <c r="P42" s="23"/>
       <c r="Q42" s="23"/>

--- a/COIN.xlsx
+++ b/COIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119C518F-F4F0-4436-BD7D-2E52DCB9BC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48802DB-222D-427B-B7ED-E30237FC86E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-3570" windowWidth="26010" windowHeight="20985" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="767" activeTab="6" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="152">
   <si>
     <t>Font</t>
   </si>
@@ -542,6 +542,24 @@
   </si>
   <si>
     <t>$mn</t>
+  </si>
+  <si>
+    <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>Ether</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Crypto Units</t>
+  </si>
+  <si>
+    <t>Jun 25</t>
+  </si>
+  <si>
+    <t>Q2 FY25</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1740,7 @@
   </sheetPr>
   <dimension ref="A1:P704"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="M22" sqref="M22:M23"/>
     </sheetView>
   </sheetViews>
@@ -1813,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="16">
-        <f>Historical!S79*-1</f>
+        <f>Historical!S82*-1</f>
         <v>-10276.223</v>
       </c>
       <c r="G12" s="42"/>
@@ -1834,7 +1852,7 @@
         <v>110</v>
       </c>
       <c r="F13" s="16">
-        <f>+Historical!S78</f>
+        <f>+Historical!S81</f>
         <v>4509.7</v>
       </c>
       <c r="G13" s="42"/>
@@ -1906,7 +1924,7 @@
         <v>124</v>
       </c>
       <c r="F17" s="43">
-        <f>+F11/Historical!I77</f>
+        <f>+F11/Historical!I80</f>
         <v>4.938482074551696</v>
       </c>
       <c r="G17" s="42"/>
@@ -11092,10 +11110,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:Y785"/>
+  <dimension ref="A1:Y794"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -11208,7 +11226,7 @@
         <v>90</v>
       </c>
       <c r="T9" s="27" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="W9" s="28" t="s">
         <v>47</v>
@@ -13092,63 +13110,63 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E51" s="56" t="s">
+      <c r="E51" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="30">
         <f>+F23/-F22</f>
         <v>0.16173647008639896</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="30">
         <f>+G23/-G22</f>
         <v>0.19719442190364558</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="30">
         <f>+H23/-H22</f>
         <v>0.13534529046131061</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="30">
         <f>+I23/-I22</f>
         <v>0.13676160430759893</v>
       </c>
-      <c r="J51" s="61"/>
-      <c r="K51" s="23">
+      <c r="J51" s="76"/>
+      <c r="K51" s="30">
         <f>+K23/-K22</f>
         <v>0.12474483158561038</v>
       </c>
-      <c r="L51" s="23">
+      <c r="L51" s="30">
         <f>+L23/-L22</f>
         <v>0.15284407220681695</v>
       </c>
-      <c r="M51" s="23">
+      <c r="M51" s="30">
         <f>+M23/-M22</f>
         <v>0.13435773747011043</v>
       </c>
-      <c r="N51" s="23">
+      <c r="N51" s="30">
         <f>+N23/-N22</f>
         <v>0.13164149528986835</v>
       </c>
-      <c r="O51" s="23">
+      <c r="O51" s="30">
         <f>+O23/-O22</f>
         <v>0.13276195826743287</v>
       </c>
-      <c r="P51" s="23">
+      <c r="P51" s="30">
         <f>+P23/-P22</f>
         <v>0.13208699059344878</v>
       </c>
-      <c r="Q51" s="23">
+      <c r="Q51" s="30">
         <f>+Q23/-Q22</f>
         <v>0.142534017373151</v>
       </c>
-      <c r="R51" s="23">
+      <c r="R51" s="30">
         <f>+R23/-R22</f>
         <v>0.13956543232919699</v>
       </c>
-      <c r="S51" s="23">
+      <c r="S51" s="30">
         <f>+S23/-S22</f>
         <v>0.14895873017433559</v>
       </c>
-      <c r="T51" s="73">
+      <c r="T51" s="77">
         <f>+T23/-T22</f>
         <v>0.16381224252074528</v>
       </c>
@@ -13227,7 +13245,7 @@
         <v>0.60755252540868965</v>
       </c>
       <c r="G53" s="30">
-        <f t="shared" ref="G53:T53" si="43">+G31/-G22</f>
+        <f t="shared" ref="G53:R53" si="43">+G31/-G22</f>
         <v>1.8484757410913755</v>
       </c>
       <c r="H53" s="30">
@@ -13635,7 +13653,7 @@
         <v>94</v>
       </c>
       <c r="T63" s="21" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="W63" s="28" t="s">
         <v>76</v>
@@ -13643,874 +13661,826 @@
     </row>
     <row r="64" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E65" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F65" s="16">
-        <v>988.19299999999998</v>
-      </c>
-      <c r="G65" s="16">
-        <v>424.39299999999997</v>
-      </c>
-      <c r="H65" s="16">
-        <v>330.61</v>
-      </c>
-      <c r="I65" s="16">
-        <v>1552.9949999999999</v>
-      </c>
+      <c r="E65" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
       <c r="K65" s="16"/>
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
-      <c r="N65" s="16">
-        <f>H65</f>
-        <v>330.61</v>
-      </c>
+      <c r="N65" s="16"/>
       <c r="O65" s="16"/>
       <c r="P65" s="16"/>
       <c r="Q65" s="16"/>
       <c r="R65" s="16">
-        <f>I65</f>
-        <v>1552.9949999999999</v>
-      </c>
-      <c r="S65" s="16">
-        <v>1268.001</v>
-      </c>
+        <v>642.73800000000006</v>
+      </c>
+      <c r="S65" s="16"/>
       <c r="T65" s="16"/>
-      <c r="W65" s="23">
-        <f t="shared" ref="W65:W77" si="44">IFERROR((I65/F65)^(1/3)-1,"n/a")</f>
-        <v>0.16263330970848489</v>
+      <c r="W65" s="23" t="str">
+        <f t="shared" ref="W65" si="44">IFERROR((I65/F65)^(1/3)-1,"n/a")</f>
+        <v>n/a</v>
       </c>
     </row>
     <row r="66" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E66" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F66" s="16">
-        <f>625.758</f>
-        <v>625.75800000000004</v>
-      </c>
-      <c r="G66" s="16">
-        <f>1073.906</f>
-        <v>1073.9059999999999</v>
-      </c>
-      <c r="H66" s="16">
-        <f>1139.67</f>
-        <v>1139.67</v>
-      </c>
-      <c r="I66" s="16">
-        <f>1139.67</f>
-        <v>1139.67</v>
-      </c>
+      <c r="E66" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
-      <c r="N66" s="16">
-        <f>H66</f>
-        <v>1139.67</v>
-      </c>
       <c r="O66" s="16"/>
       <c r="P66" s="16"/>
       <c r="Q66" s="16"/>
       <c r="R66" s="16">
-        <f t="shared" ref="R66:R67" si="45">I66</f>
-        <v>1139.67</v>
-      </c>
-      <c r="S66" s="16">
-        <v>1153.6210000000001</v>
-      </c>
+        <v>385.31400000000002</v>
+      </c>
+      <c r="S66" s="16"/>
       <c r="T66" s="16"/>
-      <c r="W66" s="23">
-        <f t="shared" si="44"/>
-        <v>0.2212115466122897</v>
-      </c>
+      <c r="W66" s="23"/>
     </row>
     <row r="67" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E67" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F67" s="18">
-        <f>98.385+59.23+952.307+176.689</f>
-        <v>1286.6110000000001</v>
-      </c>
-      <c r="G67" s="18">
-        <f>69.357+171.853+1401.72+135.429</f>
-        <v>1778.3590000000002</v>
-      </c>
-      <c r="H67" s="18">
-        <f>1272.233+192.55+375.622+86.422</f>
-        <v>1926.827</v>
-      </c>
-      <c r="I67" s="18">
-        <f>941.298+200.08+548.451+46.804</f>
-        <v>1736.633</v>
-      </c>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18">
-        <f>H67</f>
-        <v>1926.827</v>
-      </c>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
+      <c r="E67" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
       <c r="R67" s="18">
-        <f t="shared" si="45"/>
-        <v>1736.633</v>
-      </c>
-      <c r="S67" s="18">
-        <f>995.529+860.067</f>
-        <v>1855.596</v>
-      </c>
-      <c r="T67" s="18"/>
-      <c r="W67" s="23">
-        <f t="shared" si="44"/>
-        <v>0.10514754450632835</v>
-      </c>
+        <v>524.94299999999998</v>
+      </c>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="W67" s="23"/>
     </row>
     <row r="68" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E68" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F68" s="17">
-        <f>SUM(F65:F67)</f>
-        <v>2900.5619999999999</v>
-      </c>
-      <c r="G68" s="17">
-        <f>SUM(G65:G67)</f>
-        <v>3276.6580000000004</v>
-      </c>
-      <c r="H68" s="17">
-        <f>SUM(H65:H67)</f>
-        <v>3397.107</v>
-      </c>
-      <c r="I68" s="17">
-        <f>SUM(I65:I67)</f>
-        <v>4429.2979999999998</v>
-      </c>
-      <c r="K68" s="17">
-        <f t="shared" ref="K68:N68" si="46">SUM(K65:K67)</f>
-        <v>0</v>
-      </c>
-      <c r="L68" s="17">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="17">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="N68" s="17">
-        <f t="shared" si="46"/>
-        <v>3397.107</v>
-      </c>
-      <c r="O68" s="17">
-        <f>SUM(O65:O67)</f>
-        <v>0</v>
-      </c>
-      <c r="P68" s="17">
-        <f>SUM(P65:P67)</f>
-        <v>0</v>
-      </c>
-      <c r="Q68" s="17">
-        <f t="shared" ref="Q68:S68" si="47">SUM(Q65:Q67)</f>
-        <v>0</v>
-      </c>
-      <c r="R68" s="17">
-        <f t="shared" si="47"/>
-        <v>4429.2979999999998</v>
-      </c>
-      <c r="S68" s="17">
-        <f t="shared" si="47"/>
-        <v>4277.2180000000008</v>
-      </c>
-      <c r="T68" s="17">
-        <f t="shared" ref="T68" si="48">SUM(T65:T67)</f>
-        <v>0</v>
-      </c>
-      <c r="W68" s="30">
-        <f t="shared" si="44"/>
-        <v>0.15155384322346599</v>
+      <c r="E68" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="16">
+        <v>988.19299999999998</v>
+      </c>
+      <c r="G68" s="16">
+        <v>424.39299999999997</v>
+      </c>
+      <c r="H68" s="16">
+        <v>330.61</v>
+      </c>
+      <c r="I68" s="16">
+        <v>1552.9949999999999</v>
+      </c>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16">
+        <f>H68</f>
+        <v>330.61</v>
+      </c>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16">
+        <f>SUM(R65:R67)</f>
+        <v>1552.9950000000001</v>
+      </c>
+      <c r="S68" s="16">
+        <v>1268.001</v>
+      </c>
+      <c r="T68" s="16"/>
+      <c r="W68" s="23">
+        <f t="shared" ref="W68:W80" si="45">IFERROR((I68/F68)^(1/3)-1,"n/a")</f>
+        <v>0.16263330970848489</v>
       </c>
     </row>
     <row r="69" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E69" s="13" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="F69" s="16">
-        <v>7123.4780000000001</v>
+        <f>625.758</f>
+        <v>625.75800000000004</v>
       </c>
       <c r="G69" s="16">
-        <v>4425.0209999999997</v>
+        <f>1073.906</f>
+        <v>1073.9059999999999</v>
       </c>
       <c r="H69" s="16">
-        <v>5139.3509999999997</v>
+        <f>1139.67</f>
+        <v>1139.67</v>
       </c>
       <c r="I69" s="16">
-        <v>8543.9030000000002</v>
+        <f>1139.67</f>
+        <v>1139.67</v>
       </c>
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
       <c r="N69" s="16">
-        <f t="shared" ref="N69:N73" si="49">H69</f>
-        <v>5139.3509999999997</v>
+        <f>H69</f>
+        <v>1139.67</v>
       </c>
       <c r="O69" s="16"/>
       <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
       <c r="R69" s="16">
-        <f t="shared" ref="R69:R73" si="50">I69</f>
-        <v>8543.9030000000002</v>
+        <f t="shared" ref="R69:R70" si="46">I69</f>
+        <v>1139.67</v>
       </c>
       <c r="S69" s="16">
-        <v>8051.1689999999999</v>
+        <v>1153.6210000000001</v>
       </c>
       <c r="T69" s="16"/>
       <c r="W69" s="23">
-        <f t="shared" si="44"/>
-        <v>6.2481574428890241E-2</v>
+        <f t="shared" si="45"/>
+        <v>0.2212115466122897</v>
       </c>
     </row>
     <row r="70" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E70" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" s="16">
-        <v>100.096</v>
-      </c>
-      <c r="G70" s="16">
-        <v>861.149</v>
-      </c>
-      <c r="H70" s="16">
-        <v>576.02800000000002</v>
-      </c>
-      <c r="I70" s="16">
-        <v>1241.808</v>
-      </c>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16">
-        <f t="shared" si="49"/>
-        <v>576.02800000000002</v>
-      </c>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16">
-        <f t="shared" si="50"/>
-        <v>1241.808</v>
-      </c>
-      <c r="S70" s="16">
-        <v>2225.0540000000001</v>
-      </c>
-      <c r="T70" s="16"/>
+        <v>82</v>
+      </c>
+      <c r="F70" s="18">
+        <f>98.385+59.23+952.307+176.689</f>
+        <v>1286.6110000000001</v>
+      </c>
+      <c r="G70" s="18">
+        <f>69.357+171.853+1401.72+135.429</f>
+        <v>1778.3590000000002</v>
+      </c>
+      <c r="H70" s="18">
+        <f>1272.233+192.55+375.622+86.422</f>
+        <v>1926.827</v>
+      </c>
+      <c r="I70" s="18">
+        <f>941.298+200.08+548.451+46.804</f>
+        <v>1736.633</v>
+      </c>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18">
+        <f>H70</f>
+        <v>1926.827</v>
+      </c>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18">
+        <f t="shared" si="46"/>
+        <v>1736.633</v>
+      </c>
+      <c r="S70" s="18">
+        <f>995.529+860.067</f>
+        <v>1855.596</v>
+      </c>
+      <c r="T70" s="18"/>
       <c r="W70" s="23">
-        <f t="shared" si="44"/>
-        <v>1.3149728938807121</v>
+        <f t="shared" si="45"/>
+        <v>0.10514754450632835</v>
       </c>
     </row>
     <row r="71" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E71" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="G71" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="H71" s="16">
-        <v>74.102999999999994</v>
-      </c>
-      <c r="I71" s="16">
-        <v>82.781000000000006</v>
-      </c>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16">
-        <f t="shared" si="49"/>
-        <v>74.102999999999994</v>
-      </c>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16">
-        <f t="shared" si="50"/>
-        <v>82.781000000000006</v>
-      </c>
-      <c r="S71" s="16">
-        <v>67.484999999999999</v>
-      </c>
-      <c r="T71" s="16"/>
-      <c r="W71" s="23" t="str">
-        <f t="shared" si="44"/>
-        <v>n/a</v>
+      <c r="E71" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="17">
+        <f>SUM(F68:F70)</f>
+        <v>2900.5619999999999</v>
+      </c>
+      <c r="G71" s="17">
+        <f>SUM(G68:G70)</f>
+        <v>3276.6580000000004</v>
+      </c>
+      <c r="H71" s="17">
+        <f>SUM(H68:H70)</f>
+        <v>3397.107</v>
+      </c>
+      <c r="I71" s="17">
+        <f>SUM(I68:I70)</f>
+        <v>4429.2979999999998</v>
+      </c>
+      <c r="K71" s="17">
+        <f t="shared" ref="K71:N71" si="47">SUM(K68:K70)</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="17">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="17">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="17">
+        <f t="shared" si="47"/>
+        <v>3397.107</v>
+      </c>
+      <c r="O71" s="17">
+        <f>SUM(O68:O70)</f>
+        <v>0</v>
+      </c>
+      <c r="P71" s="17">
+        <f>SUM(P68:P70)</f>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="17">
+        <f t="shared" ref="Q71:S71" si="48">SUM(Q68:Q70)</f>
+        <v>0</v>
+      </c>
+      <c r="R71" s="17">
+        <f t="shared" si="48"/>
+        <v>4429.2979999999998</v>
+      </c>
+      <c r="S71" s="17">
+        <f t="shared" si="48"/>
+        <v>4277.2180000000008</v>
+      </c>
+      <c r="T71" s="17">
+        <f t="shared" ref="T71" si="49">SUM(T68:T70)</f>
+        <v>0</v>
+      </c>
+      <c r="W71" s="30">
+        <f t="shared" si="45"/>
+        <v>0.15155384322346599</v>
       </c>
     </row>
     <row r="72" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E72" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F72" s="16">
-        <v>304.70600000000002</v>
+        <v>7123.4780000000001</v>
       </c>
       <c r="G72" s="16">
-        <v>404.37599999999998</v>
+        <v>4425.0209999999997</v>
       </c>
       <c r="H72" s="16">
-        <f>193.425+168.29</f>
-        <v>361.71500000000003</v>
+        <v>5139.3509999999997</v>
       </c>
       <c r="I72" s="16">
-        <f>475.37+265.251</f>
-        <v>740.62099999999998</v>
+        <v>8543.9030000000002</v>
       </c>
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16">
-        <f t="shared" si="49"/>
-        <v>361.71500000000003</v>
+        <f t="shared" ref="N72:N76" si="50">H72</f>
+        <v>5139.3509999999997</v>
       </c>
       <c r="O72" s="16"/>
       <c r="P72" s="16"/>
       <c r="Q72" s="16"/>
       <c r="R72" s="16">
+        <f t="shared" ref="R72:R76" si="51">I72</f>
+        <v>8543.9030000000002</v>
+      </c>
+      <c r="S72" s="16">
+        <v>8051.1689999999999</v>
+      </c>
+      <c r="T72" s="16"/>
+      <c r="W72" s="23">
+        <f t="shared" si="45"/>
+        <v>6.2481574428890241E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E73" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F73" s="16">
+        <v>100.096</v>
+      </c>
+      <c r="G73" s="16">
+        <v>861.149</v>
+      </c>
+      <c r="H73" s="16">
+        <v>576.02800000000002</v>
+      </c>
+      <c r="I73" s="16">
+        <v>1241.808</v>
+      </c>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16">
         <f t="shared" si="50"/>
+        <v>576.02800000000002</v>
+      </c>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16">
+        <f t="shared" si="51"/>
+        <v>1241.808</v>
+      </c>
+      <c r="S73" s="16">
+        <v>2225.0540000000001</v>
+      </c>
+      <c r="T73" s="16"/>
+      <c r="W73" s="23">
+        <f t="shared" si="45"/>
+        <v>1.3149728938807121</v>
+      </c>
+    </row>
+    <row r="74" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E74" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G74" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H74" s="16">
+        <v>74.102999999999994</v>
+      </c>
+      <c r="I74" s="16">
+        <v>82.781000000000006</v>
+      </c>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16">
+        <f t="shared" si="50"/>
+        <v>74.102999999999994</v>
+      </c>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16">
+        <f t="shared" si="51"/>
+        <v>82.781000000000006</v>
+      </c>
+      <c r="S74" s="16">
+        <v>67.484999999999999</v>
+      </c>
+      <c r="T74" s="16"/>
+      <c r="W74" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="75" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E75" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="16">
+        <v>304.70600000000002</v>
+      </c>
+      <c r="G75" s="16">
+        <v>404.37599999999998</v>
+      </c>
+      <c r="H75" s="16">
+        <f>193.425+168.29</f>
+        <v>361.71500000000003</v>
+      </c>
+      <c r="I75" s="16">
+        <f>475.37+265.251</f>
         <v>740.62099999999998</v>
       </c>
-      <c r="S72" s="16">
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16">
+        <f t="shared" si="50"/>
+        <v>361.71500000000003</v>
+      </c>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16">
+        <f t="shared" si="51"/>
+        <v>740.62099999999998</v>
+      </c>
+      <c r="S75" s="16">
         <f>245.112+454.473</f>
         <v>699.58500000000004</v>
       </c>
-      <c r="T72" s="16"/>
-      <c r="W72" s="23">
-        <f t="shared" si="44"/>
+      <c r="T75" s="16"/>
+      <c r="W75" s="23">
+        <f t="shared" si="45"/>
         <v>0.34453363801232051</v>
       </c>
     </row>
-    <row r="73" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E73" s="13" t="s">
+    <row r="76" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E76" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="18">
-        <f>18373.863-SUM(F69:F72)</f>
+      <c r="F76" s="18">
+        <f>18373.863-SUM(F72:F75)</f>
         <v>10845.583000000001</v>
       </c>
-      <c r="G73" s="18">
-        <f>86448.215-SUM(G69:G72)</f>
+      <c r="G76" s="18">
+        <f>86448.215-SUM(G72:G75)</f>
         <v>80757.668999999994</v>
       </c>
-      <c r="H73" s="18">
-        <f>11356.794-SUM(H69:H72)</f>
+      <c r="H76" s="18">
+        <f>11356.794-SUM(H72:H75)</f>
         <v>5205.5969999999998</v>
       </c>
-      <c r="I73" s="18">
-        <f>18112.653-SUM(I69:I72)</f>
+      <c r="I76" s="18">
+        <f>18112.653-SUM(I72:I75)</f>
         <v>7503.5399999999991</v>
       </c>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18">
-        <f t="shared" si="49"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18">
+        <f t="shared" si="50"/>
         <v>5205.5969999999998</v>
       </c>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18">
-        <f t="shared" si="50"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18">
+        <f t="shared" si="51"/>
         <v>7503.5399999999991</v>
       </c>
-      <c r="S73" s="18">
-        <f>17453.788-SUM(S69:S72)</f>
+      <c r="S76" s="18">
+        <f>17453.788-SUM(S72:S75)</f>
         <v>6410.494999999999</v>
       </c>
-      <c r="T73" s="18"/>
-      <c r="W73" s="23">
-        <f t="shared" si="44"/>
+      <c r="T76" s="18"/>
+      <c r="W76" s="23">
+        <f t="shared" si="45"/>
         <v>-0.11555445256443708</v>
-      </c>
-    </row>
-    <row r="74" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E74" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="17">
-        <f>SUM(F69:F73)</f>
-        <v>18373.863000000001</v>
-      </c>
-      <c r="G74" s="17">
-        <f>SUM(G69:G73)</f>
-        <v>86448.214999999997</v>
-      </c>
-      <c r="H74" s="17">
-        <f>SUM(H69:H73)</f>
-        <v>11356.794</v>
-      </c>
-      <c r="I74" s="17">
-        <f>SUM(I69:I73)</f>
-        <v>18112.652999999998</v>
-      </c>
-      <c r="K74" s="17">
-        <f t="shared" ref="K74:N74" si="51">SUM(K69:K73)</f>
-        <v>0</v>
-      </c>
-      <c r="L74" s="17">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="17">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="N74" s="17">
-        <f t="shared" si="51"/>
-        <v>11356.794</v>
-      </c>
-      <c r="O74" s="17">
-        <f>SUM(O69:O73)</f>
-        <v>0</v>
-      </c>
-      <c r="P74" s="17">
-        <f>SUM(P69:P73)</f>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="17">
-        <f t="shared" ref="Q74:S74" si="52">SUM(Q69:Q73)</f>
-        <v>0</v>
-      </c>
-      <c r="R74" s="17">
-        <f t="shared" si="52"/>
-        <v>18112.652999999998</v>
-      </c>
-      <c r="S74" s="17">
-        <f t="shared" si="52"/>
-        <v>17453.788</v>
-      </c>
-      <c r="T74" s="17">
-        <f t="shared" ref="T74" si="53">SUM(T69:T73)</f>
-        <v>0</v>
-      </c>
-      <c r="W74" s="30">
-        <f t="shared" si="44"/>
-        <v>-4.7614318775033304E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="5:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E75" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F75" s="20">
-        <f>+F74+F68</f>
-        <v>21274.425000000003</v>
-      </c>
-      <c r="G75" s="20">
-        <f>+G74+G68</f>
-        <v>89724.872999999992</v>
-      </c>
-      <c r="H75" s="20">
-        <f>+H74+H68</f>
-        <v>14753.901</v>
-      </c>
-      <c r="I75" s="20">
-        <f>+I74+I68</f>
-        <v>22541.950999999997</v>
-      </c>
-      <c r="K75" s="20">
-        <f t="shared" ref="K75:N75" si="54">+K74+K68</f>
-        <v>0</v>
-      </c>
-      <c r="L75" s="20">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="20">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="20">
-        <f t="shared" si="54"/>
-        <v>14753.901</v>
-      </c>
-      <c r="O75" s="20">
-        <f>+O74+O68</f>
-        <v>0</v>
-      </c>
-      <c r="P75" s="20">
-        <f>+P74+P68</f>
-        <v>0</v>
-      </c>
-      <c r="Q75" s="20">
-        <f t="shared" ref="Q75:S75" si="55">+Q74+Q68</f>
-        <v>0</v>
-      </c>
-      <c r="R75" s="20">
-        <f t="shared" si="55"/>
-        <v>22541.950999999997</v>
-      </c>
-      <c r="S75" s="20">
-        <f t="shared" si="55"/>
-        <v>21731.006000000001</v>
-      </c>
-      <c r="T75" s="20">
-        <f t="shared" ref="T75" si="56">+T74+T68</f>
-        <v>0</v>
-      </c>
-      <c r="W75" s="30">
-        <f t="shared" si="44"/>
-        <v>1.9478074846015492E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="5:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-      <c r="W76" s="23" t="str">
-        <f t="shared" si="44"/>
-        <v>n/a</v>
       </c>
     </row>
     <row r="77" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E77" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F77" s="17">
-        <v>6381.6890000000003</v>
+        <f>SUM(F72:F76)</f>
+        <v>18373.863000000001</v>
       </c>
       <c r="G77" s="17">
-        <v>5454.5569999999998</v>
+        <f>SUM(G72:G76)</f>
+        <v>86448.214999999997</v>
       </c>
       <c r="H77" s="17">
-        <v>6281.6490000000003</v>
+        <f>SUM(H72:H76)</f>
+        <v>11356.794</v>
       </c>
       <c r="I77" s="17">
-        <v>10276.842000000001</v>
-      </c>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+        <f>SUM(I72:I76)</f>
+        <v>18112.652999999998</v>
+      </c>
+      <c r="K77" s="17">
+        <f t="shared" ref="K77:N77" si="52">SUM(K72:K76)</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="17">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="17">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="17">
+        <f t="shared" si="52"/>
+        <v>11356.794</v>
+      </c>
+      <c r="O77" s="17">
+        <f>SUM(O72:O76)</f>
+        <v>0</v>
+      </c>
+      <c r="P77" s="17">
+        <f>SUM(P72:P76)</f>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="17">
+        <f t="shared" ref="Q77:S77" si="53">SUM(Q72:Q76)</f>
+        <v>0</v>
+      </c>
       <c r="R77" s="17">
-        <f>I77</f>
-        <v>10276.842000000001</v>
+        <f t="shared" si="53"/>
+        <v>18112.652999999998</v>
       </c>
       <c r="S77" s="17">
-        <v>10468.24</v>
-      </c>
-      <c r="T77" s="17"/>
+        <f t="shared" si="53"/>
+        <v>17453.788</v>
+      </c>
+      <c r="T77" s="17">
+        <f t="shared" ref="T77" si="54">SUM(T72:T76)</f>
+        <v>0</v>
+      </c>
       <c r="W77" s="30">
-        <f t="shared" si="44"/>
-        <v>0.17212703022075493</v>
-      </c>
-    </row>
-    <row r="78" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E78" t="s">
-        <v>87</v>
-      </c>
-      <c r="F78" s="16">
-        <v>3938</v>
-      </c>
-      <c r="G78" s="16">
-        <v>3641.3</v>
-      </c>
-      <c r="H78" s="16">
-        <v>3046.8</v>
-      </c>
-      <c r="I78" s="16">
-        <v>4629.6000000000004</v>
-      </c>
-      <c r="K78" s="16">
-        <v>3499.7</v>
-      </c>
-      <c r="L78" s="16">
-        <v>3499.7</v>
-      </c>
-      <c r="M78" s="16">
-        <v>3203.6</v>
-      </c>
-      <c r="N78" s="16">
-        <f>H78</f>
-        <v>3046.8</v>
-      </c>
-      <c r="O78" s="16">
-        <v>4506.6000000000004</v>
-      </c>
-      <c r="P78" s="16">
-        <v>4465.5</v>
-      </c>
-      <c r="Q78" s="16">
-        <v>4496.3</v>
-      </c>
-      <c r="R78" s="16">
-        <f>I78</f>
-        <v>4629.6000000000004</v>
-      </c>
-      <c r="S78" s="16">
-        <v>4509.7</v>
-      </c>
-      <c r="T78" s="16"/>
-      <c r="W78" s="30"/>
-    </row>
-    <row r="79" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="E79" t="s">
-        <v>104</v>
-      </c>
-      <c r="F79" s="16">
-        <f>SUM(F69:F70)</f>
-        <v>7223.5740000000005</v>
-      </c>
-      <c r="G79" s="16">
-        <f t="shared" ref="G79:S79" si="57">SUM(G69:G70)</f>
-        <v>5286.17</v>
-      </c>
-      <c r="H79" s="16">
-        <f t="shared" si="57"/>
-        <v>5715.3789999999999</v>
-      </c>
-      <c r="I79" s="16">
-        <f t="shared" si="57"/>
-        <v>9785.7109999999993</v>
-      </c>
-      <c r="K79" s="16">
-        <f t="shared" ref="K79" si="58">SUM(K69:K70)</f>
+        <f t="shared" si="45"/>
+        <v>-4.7614318775033304E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="5:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E78" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" s="20">
+        <f>+F77+F71</f>
+        <v>21274.425000000003</v>
+      </c>
+      <c r="G78" s="20">
+        <f>+G77+G71</f>
+        <v>89724.872999999992</v>
+      </c>
+      <c r="H78" s="20">
+        <f>+H77+H71</f>
+        <v>14753.901</v>
+      </c>
+      <c r="I78" s="20">
+        <f>+I77+I71</f>
+        <v>22541.950999999997</v>
+      </c>
+      <c r="K78" s="20">
+        <f t="shared" ref="K78:N78" si="55">+K77+K71</f>
         <v>0</v>
       </c>
-      <c r="L79" s="16">
-        <f t="shared" si="57"/>
+      <c r="L78" s="20">
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="M79" s="16">
-        <f t="shared" si="57"/>
+      <c r="M78" s="20">
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="N79" s="16">
-        <f t="shared" si="57"/>
-        <v>5715.3789999999999</v>
-      </c>
-      <c r="O79" s="16">
-        <f t="shared" si="57"/>
+      <c r="N78" s="20">
+        <f t="shared" si="55"/>
+        <v>14753.901</v>
+      </c>
+      <c r="O78" s="20">
+        <f>+O77+O71</f>
         <v>0</v>
       </c>
-      <c r="P79" s="16">
-        <f t="shared" si="57"/>
+      <c r="P78" s="20">
+        <f>+P77+P71</f>
         <v>0</v>
       </c>
-      <c r="Q79" s="16">
-        <f t="shared" si="57"/>
+      <c r="Q78" s="20">
+        <f t="shared" ref="Q78:S78" si="56">+Q77+Q71</f>
         <v>0</v>
       </c>
-      <c r="R79" s="16">
-        <f t="shared" si="57"/>
-        <v>9785.7109999999993</v>
-      </c>
-      <c r="S79" s="16">
-        <f t="shared" si="57"/>
-        <v>10276.223</v>
-      </c>
-      <c r="T79" s="16">
-        <f t="shared" ref="T79" si="59">SUM(T69:T70)</f>
+      <c r="R78" s="20">
+        <f t="shared" si="56"/>
+        <v>22541.950999999997</v>
+      </c>
+      <c r="S78" s="20">
+        <f t="shared" si="56"/>
+        <v>21731.006000000001</v>
+      </c>
+      <c r="T78" s="20">
+        <f t="shared" ref="T78" si="57">+T77+T71</f>
         <v>0</v>
       </c>
-      <c r="W79" s="30"/>
+      <c r="W78" s="30">
+        <f t="shared" si="45"/>
+        <v>1.9478074846015492E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="5:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="W79" s="23" t="str">
+        <f t="shared" si="45"/>
+        <v>n/a</v>
+      </c>
     </row>
     <row r="80" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E80" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="17">
+        <v>6381.6890000000003</v>
+      </c>
+      <c r="G80" s="17">
+        <v>5454.5569999999998</v>
+      </c>
+      <c r="H80" s="17">
+        <v>6281.6490000000003</v>
+      </c>
+      <c r="I80" s="17">
+        <v>10276.842000000001</v>
+      </c>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17">
+        <f>I80</f>
+        <v>10276.842000000001</v>
+      </c>
+      <c r="S80" s="17">
+        <v>10468.24</v>
+      </c>
+      <c r="T80" s="17"/>
+      <c r="W80" s="30">
+        <f t="shared" si="45"/>
+        <v>0.17212703022075493</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="16">
+        <v>3938</v>
+      </c>
+      <c r="G81" s="16">
+        <v>3641.3</v>
+      </c>
+      <c r="H81" s="16">
+        <v>3046.8</v>
+      </c>
+      <c r="I81" s="16">
+        <v>4629.6000000000004</v>
+      </c>
+      <c r="K81" s="16">
+        <v>3499.7</v>
+      </c>
+      <c r="L81" s="16">
+        <v>3499.7</v>
+      </c>
+      <c r="M81" s="16">
+        <v>3203.6</v>
+      </c>
+      <c r="N81" s="16">
+        <f>H81</f>
+        <v>3046.8</v>
+      </c>
+      <c r="O81" s="16">
+        <v>4506.6000000000004</v>
+      </c>
+      <c r="P81" s="16">
+        <v>4465.5</v>
+      </c>
+      <c r="Q81" s="16">
+        <v>4496.3</v>
+      </c>
+      <c r="R81" s="16">
+        <f>I81</f>
+        <v>4629.6000000000004</v>
+      </c>
+      <c r="S81" s="16">
+        <v>4509.7</v>
+      </c>
+      <c r="T81" s="16"/>
+      <c r="W81" s="30"/>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>104</v>
+      </c>
+      <c r="F82" s="16">
+        <f>SUM(F72:F73)</f>
+        <v>7223.5740000000005</v>
+      </c>
+      <c r="G82" s="16">
+        <f t="shared" ref="G82:S82" si="58">SUM(G72:G73)</f>
+        <v>5286.17</v>
+      </c>
+      <c r="H82" s="16">
+        <f t="shared" si="58"/>
+        <v>5715.3789999999999</v>
+      </c>
+      <c r="I82" s="16">
+        <f t="shared" si="58"/>
+        <v>9785.7109999999993</v>
+      </c>
+      <c r="K82" s="16">
+        <f t="shared" ref="K82" si="59">SUM(K72:K73)</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="16">
+        <f t="shared" si="58"/>
+        <v>5715.3789999999999</v>
+      </c>
+      <c r="O82" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="16">
+        <f t="shared" si="58"/>
+        <v>9785.7109999999993</v>
+      </c>
+      <c r="S82" s="16">
+        <f t="shared" si="58"/>
+        <v>10276.223</v>
+      </c>
+      <c r="T82" s="16">
+        <f t="shared" ref="T82" si="60">SUM(T72:T73)</f>
+        <v>0</v>
+      </c>
+      <c r="W82" s="30"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E83" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F80" s="17">
-        <f>+F78-F79</f>
+      <c r="F83" s="17">
+        <f>+F81-F82</f>
         <v>-3285.5740000000005</v>
       </c>
-      <c r="G80" s="17">
-        <f t="shared" ref="G80:I80" si="60">+G78-G79</f>
+      <c r="G83" s="17">
+        <f t="shared" ref="G83:I83" si="61">+G81-G82</f>
         <v>-1644.87</v>
       </c>
-      <c r="H80" s="17">
-        <f t="shared" si="60"/>
+      <c r="H83" s="17">
+        <f t="shared" si="61"/>
         <v>-2668.5789999999997</v>
       </c>
-      <c r="I80" s="17">
-        <f t="shared" si="60"/>
+      <c r="I83" s="17">
+        <f t="shared" si="61"/>
         <v>-5156.110999999999</v>
       </c>
-      <c r="K80" s="17">
-        <f t="shared" ref="K80:L80" si="61">+K78-K79</f>
+      <c r="K83" s="17">
+        <f t="shared" ref="K83:L83" si="62">+K81-K82</f>
         <v>3499.7</v>
       </c>
-      <c r="L80" s="17">
-        <f t="shared" si="61"/>
+      <c r="L83" s="17">
+        <f t="shared" si="62"/>
         <v>3499.7</v>
       </c>
-      <c r="M80" s="17">
-        <f t="shared" ref="M80" si="62">+M78-M79</f>
+      <c r="M83" s="17">
+        <f t="shared" ref="M83" si="63">+M81-M82</f>
         <v>3203.6</v>
       </c>
-      <c r="N80" s="17">
-        <f t="shared" ref="N80" si="63">+N78-N79</f>
+      <c r="N83" s="17">
+        <f t="shared" ref="N83" si="64">+N81-N82</f>
         <v>-2668.5789999999997</v>
       </c>
-      <c r="O80" s="17">
-        <f t="shared" ref="O80" si="64">+O78-O79</f>
+      <c r="O83" s="17">
+        <f t="shared" ref="O83" si="65">+O81-O82</f>
         <v>4506.6000000000004</v>
       </c>
-      <c r="P80" s="17">
-        <f t="shared" ref="P80" si="65">+P78-P79</f>
+      <c r="P83" s="17">
+        <f t="shared" ref="P83" si="66">+P81-P82</f>
         <v>4465.5</v>
       </c>
-      <c r="Q80" s="17">
-        <f t="shared" ref="Q80" si="66">+Q78-Q79</f>
+      <c r="Q83" s="17">
+        <f t="shared" ref="Q83" si="67">+Q81-Q82</f>
         <v>4496.3</v>
       </c>
-      <c r="R80" s="17">
-        <f t="shared" ref="R80" si="67">+R78-R79</f>
+      <c r="R83" s="17">
+        <f t="shared" ref="R83" si="68">+R81-R82</f>
         <v>-5156.110999999999</v>
       </c>
-      <c r="S80" s="17">
-        <f t="shared" ref="S80:T80" si="68">+S78-S79</f>
+      <c r="S83" s="17">
+        <f t="shared" ref="S83:T83" si="69">+S81-S82</f>
         <v>-5766.5230000000001</v>
       </c>
-      <c r="T80" s="17">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="W80" s="30"/>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="16"/>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="E82" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" s="19">
-        <v>21274.424999999999</v>
-      </c>
-      <c r="G82" s="19">
-        <v>89724.873000000007</v>
-      </c>
-      <c r="H82" s="19">
-        <v>14753.901</v>
-      </c>
-      <c r="I82" s="19">
-        <v>22541.951000000001</v>
-      </c>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19">
-        <f>H82</f>
-        <v>14753.901</v>
-      </c>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19">
-        <f>I82</f>
-        <v>22541.951000000001</v>
-      </c>
-      <c r="S82" s="19">
-        <v>21731.006000000001</v>
-      </c>
-      <c r="T82" s="19"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C83" s="15" t="b" cm="1">
-        <f t="array" ref="C83">AND(F83:I83&lt;$B$1,F83:I83&gt;-$B$1)</f>
-        <v>1</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" s="19">
-        <f t="shared" ref="F83:I83" si="69">+F82-F75</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="19">
+      <c r="T83" s="17">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="H83" s="19">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="19">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="19">
-        <f t="shared" ref="K83" si="70">+K82-K75</f>
-        <v>0</v>
-      </c>
-      <c r="L83" s="19">
-        <f t="shared" ref="L83:M83" si="71">+L82-L75</f>
-        <v>0</v>
-      </c>
-      <c r="M83" s="19">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="N83" s="19">
-        <f t="shared" ref="N83" si="72">+N82-N75</f>
-        <v>0</v>
-      </c>
-      <c r="O83" s="19">
-        <f t="shared" ref="O83:P83" si="73">+O82-O75</f>
-        <v>0</v>
-      </c>
-      <c r="P83" s="19">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="Q83" s="19">
-        <f t="shared" ref="Q83:S83" si="74">+Q82-Q75</f>
-        <v>0</v>
-      </c>
-      <c r="R83" s="19">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="S83" s="19">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="T83" s="19">
-        <f t="shared" ref="T83" si="75">+T82-T75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="W83" s="30"/>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
@@ -14526,453 +14496,530 @@
       <c r="S84" s="16"/>
       <c r="T84" s="16"/>
     </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="E85" s="5" t="str">
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E85" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="16"/>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E86" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="16"/>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E87" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="16"/>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="16"/>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="16"/>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="16"/>
+      <c r="S90" s="16"/>
+      <c r="T90" s="16"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E91" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="19">
+        <v>21274.424999999999</v>
+      </c>
+      <c r="G91" s="19">
+        <v>89724.873000000007</v>
+      </c>
+      <c r="H91" s="19">
+        <v>14753.901</v>
+      </c>
+      <c r="I91" s="19">
+        <v>22541.951000000001</v>
+      </c>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19">
+        <f>H91</f>
+        <v>14753.901</v>
+      </c>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19">
+        <f>I91</f>
+        <v>22541.951000000001</v>
+      </c>
+      <c r="S91" s="19">
+        <v>21731.006000000001</v>
+      </c>
+      <c r="T91" s="19"/>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C92" s="15" t="b" cm="1">
+        <f t="array" ref="C92">AND(F92:I92&lt;$B$1,F92:I92&gt;-$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="19">
+        <f t="shared" ref="F92:I92" si="70">+F91-F78</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="19">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="19">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="19">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="19">
+        <f t="shared" ref="K92" si="71">+K91-K78</f>
+        <v>0</v>
+      </c>
+      <c r="L92" s="19">
+        <f t="shared" ref="L92:M92" si="72">+L91-L78</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="19">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="19">
+        <f t="shared" ref="N92" si="73">+N91-N78</f>
+        <v>0</v>
+      </c>
+      <c r="O92" s="19">
+        <f t="shared" ref="O92:P92" si="74">+O91-O78</f>
+        <v>0</v>
+      </c>
+      <c r="P92" s="19">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="19">
+        <f t="shared" ref="Q92:S92" si="75">+Q91-Q78</f>
+        <v>0</v>
+      </c>
+      <c r="R92" s="19">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="S92" s="19">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="T92" s="19">
+        <f t="shared" ref="T92" si="76">+T91-T78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="16"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="16"/>
+      <c r="S93" s="16"/>
+      <c r="T93" s="16"/>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E94" s="5" t="str">
         <f>Input!$E$8&amp;" - CF"</f>
         <v>COIN - CF</v>
       </c>
-      <c r="I85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="W85" s="29" t="s">
+      <c r="I94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="W94" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="E86" s="10" t="str">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E95" s="10" t="str">
         <f>+Input!$E$14</f>
         <v>$mn</v>
       </c>
-      <c r="F86" s="21" t="s">
+      <c r="F95" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G86" s="21" t="s">
+      <c r="G95" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H86" s="21" t="s">
+      <c r="H95" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I86" s="21" t="s">
+      <c r="I95" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="K86" s="39" t="s">
+      <c r="K95" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="L86" s="39" t="s">
+      <c r="L95" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="M86" s="39" t="s">
+      <c r="M95" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="N86" s="39" t="s">
+      <c r="N95" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="O86" s="40" t="s">
+      <c r="O95" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="P86" s="40" t="s">
+      <c r="P95" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="Q86" s="40" t="s">
+      <c r="Q95" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="R86" s="40" t="s">
+      <c r="R95" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="S86" s="21" t="s">
+      <c r="S95" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="T86" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="W86" s="28" t="s">
+      <c r="T95" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="W95" s="28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="3:25" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="E88" s="13" t="s">
+    <row r="96" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="E97" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F97" s="16">
         <v>4038.172</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G97" s="16">
         <v>-1585.4190000000001</v>
       </c>
-      <c r="H88" s="16">
+      <c r="H97" s="16">
         <v>922.95100000000002</v>
       </c>
-      <c r="I88" s="16">
+      <c r="I97" s="16">
         <v>2556.8440000000001</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K97" s="16">
         <v>463.07799999999997</v>
       </c>
-      <c r="L88" s="16">
+      <c r="L97" s="16">
         <v>614.202</v>
       </c>
-      <c r="M88" s="16">
-        <f>928.137-SUM(K88:L88)</f>
+      <c r="M97" s="16">
+        <f>928.137-SUM(K97:L97)</f>
         <v>-149.14300000000003</v>
       </c>
-      <c r="N88" s="16">
-        <f>I88-SUM(K88:M88)</f>
+      <c r="N97" s="16">
+        <f>I97-SUM(K97:M97)</f>
         <v>1628.7070000000001</v>
       </c>
-      <c r="O88" s="16">
+      <c r="O97" s="16">
         <v>411.48500000000001</v>
       </c>
-      <c r="P88" s="16">
-        <f>895.682-O88</f>
+      <c r="P97" s="16">
+        <f>895.682-O97</f>
         <v>484.197</v>
       </c>
-      <c r="Q88" s="16">
-        <f>1592.226-SUM(O88:P88)</f>
+      <c r="Q97" s="16">
+        <f>1592.226-SUM(O97:P97)</f>
         <v>696.5440000000001</v>
       </c>
-      <c r="R88" s="16">
-        <f>I88-SUM(O88:Q88)</f>
+      <c r="R97" s="16">
+        <f>I97-SUM(O97:Q97)</f>
         <v>964.61799999999994</v>
       </c>
-      <c r="S88" s="16">
+      <c r="S97" s="16">
         <v>-182.727</v>
       </c>
-      <c r="T88" s="16"/>
-      <c r="W88" s="23">
-        <f>IFERROR((I88/F88)^(1/3)-1,"n/a")</f>
+      <c r="T97" s="16"/>
+      <c r="W97" s="23">
+        <f>IFERROR((I97/F97)^(1/3)-1,"n/a")</f>
         <v>-0.14130327592383696</v>
       </c>
     </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="E89" s="13" t="s">
+    <row r="98" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="E98" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F98" s="18">
         <v>-1124.74</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G98" s="18">
         <v>-663.822</v>
       </c>
-      <c r="H89" s="18">
+      <c r="H98" s="18">
         <v>5.3920000000000003</v>
       </c>
-      <c r="I89" s="18">
+      <c r="I98" s="18">
         <v>-282.38499999999999</v>
       </c>
-      <c r="K89" s="18">
+      <c r="K98" s="18">
         <v>-26.08</v>
       </c>
-      <c r="L89" s="18">
+      <c r="L98" s="18">
         <v>-12.754</v>
       </c>
-      <c r="M89" s="18">
-        <f>-85.117-SUM(K89:L89)</f>
+      <c r="M98" s="18">
+        <f>-85.117-SUM(K98:L98)</f>
         <v>-46.283000000000008</v>
       </c>
-      <c r="N89" s="18">
-        <f>I89-SUM(K89:M89)</f>
+      <c r="N98" s="18">
+        <f>I98-SUM(K98:M98)</f>
         <v>-197.26799999999997</v>
       </c>
-      <c r="O89" s="18">
+      <c r="O98" s="18">
         <v>-125.681</v>
       </c>
-      <c r="P89" s="18">
-        <f>-144.292-O89</f>
+      <c r="P98" s="18">
+        <f>-144.292-O98</f>
         <v>-18.611000000000004</v>
       </c>
-      <c r="Q89" s="18">
-        <f>-232.969-SUM(O89:P89)</f>
+      <c r="Q98" s="18">
+        <f>-232.969-SUM(O98:P98)</f>
         <v>-88.676999999999992</v>
       </c>
-      <c r="R89" s="18">
-        <f>I89-SUM(O89:Q89)</f>
+      <c r="R98" s="18">
+        <f>I98-SUM(O98:Q98)</f>
         <v>-49.415999999999997</v>
       </c>
-      <c r="S89" s="18">
+      <c r="S98" s="18">
         <v>-231.65299999999999</v>
       </c>
-      <c r="T89" s="18"/>
-      <c r="W89" s="23">
-        <f>IFERROR((I89/F89)^(1/3)-1,"n/a")</f>
+      <c r="T98" s="18"/>
+      <c r="W98" s="23">
+        <f>IFERROR((I98/F98)^(1/3)-1,"n/a")</f>
         <v>-0.36914459589093829</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="E90" s="5" t="s">
+    <row r="99" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="E99" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F90" s="17">
-        <f t="shared" ref="F90:H90" si="76">+F88+F89</f>
+      <c r="F99" s="17">
+        <f t="shared" ref="F99:H99" si="77">+F97+F98</f>
         <v>2913.4319999999998</v>
       </c>
-      <c r="G90" s="17">
-        <f t="shared" si="76"/>
+      <c r="G99" s="17">
+        <f t="shared" si="77"/>
         <v>-2249.241</v>
       </c>
-      <c r="H90" s="17">
-        <f t="shared" si="76"/>
+      <c r="H99" s="17">
+        <f t="shared" si="77"/>
         <v>928.34300000000007</v>
       </c>
-      <c r="I90" s="17">
-        <f>+I88+I89</f>
+      <c r="I99" s="17">
+        <f>+I97+I98</f>
         <v>2274.4589999999998</v>
       </c>
-      <c r="K90" s="17">
-        <f t="shared" ref="K90:N90" si="77">+K88+K89</f>
+      <c r="K99" s="17">
+        <f t="shared" ref="K99:N99" si="78">+K97+K98</f>
         <v>436.99799999999999</v>
       </c>
-      <c r="L90" s="17">
-        <f t="shared" si="77"/>
+      <c r="L99" s="17">
+        <f t="shared" si="78"/>
         <v>601.44799999999998</v>
       </c>
-      <c r="M90" s="17">
-        <f t="shared" si="77"/>
+      <c r="M99" s="17">
+        <f t="shared" si="78"/>
         <v>-195.42600000000004</v>
       </c>
-      <c r="N90" s="17">
-        <f t="shared" si="77"/>
+      <c r="N99" s="17">
+        <f t="shared" si="78"/>
         <v>1431.4390000000001</v>
       </c>
-      <c r="O90" s="17">
-        <f>+O88+O89</f>
+      <c r="O99" s="17">
+        <f>+O97+O98</f>
         <v>285.80400000000003</v>
       </c>
-      <c r="P90" s="17">
-        <f>+P88+P89</f>
+      <c r="P99" s="17">
+        <f>+P97+P98</f>
         <v>465.58600000000001</v>
       </c>
-      <c r="Q90" s="17">
-        <f t="shared" ref="Q90:S90" si="78">+Q88+Q89</f>
+      <c r="Q99" s="17">
+        <f t="shared" ref="Q99:S99" si="79">+Q97+Q98</f>
         <v>607.86700000000008</v>
       </c>
-      <c r="R90" s="17">
-        <f t="shared" si="78"/>
+      <c r="R99" s="17">
+        <f t="shared" si="79"/>
         <v>915.202</v>
       </c>
-      <c r="S90" s="17">
-        <f t="shared" si="78"/>
+      <c r="S99" s="17">
+        <f t="shared" si="79"/>
         <v>-414.38</v>
       </c>
-      <c r="T90" s="17">
-        <f t="shared" ref="T90" si="79">+T88+T89</f>
+      <c r="T99" s="17">
+        <f t="shared" ref="T99" si="80">+T97+T98</f>
         <v>0</v>
       </c>
-      <c r="W90" s="30">
-        <f>IFERROR((I90/F90)^(1/3)-1,"n/a")</f>
+      <c r="W99" s="30">
+        <f>IFERROR((I99/F99)^(1/3)-1,"n/a")</f>
         <v>-7.9216046658247219E-2</v>
       </c>
     </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="E91" s="13" t="s">
+    <row r="100" spans="5:25" x14ac:dyDescent="0.2">
+      <c r="E100" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F100" s="16">
         <v>9976.0840000000007</v>
       </c>
-      <c r="G91" s="16">
+      <c r="G100" s="16">
         <v>-5838.518</v>
       </c>
-      <c r="H91" s="16">
+      <c r="H100" s="16">
         <v>-811.33199999999999</v>
       </c>
-      <c r="I91" s="16">
+      <c r="I100" s="16">
         <v>2828.9209999999998</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K100" s="16">
         <v>460.12900000000002</v>
       </c>
-      <c r="L91" s="16">
+      <c r="L100" s="16">
         <v>-1142.2629999999999</v>
       </c>
-      <c r="M91" s="16">
-        <f>-1734.128-SUM(K91:L91)</f>
+      <c r="M100" s="16">
+        <f>-1734.128-SUM(K100:L100)</f>
         <v>-1051.9940000000001</v>
       </c>
-      <c r="N91" s="16">
-        <f>I91-SUM(K91:M91)</f>
+      <c r="N100" s="16">
+        <f>I100-SUM(K100:M100)</f>
         <v>4563.049</v>
       </c>
-      <c r="O91" s="16">
+      <c r="O100" s="16">
         <v>1927.721</v>
       </c>
-      <c r="P91" s="16">
-        <f>993.988-O91</f>
+      <c r="P100" s="16">
+        <f>993.988-O100</f>
         <v>-933.73299999999995</v>
       </c>
-      <c r="Q91" s="16">
-        <f>682.663-SUM(O91:P91)</f>
+      <c r="Q100" s="16">
+        <f>682.663-SUM(O100:P100)</f>
         <v>-311.32500000000005</v>
       </c>
-      <c r="R91" s="16">
-        <f>I91-SUM(O91:Q91)</f>
+      <c r="R100" s="16">
+        <f>I100-SUM(O100:Q100)</f>
         <v>2146.2579999999998</v>
       </c>
-      <c r="S91" s="16">
+      <c r="S100" s="16">
         <v>-893.80200000000002</v>
       </c>
-      <c r="T91" s="16"/>
-      <c r="W91" s="23">
-        <f>IFERROR((I91/F91)^(1/3)-1,"n/a")</f>
+      <c r="T100" s="16"/>
+      <c r="W100" s="23">
+        <f>IFERROR((I100/F100)^(1/3)-1,"n/a")</f>
         <v>-0.34301784391940782</v>
       </c>
-      <c r="Y91" s="25" t="s">
+      <c r="Y100" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16"/>
-      <c r="R94" s="16"/>
-      <c r="S94" s="16"/>
-      <c r="T94" s="16"/>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="16"/>
-      <c r="P95" s="16"/>
-      <c r="Q95" s="16"/>
-      <c r="R95" s="16"/>
-      <c r="S95" s="16"/>
-      <c r="T95" s="16"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="16"/>
-      <c r="O96" s="16"/>
-      <c r="P96" s="16"/>
-      <c r="Q96" s="16"/>
-      <c r="R96" s="16"/>
-      <c r="S96" s="16"/>
-      <c r="T96" s="16"/>
-    </row>
-    <row r="97" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
-      <c r="Q97" s="16"/>
-      <c r="R97" s="16"/>
-      <c r="S97" s="16"/>
-      <c r="T97" s="16"/>
-    </row>
-    <row r="98" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="16"/>
-      <c r="S98" s="16"/>
-      <c r="T98" s="16"/>
-    </row>
-    <row r="99" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16"/>
-      <c r="S99" s="16"/>
-      <c r="T99" s="16"/>
-    </row>
-    <row r="100" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="16"/>
-      <c r="S100" s="16"/>
-      <c r="T100" s="16"/>
-    </row>
-    <row r="101" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="16"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
-      <c r="R101" s="16"/>
-      <c r="S101" s="16"/>
-      <c r="T101" s="16"/>
-    </row>
-    <row r="102" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="16"/>
-      <c r="N102" s="16"/>
-      <c r="O102" s="16"/>
-      <c r="P102" s="16"/>
-      <c r="Q102" s="16"/>
-      <c r="R102" s="16"/>
-      <c r="S102" s="16"/>
-      <c r="T102" s="16"/>
-    </row>
-    <row r="103" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:25" x14ac:dyDescent="0.2">
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
@@ -14988,7 +15035,7 @@
       <c r="S103" s="16"/>
       <c r="T103" s="16"/>
     </row>
-    <row r="104" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:25" x14ac:dyDescent="0.2">
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
@@ -15004,7 +15051,7 @@
       <c r="S104" s="16"/>
       <c r="T104" s="16"/>
     </row>
-    <row r="105" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:25" x14ac:dyDescent="0.2">
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
@@ -15020,7 +15067,7 @@
       <c r="S105" s="16"/>
       <c r="T105" s="16"/>
     </row>
-    <row r="106" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:25" x14ac:dyDescent="0.2">
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
@@ -15036,7 +15083,7 @@
       <c r="S106" s="16"/>
       <c r="T106" s="16"/>
     </row>
-    <row r="107" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:25" x14ac:dyDescent="0.2">
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
@@ -15052,7 +15099,7 @@
       <c r="S107" s="16"/>
       <c r="T107" s="16"/>
     </row>
-    <row r="108" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:25" x14ac:dyDescent="0.2">
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
@@ -15068,7 +15115,7 @@
       <c r="S108" s="16"/>
       <c r="T108" s="16"/>
     </row>
-    <row r="109" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:25" x14ac:dyDescent="0.2">
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
@@ -15084,7 +15131,7 @@
       <c r="S109" s="16"/>
       <c r="T109" s="16"/>
     </row>
-    <row r="110" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:25" x14ac:dyDescent="0.2">
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
@@ -15100,7 +15147,7 @@
       <c r="S110" s="16"/>
       <c r="T110" s="16"/>
     </row>
-    <row r="111" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:25" x14ac:dyDescent="0.2">
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
@@ -15116,7 +15163,7 @@
       <c r="S111" s="16"/>
       <c r="T111" s="16"/>
     </row>
-    <row r="112" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:25" x14ac:dyDescent="0.2">
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
@@ -25900,6 +25947,150 @@
       <c r="S785" s="16"/>
       <c r="T785" s="16"/>
     </row>
+    <row r="786" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F786" s="16"/>
+      <c r="G786" s="16"/>
+      <c r="H786" s="16"/>
+      <c r="I786" s="16"/>
+      <c r="K786" s="16"/>
+      <c r="L786" s="16"/>
+      <c r="M786" s="16"/>
+      <c r="N786" s="16"/>
+      <c r="O786" s="16"/>
+      <c r="P786" s="16"/>
+      <c r="Q786" s="16"/>
+      <c r="R786" s="16"/>
+      <c r="S786" s="16"/>
+      <c r="T786" s="16"/>
+    </row>
+    <row r="787" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F787" s="16"/>
+      <c r="G787" s="16"/>
+      <c r="H787" s="16"/>
+      <c r="I787" s="16"/>
+      <c r="K787" s="16"/>
+      <c r="L787" s="16"/>
+      <c r="M787" s="16"/>
+      <c r="N787" s="16"/>
+      <c r="O787" s="16"/>
+      <c r="P787" s="16"/>
+      <c r="Q787" s="16"/>
+      <c r="R787" s="16"/>
+      <c r="S787" s="16"/>
+      <c r="T787" s="16"/>
+    </row>
+    <row r="788" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F788" s="16"/>
+      <c r="G788" s="16"/>
+      <c r="H788" s="16"/>
+      <c r="I788" s="16"/>
+      <c r="K788" s="16"/>
+      <c r="L788" s="16"/>
+      <c r="M788" s="16"/>
+      <c r="N788" s="16"/>
+      <c r="O788" s="16"/>
+      <c r="P788" s="16"/>
+      <c r="Q788" s="16"/>
+      <c r="R788" s="16"/>
+      <c r="S788" s="16"/>
+      <c r="T788" s="16"/>
+    </row>
+    <row r="789" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F789" s="16"/>
+      <c r="G789" s="16"/>
+      <c r="H789" s="16"/>
+      <c r="I789" s="16"/>
+      <c r="K789" s="16"/>
+      <c r="L789" s="16"/>
+      <c r="M789" s="16"/>
+      <c r="N789" s="16"/>
+      <c r="O789" s="16"/>
+      <c r="P789" s="16"/>
+      <c r="Q789" s="16"/>
+      <c r="R789" s="16"/>
+      <c r="S789" s="16"/>
+      <c r="T789" s="16"/>
+    </row>
+    <row r="790" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F790" s="16"/>
+      <c r="G790" s="16"/>
+      <c r="H790" s="16"/>
+      <c r="I790" s="16"/>
+      <c r="K790" s="16"/>
+      <c r="L790" s="16"/>
+      <c r="M790" s="16"/>
+      <c r="N790" s="16"/>
+      <c r="O790" s="16"/>
+      <c r="P790" s="16"/>
+      <c r="Q790" s="16"/>
+      <c r="R790" s="16"/>
+      <c r="S790" s="16"/>
+      <c r="T790" s="16"/>
+    </row>
+    <row r="791" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F791" s="16"/>
+      <c r="G791" s="16"/>
+      <c r="H791" s="16"/>
+      <c r="I791" s="16"/>
+      <c r="K791" s="16"/>
+      <c r="L791" s="16"/>
+      <c r="M791" s="16"/>
+      <c r="N791" s="16"/>
+      <c r="O791" s="16"/>
+      <c r="P791" s="16"/>
+      <c r="Q791" s="16"/>
+      <c r="R791" s="16"/>
+      <c r="S791" s="16"/>
+      <c r="T791" s="16"/>
+    </row>
+    <row r="792" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F792" s="16"/>
+      <c r="G792" s="16"/>
+      <c r="H792" s="16"/>
+      <c r="I792" s="16"/>
+      <c r="K792" s="16"/>
+      <c r="L792" s="16"/>
+      <c r="M792" s="16"/>
+      <c r="N792" s="16"/>
+      <c r="O792" s="16"/>
+      <c r="P792" s="16"/>
+      <c r="Q792" s="16"/>
+      <c r="R792" s="16"/>
+      <c r="S792" s="16"/>
+      <c r="T792" s="16"/>
+    </row>
+    <row r="793" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F793" s="16"/>
+      <c r="G793" s="16"/>
+      <c r="H793" s="16"/>
+      <c r="I793" s="16"/>
+      <c r="K793" s="16"/>
+      <c r="L793" s="16"/>
+      <c r="M793" s="16"/>
+      <c r="N793" s="16"/>
+      <c r="O793" s="16"/>
+      <c r="P793" s="16"/>
+      <c r="Q793" s="16"/>
+      <c r="R793" s="16"/>
+      <c r="S793" s="16"/>
+      <c r="T793" s="16"/>
+    </row>
+    <row r="794" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F794" s="16"/>
+      <c r="G794" s="16"/>
+      <c r="H794" s="16"/>
+      <c r="I794" s="16"/>
+      <c r="K794" s="16"/>
+      <c r="L794" s="16"/>
+      <c r="M794" s="16"/>
+      <c r="N794" s="16"/>
+      <c r="O794" s="16"/>
+      <c r="P794" s="16"/>
+      <c r="Q794" s="16"/>
+      <c r="R794" s="16"/>
+      <c r="S794" s="16"/>
+      <c r="T794" s="16"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
@@ -25911,7 +26102,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
+  <conditionalFormatting sqref="C92">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -25919,9 +26110,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F31:I31 K92:P232 S92:S232 K54:M55 K90:M90 M88:M89 M91 K50:M50 K31:M39 K56:M87" formulaRange="1"/>
-    <ignoredError sqref="Q233:R243" formula="1"/>
-    <ignoredError sqref="Q92:R232 S54:S55 N54:R55 Q88:Q89 Q91 N90:R90 O88:O89 O91 N50:S50 N31:S39 S56:S91 N56:R87" formula="1" formulaRange="1"/>
+    <ignoredError sqref="F31:I31 K101:P241 S101:S241 K99:M99 M97:M98 M100 K50:M50 K31:M39 K54:M64 K91:M96 K69:M84" formulaRange="1"/>
+    <ignoredError sqref="Q242:R252" formula="1"/>
+    <ignoredError sqref="Q101:R241 S54:S55 N54:R55 Q97:Q98 Q100 N99:R99 O97:O98 O100 N50:S50 N31:S39 S56:S64 N56:R64 S91:S100 N91:R96 N69:R84 S69:S84" formula="1" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
